--- a/forecasts_folder/p70_forecast.xlsx
+++ b/forecasts_folder/p70_forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/forecasts_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5445D26E-3BAF-46F3-876C-57254A3CD66A}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDFA9A51-2278-49E4-8C63-5A3DDA117140}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>ASIN</t>
   </si>
@@ -50,154 +50,178 @@
     <t>GIGABYTE</t>
   </si>
   <si>
-    <t>B091HTG6DQ</t>
-  </si>
-  <si>
-    <t>GC-WBAX210</t>
-  </si>
-  <si>
-    <t>Week 0 (17 Nov - 23 Nov)</t>
-  </si>
-  <si>
-    <t>Week 1 (24 Nov - 30 Nov)</t>
-  </si>
-  <si>
-    <t>Week 2 (1 Dec - 7 Dec)</t>
-  </si>
-  <si>
-    <t>Week 3 (8 Dec - 14 Dec)</t>
-  </si>
-  <si>
-    <t>Week 4 (15 Dec - 21 Dec)</t>
-  </si>
-  <si>
-    <t>Week 5 (22 Dec - 28 Dec)</t>
-  </si>
-  <si>
-    <t>Week 6 (29 Dec - 4 Jan)</t>
-  </si>
-  <si>
-    <t>Week 7 (5 Jan - 11 Jan)</t>
-  </si>
-  <si>
-    <t>Week 8 (12 Jan - 18 Jan)</t>
-  </si>
-  <si>
-    <t>Week 9 (19 Jan - 25 Jan)</t>
-  </si>
-  <si>
-    <t>Week 10 (26 Jan - 1 Feb)</t>
-  </si>
-  <si>
-    <t>Week 11 (2 Feb - 8 Feb)</t>
-  </si>
-  <si>
-    <t>Week 12 (9 Feb - 15 Feb)</t>
-  </si>
-  <si>
-    <t>Week 13 (16 Feb - 22 Feb)</t>
-  </si>
-  <si>
-    <t>Week 14 (23 Feb - 1 Mar)</t>
-  </si>
-  <si>
-    <t>Week 15 (2 Mar - 8 Mar)</t>
-  </si>
-  <si>
-    <t>Week 16 (9 Mar - 15 Mar)</t>
-  </si>
-  <si>
-    <t>Week 17 (16 Mar - 22 Mar)</t>
-  </si>
-  <si>
-    <t>Week 18 (23 Mar - 29 Mar)</t>
-  </si>
-  <si>
-    <t>Week 19 (30 Mar - 5 Apr)</t>
-  </si>
-  <si>
-    <t>Week 20 (6 Apr - 12 Apr)</t>
-  </si>
-  <si>
-    <t>Week 21 (13 Apr - 19 Apr)</t>
-  </si>
-  <si>
-    <t>Week 22 (20 Apr - 26 Apr)</t>
-  </si>
-  <si>
-    <t>Week 23 (27 Apr - 3 May)</t>
-  </si>
-  <si>
-    <t>Week 24 (4 May - 10 May)</t>
-  </si>
-  <si>
-    <t>Week 25 (11 May - 17 May)</t>
-  </si>
-  <si>
-    <t>Week 26 (18 May - 24 May)</t>
-  </si>
-  <si>
-    <t>Week 27 (25 May - 31 May)</t>
-  </si>
-  <si>
-    <t>Week 28 (1 Jun - 7 Jun)</t>
-  </si>
-  <si>
-    <t>Week 29 (8 Jun - 14 Jun)</t>
-  </si>
-  <si>
-    <t>Week 30 (15 Jun - 21 Jun)</t>
-  </si>
-  <si>
-    <t>Week 31 (22 Jun - 28 Jun)</t>
-  </si>
-  <si>
-    <t>Week 32 (29 Jun - 5 Jul)</t>
-  </si>
-  <si>
-    <t>Week 33 (6 Jul - 12 Jul)</t>
-  </si>
-  <si>
-    <t>Week 34 (13 Jul - 19 Jul)</t>
-  </si>
-  <si>
-    <t>Week 35 (20 Jul - 26 Jul)</t>
-  </si>
-  <si>
-    <t>Week 36 (27 Jul - 2 Aug)</t>
-  </si>
-  <si>
-    <t>Week 37 (3 Aug - 9 Aug)</t>
-  </si>
-  <si>
-    <t>Week 38 (10 Aug - 16 Aug)</t>
-  </si>
-  <si>
-    <t>Week 39 (17 Aug - 23 Aug)</t>
-  </si>
-  <si>
-    <t>Week 40 (24 Aug - 30 Aug)</t>
-  </si>
-  <si>
-    <t>Week 41 (31 Aug - 6 Sep)</t>
-  </si>
-  <si>
-    <t>Week 42 (7 Sep - 13 Sep)</t>
-  </si>
-  <si>
-    <t>Week 43 (14 Sep - 20 Sep)</t>
-  </si>
-  <si>
-    <t>Week 44 (21 Sep - 27 Sep)</t>
-  </si>
-  <si>
-    <t>Week 45 (28 Sep - 4 Oct)</t>
-  </si>
-  <si>
-    <t>Week 46 (5 Oct - 11 Oct)</t>
-  </si>
-  <si>
-    <t>Week 47 (12 Oct - 18 Oct)</t>
+    <t>Week 0 (1 Dec - 7 Dec)</t>
+  </si>
+  <si>
+    <t>Week 1 (8 Dec - 14 Dec)</t>
+  </si>
+  <si>
+    <t>Week 2 (15 Dec - 21 Dec)</t>
+  </si>
+  <si>
+    <t>Week 3 (22 Dec - 28 Dec)</t>
+  </si>
+  <si>
+    <t>Week 4 (29 Dec - 4 Jan)</t>
+  </si>
+  <si>
+    <t>Week 5 (5 Jan - 11 Jan)</t>
+  </si>
+  <si>
+    <t>Week 6 (12 Jan - 18 Jan)</t>
+  </si>
+  <si>
+    <t>Week 7 (19 Jan - 25 Jan)</t>
+  </si>
+  <si>
+    <t>Week 8 (26 Jan - 1 Feb)</t>
+  </si>
+  <si>
+    <t>Week 9 (2 Feb - 8 Feb)</t>
+  </si>
+  <si>
+    <t>Week 10 (9 Feb - 15 Feb)</t>
+  </si>
+  <si>
+    <t>Week 11 (16 Feb - 22 Feb)</t>
+  </si>
+  <si>
+    <t>Week 12 (23 Feb - 1 Mar)</t>
+  </si>
+  <si>
+    <t>Week 13 (2 Mar - 8 Mar)</t>
+  </si>
+  <si>
+    <t>Week 14 (9 Mar - 15 Mar)</t>
+  </si>
+  <si>
+    <t>Week 15 (16 Mar - 22 Mar)</t>
+  </si>
+  <si>
+    <t>Week 16 (23 Mar - 29 Mar)</t>
+  </si>
+  <si>
+    <t>Week 17 (30 Mar - 5 Apr)</t>
+  </si>
+  <si>
+    <t>Week 18 (6 Apr - 12 Apr)</t>
+  </si>
+  <si>
+    <t>Week 19 (13 Apr - 19 Apr)</t>
+  </si>
+  <si>
+    <t>Week 20 (20 Apr - 26 Apr)</t>
+  </si>
+  <si>
+    <t>Week 21 (27 Apr - 3 May)</t>
+  </si>
+  <si>
+    <t>Week 22 (4 May - 10 May)</t>
+  </si>
+  <si>
+    <t>Week 23 (11 May - 17 May)</t>
+  </si>
+  <si>
+    <t>Week 24 (18 May - 24 May)</t>
+  </si>
+  <si>
+    <t>Week 25 (25 May - 31 May)</t>
+  </si>
+  <si>
+    <t>Week 26 (1 Jun - 7 Jun)</t>
+  </si>
+  <si>
+    <t>Week 27 (8 Jun - 14 Jun)</t>
+  </si>
+  <si>
+    <t>Week 28 (15 Jun - 21 Jun)</t>
+  </si>
+  <si>
+    <t>Week 29 (22 Jun - 28 Jun)</t>
+  </si>
+  <si>
+    <t>Week 30 (29 Jun - 5 Jul)</t>
+  </si>
+  <si>
+    <t>Week 31 (6 Jul - 12 Jul)</t>
+  </si>
+  <si>
+    <t>Week 32 (13 Jul - 19 Jul)</t>
+  </si>
+  <si>
+    <t>Week 33 (20 Jul - 26 Jul)</t>
+  </si>
+  <si>
+    <t>Week 34 (27 Jul - 2 Aug)</t>
+  </si>
+  <si>
+    <t>Week 35 (3 Aug - 9 Aug)</t>
+  </si>
+  <si>
+    <t>Week 36 (10 Aug - 16 Aug)</t>
+  </si>
+  <si>
+    <t>Week 37 (17 Aug - 23 Aug)</t>
+  </si>
+  <si>
+    <t>Week 38 (24 Aug - 30 Aug)</t>
+  </si>
+  <si>
+    <t>Week 39 (31 Aug - 6 Sep)</t>
+  </si>
+  <si>
+    <t>Week 40 (7 Sep - 13 Sep)</t>
+  </si>
+  <si>
+    <t>Week 41 (14 Sep - 20 Sep)</t>
+  </si>
+  <si>
+    <t>Week 42 (21 Sep - 27 Sep)</t>
+  </si>
+  <si>
+    <t>Week 43 (28 Sep - 4 Oct)</t>
+  </si>
+  <si>
+    <t>Week 44 (5 Oct - 11 Oct)</t>
+  </si>
+  <si>
+    <t>Week 45 (12 Oct - 18 Oct)</t>
+  </si>
+  <si>
+    <t>Week 46 (19 Oct - 25 Oct)</t>
+  </si>
+  <si>
+    <t>Week 47 (26 Oct - 1 Nov)</t>
+  </si>
+  <si>
+    <t>B08F7HPJ4F</t>
+  </si>
+  <si>
+    <t>Gigabyte A520M S2H (AMD Ryzen AM4/MicroATX/4+3 Phases Digital PWM/Gigabyte Gaming GbE LAN/NVMe PCIe 3.0 x4 M.2/3 Display Interfaces/Q-Flash Plus/RGB Fusion 2.0/Motherboard)</t>
+  </si>
+  <si>
+    <t>B08F7BHDLY</t>
+  </si>
+  <si>
+    <t>Gigabyte A520I AC (AMD Ryzen AM4/Mini-ITX/Direct 6 Phases Digital PWM with 55A DrMOS/Gaming GbE LAN/Intel WiFi+Bluetooth/NVMe PCIe 3.0 x4 M.2/3 Display Interfaces/Q-Flash Plus/Motherboard)</t>
+  </si>
+  <si>
+    <t>B083RVN2VG</t>
+  </si>
+  <si>
+    <t>GIGABYTE A620I AX (AM5/ LGA 1718/ AMD/ A620/ Mini-ITX/ 5-Year Warranty/ DDR5/ Single M.2/ PCIe 4.0/ USB 3.2 Gen1 Type-C/Realtek Wi-Fi 6E/ Realtek 2.5GbE/ Q-Flash Plus/PCIe EZ-Latch/Motherboard)</t>
+  </si>
+  <si>
+    <t>B0D2V2FPS7</t>
+  </si>
+  <si>
+    <t>GIGABYTE A620M Gaming X AX (Rev. 1.1) AM5 LGA 1718 AMD A620 M-ATX, DDR5, PCIe 4.0 M.2, PCIe 4.0, USB 3.2 Gen1x2 Type-C, Wi-Fi 6E, Realtek 1GbE LAN, Q-Flash Plus, PCIe EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0C1ZZ57ZW</t>
+  </si>
+  <si>
+    <t>GIGABYTE A620M Gaming X AMD A620 Micro ATX Motherboard with DDR5, PCIe 4.0, USB 3.2 Gen1x2 Type-C, 5-Year Warranty</t>
   </si>
 </sst>
 </file>
@@ -537,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:AY2"/>
+      <selection activeCell="A2" sqref="A2:AY6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,303 +621,923 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>49</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>213</v>
+      </c>
+      <c r="E2" s="3">
+        <v>128</v>
+      </c>
+      <c r="F2" s="3">
+        <v>104</v>
+      </c>
+      <c r="G2" s="3">
+        <v>128</v>
+      </c>
+      <c r="H2" s="3">
+        <v>102</v>
+      </c>
+      <c r="I2" s="3">
+        <v>81</v>
+      </c>
+      <c r="J2" s="3">
+        <v>87</v>
+      </c>
+      <c r="K2" s="3">
+        <v>81</v>
+      </c>
+      <c r="L2" s="3">
+        <v>80</v>
+      </c>
+      <c r="M2" s="3">
+        <v>76</v>
+      </c>
+      <c r="N2" s="3">
+        <v>83</v>
+      </c>
+      <c r="O2" s="3">
+        <v>85</v>
+      </c>
+      <c r="P2" s="3">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>76</v>
+      </c>
+      <c r="R2" s="3">
+        <v>77</v>
+      </c>
+      <c r="S2" s="3">
+        <v>76</v>
+      </c>
+      <c r="T2" s="3">
+        <v>72</v>
+      </c>
+      <c r="U2" s="3">
+        <v>68</v>
+      </c>
+      <c r="V2" s="3">
+        <v>79</v>
+      </c>
+      <c r="W2" s="3">
+        <v>70</v>
+      </c>
+      <c r="X2" s="3">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>64</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>59</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>63</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>103</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>94</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>61</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>62</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>59</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>60</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>60</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>58</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>57</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>53</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>54</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>52</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>51</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>53</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>174</v>
+      </c>
+      <c r="E3">
+        <v>115</v>
+      </c>
+      <c r="F3">
+        <v>107</v>
+      </c>
+      <c r="G3">
+        <v>129</v>
+      </c>
+      <c r="H3">
+        <v>104</v>
+      </c>
+      <c r="I3">
+        <v>97</v>
+      </c>
+      <c r="J3">
+        <v>98</v>
+      </c>
+      <c r="K3">
+        <v>96</v>
+      </c>
+      <c r="L3">
+        <v>94</v>
+      </c>
+      <c r="M3">
+        <v>99</v>
+      </c>
+      <c r="N3">
+        <v>107</v>
+      </c>
+      <c r="O3">
+        <v>106</v>
+      </c>
+      <c r="P3">
+        <v>99</v>
+      </c>
+      <c r="Q3">
+        <v>97</v>
+      </c>
+      <c r="R3">
+        <v>99</v>
+      </c>
+      <c r="S3">
+        <v>98</v>
+      </c>
+      <c r="T3">
+        <v>92</v>
+      </c>
+      <c r="U3">
+        <v>89</v>
+      </c>
+      <c r="V3">
+        <v>98</v>
+      </c>
+      <c r="W3">
+        <v>88</v>
+      </c>
+      <c r="X3">
+        <v>86</v>
+      </c>
+      <c r="Y3">
+        <v>81</v>
+      </c>
+      <c r="Z3">
+        <v>81</v>
+      </c>
+      <c r="AA3">
+        <v>79</v>
+      </c>
+      <c r="AB3">
+        <v>82</v>
+      </c>
+      <c r="AC3">
+        <v>69</v>
+      </c>
+      <c r="AD3">
+        <v>73</v>
+      </c>
+      <c r="AE3">
+        <v>69</v>
+      </c>
+      <c r="AF3">
+        <v>63</v>
+      </c>
+      <c r="AG3">
+        <v>77</v>
+      </c>
+      <c r="AH3">
+        <v>69</v>
+      </c>
+      <c r="AI3">
+        <v>76</v>
+      </c>
+      <c r="AJ3">
+        <v>105</v>
+      </c>
+      <c r="AK3">
+        <v>100</v>
+      </c>
+      <c r="AL3">
+        <v>71</v>
+      </c>
+      <c r="AM3">
+        <v>69</v>
+      </c>
+      <c r="AN3">
+        <v>67</v>
+      </c>
+      <c r="AO3">
+        <v>65</v>
+      </c>
+      <c r="AP3">
+        <v>63</v>
+      </c>
+      <c r="AQ3">
+        <v>65</v>
+      </c>
+      <c r="AR3">
+        <v>62</v>
+      </c>
+      <c r="AS3">
+        <v>60</v>
+      </c>
+      <c r="AT3">
+        <v>57</v>
+      </c>
+      <c r="AU3">
+        <v>58</v>
+      </c>
+      <c r="AV3">
+        <v>58</v>
+      </c>
+      <c r="AW3">
+        <v>57</v>
+      </c>
+      <c r="AX3">
+        <v>59</v>
+      </c>
+      <c r="AY3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>72</v>
+      </c>
+      <c r="G4">
+        <v>83</v>
+      </c>
+      <c r="H4">
+        <v>66</v>
+      </c>
+      <c r="I4">
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>67</v>
+      </c>
+      <c r="K4">
+        <v>64</v>
+      </c>
+      <c r="L4">
+        <v>62</v>
+      </c>
+      <c r="M4">
+        <v>66</v>
+      </c>
+      <c r="N4">
+        <v>77</v>
+      </c>
+      <c r="O4">
+        <v>76</v>
+      </c>
+      <c r="P4">
+        <v>74</v>
+      </c>
+      <c r="Q4">
+        <v>72</v>
+      </c>
+      <c r="R4">
+        <v>72</v>
+      </c>
+      <c r="S4">
+        <v>72</v>
+      </c>
+      <c r="T4">
+        <v>69</v>
+      </c>
+      <c r="U4">
+        <v>67</v>
+      </c>
+      <c r="V4">
+        <v>74</v>
+      </c>
+      <c r="W4">
+        <v>67</v>
+      </c>
+      <c r="X4">
+        <v>64</v>
+      </c>
+      <c r="Y4">
+        <v>62</v>
+      </c>
+      <c r="Z4">
+        <v>62</v>
+      </c>
+      <c r="AA4">
+        <v>60</v>
+      </c>
+      <c r="AB4">
+        <v>64</v>
+      </c>
+      <c r="AC4">
+        <v>57</v>
+      </c>
+      <c r="AD4">
+        <v>57</v>
+      </c>
+      <c r="AE4">
+        <v>54</v>
+      </c>
+      <c r="AF4">
+        <v>50</v>
+      </c>
+      <c r="AG4">
+        <v>56</v>
+      </c>
+      <c r="AH4">
+        <v>52</v>
+      </c>
+      <c r="AI4">
+        <v>59</v>
+      </c>
+      <c r="AJ4">
+        <v>77</v>
+      </c>
+      <c r="AK4">
+        <v>75</v>
+      </c>
+      <c r="AL4">
+        <v>57</v>
+      </c>
+      <c r="AM4">
+        <v>54</v>
+      </c>
+      <c r="AN4">
+        <v>53</v>
+      </c>
+      <c r="AO4">
+        <v>53</v>
+      </c>
+      <c r="AP4">
+        <v>54</v>
+      </c>
+      <c r="AQ4">
+        <v>54</v>
+      </c>
+      <c r="AR4">
+        <v>51</v>
+      </c>
+      <c r="AS4">
+        <v>49</v>
+      </c>
+      <c r="AT4">
+        <v>49</v>
+      </c>
+      <c r="AU4">
+        <v>52</v>
+      </c>
+      <c r="AV4">
+        <v>50</v>
+      </c>
+      <c r="AW4">
+        <v>50</v>
+      </c>
+      <c r="AX4">
+        <v>47</v>
+      </c>
+      <c r="AY4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>21</v>
+      </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>19</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5">
+        <v>21</v>
+      </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>19</v>
+      </c>
+      <c r="V5">
+        <v>22</v>
+      </c>
+      <c r="W5">
+        <v>20</v>
+      </c>
+      <c r="X5">
+        <v>19</v>
+      </c>
+      <c r="Y5">
+        <v>19</v>
+      </c>
+      <c r="Z5">
+        <v>19</v>
+      </c>
+      <c r="AA5">
+        <v>19</v>
+      </c>
+      <c r="AB5">
+        <v>19</v>
+      </c>
+      <c r="AC5">
+        <v>17</v>
+      </c>
+      <c r="AD5">
+        <v>18</v>
+      </c>
+      <c r="AE5">
+        <v>16</v>
+      </c>
+      <c r="AF5">
+        <v>15</v>
+      </c>
+      <c r="AG5">
+        <v>17</v>
+      </c>
+      <c r="AH5">
+        <v>14</v>
+      </c>
+      <c r="AI5">
+        <v>17</v>
+      </c>
+      <c r="AJ5">
+        <v>23</v>
+      </c>
+      <c r="AK5">
+        <v>20</v>
+      </c>
+      <c r="AL5">
+        <v>15</v>
+      </c>
+      <c r="AM5">
+        <v>16</v>
+      </c>
+      <c r="AN5">
+        <v>14</v>
+      </c>
+      <c r="AO5">
+        <v>14</v>
+      </c>
+      <c r="AP5">
+        <v>15</v>
+      </c>
+      <c r="AQ5">
+        <v>15</v>
+      </c>
+      <c r="AR5">
+        <v>13</v>
+      </c>
+      <c r="AS5">
+        <v>13</v>
+      </c>
+      <c r="AT5">
+        <v>11</v>
+      </c>
+      <c r="AU5">
+        <v>13</v>
+      </c>
+      <c r="AV5">
+        <v>12</v>
+      </c>
+      <c r="AW5">
+        <v>11</v>
+      </c>
+      <c r="AX5">
+        <v>13</v>
+      </c>
+      <c r="AY5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1016</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1334</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1117</v>
-      </c>
-      <c r="G2" s="3">
-        <v>914</v>
-      </c>
-      <c r="H2" s="3">
-        <v>933</v>
-      </c>
-      <c r="I2" s="3">
-        <v>761</v>
-      </c>
-      <c r="J2" s="3">
-        <v>703</v>
-      </c>
-      <c r="K2" s="3">
-        <v>729</v>
-      </c>
-      <c r="L2" s="3">
-        <v>685</v>
-      </c>
-      <c r="M2" s="3">
-        <v>664</v>
-      </c>
-      <c r="N2" s="3">
-        <v>673</v>
-      </c>
-      <c r="O2" s="3">
-        <v>665</v>
-      </c>
-      <c r="P2" s="3">
-        <v>654</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>633</v>
-      </c>
-      <c r="R2" s="3">
-        <v>632</v>
-      </c>
-      <c r="S2" s="3">
-        <v>637</v>
-      </c>
-      <c r="T2" s="3">
-        <v>639</v>
-      </c>
-      <c r="U2" s="3">
-        <v>647</v>
-      </c>
-      <c r="V2" s="3">
-        <v>660</v>
-      </c>
-      <c r="W2" s="3">
-        <v>625</v>
-      </c>
-      <c r="X2" s="3">
-        <v>630</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>622</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>616</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>607</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>615</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>602</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>595</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>601</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>580</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>600</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>601</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>602</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>590</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>760</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>771</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>582</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>579</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>596</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>589</v>
-      </c>
-      <c r="AQ2" s="3">
-        <v>615</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>589</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>594</v>
-      </c>
-      <c r="AT2" s="3">
-        <v>563</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>576</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>571</v>
-      </c>
-      <c r="AW2" s="3">
-        <v>562</v>
-      </c>
-      <c r="AX2" s="3">
-        <v>538</v>
-      </c>
-      <c r="AY2" s="4">
-        <v>538</v>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <v>3</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>2</v>
+      </c>
+      <c r="AJ6">
+        <v>2</v>
+      </c>
+      <c r="AK6">
+        <v>2</v>
+      </c>
+      <c r="AL6">
+        <v>2</v>
+      </c>
+      <c r="AM6">
+        <v>2</v>
+      </c>
+      <c r="AN6">
+        <v>2</v>
+      </c>
+      <c r="AO6">
+        <v>2</v>
+      </c>
+      <c r="AP6">
+        <v>2</v>
+      </c>
+      <c r="AQ6">
+        <v>2</v>
+      </c>
+      <c r="AR6">
+        <v>2</v>
+      </c>
+      <c r="AS6">
+        <v>2</v>
+      </c>
+      <c r="AT6">
+        <v>2</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/forecasts_folder/p70_forecast.xlsx
+++ b/forecasts_folder/p70_forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/forecasts_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BC3440C-55E9-4675-8EB3-26DCC1B1562E}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AA5CCA6-E1E0-48B7-9318-3F7E9B5CA681}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
   <si>
     <t>ASIN</t>
   </si>
@@ -50,288 +50,6 @@
     <t>GIGABYTE</t>
   </si>
   <si>
-    <t>B0CW27N4TC</t>
-  </si>
-  <si>
-    <t>GIGABYTE - G6X (2024) Gaming Laptop - 165Hz 1920x1200 WUXGA - NVIDIA GeForce RTX 4060 - Intel i7-13650HX - 2TB SSD with 32GB DDR5 RAM - Windows 11 Home AD (G6X 9KG-43US865SH)</t>
-  </si>
-  <si>
-    <t>B0CW27TFS3</t>
-  </si>
-  <si>
-    <t>GIGABYTE - G6X (2024) Gaming Laptop - 165Hz 1920x1200 WUXGA - NVIDIA GeForce RTX 4060 - Intel i7-13650HX - 1TB SSD with 32GB DDR5 RAM - Windows 11 Home AD (G6X 9KG-43US864SH)</t>
-  </si>
-  <si>
-    <t>B0CW273Y8K</t>
-  </si>
-  <si>
-    <t>GIGABYTE - G6X (2024) Gaming Laptop - 165Hz 1920x1200 WUXGA - NVIDIA GeForce RTX 4060 - Intel i7-13650HX - 1TB SSD with 16GB DDR5 RAM - Windows 11 Home AD (G6X 9KG-43US854SH)</t>
-  </si>
-  <si>
-    <t>B0BSR8959Z</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 17H: 17.3" Thin Bezel FHD1920x1080 360Hz Display, NVIDIA GeForce RTX 4080 Laptop GPU 12GB GDDR6, Intel Core i7-13700H,16GB DDR5 RAM, 1TB SSD,Win11 Home AD(AORUS 17H BXF-74US554SH),Black</t>
-  </si>
-  <si>
-    <t>B0BZQMXLZP</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 7: 17.3" FHD 1920x1080 360Hz, NVIDIA GeForce RTX 4060 Laptop GPU 8GB GDDR6, Intel Core i5-12500H, 16GB DDR4 RAM, 512GB SSD, Win11 Home (AORUS 7 9KF-E3US513SH), Black</t>
-  </si>
-  <si>
-    <t>B0CW2D76QR</t>
-  </si>
-  <si>
-    <t>GIGABYTE - G6 (2024) Gaming Laptop - 165Hz 1920x1200 WUXGA - NVIDIA GeForce RTX 4060 - Intel i7-13620H - 2TB SSD with 32GB DDR5 RAM - Windows 11 Home AD (G6 KF-H3US865KH)</t>
-  </si>
-  <si>
-    <t>B0CV2JQNX1</t>
-  </si>
-  <si>
-    <t>GIGABYTE - G6 (2024) Gaming Laptop - 165Hz 1920x1200 WUXGA - NVIDIA GeForce RTX 4050 - Intel i7-13620H - 1TB SSD with 16GB DDR5 RAM - Windows 11 Home (G6 MF-H2US854KH)</t>
-  </si>
-  <si>
-    <t>B0CW2BM5MV</t>
-  </si>
-  <si>
-    <t>GIGABYTE - AORUS 16X (2024) Gaming Laptop - 165Hz 2560x1600 WQXGA - NVIDIA GeForce RTX 4060 - Intel i7-14650HX - 1TB SSD with 32GB DDR5 RAM - Windows 11 Home AD (AORUS 16X AKG-53USC64SH)</t>
-  </si>
-  <si>
-    <t>B0CW27V4HC</t>
-  </si>
-  <si>
-    <t>GIGABYTE - AORUS 16X (2024) Gaming Laptop - 165Hz 2560x1600 WQXGA - NVIDIA GeForce RTX 4070 - Intel i7-14650HX - 1TB SSD with 32GB DDR5 RAM - Windows 11 Home AD (AORUS 16X ASG-53USC64SH)</t>
-  </si>
-  <si>
-    <t>B0BVRGMXHG</t>
-  </si>
-  <si>
-    <t>GIGABYTE AERO 14 OLED: 14" Thin Bezel 2.8K QHD+ 2880x1800 90Hz OLED, NVIDIA GForce RTX 4050 GPU 6GB GDDR6, Intel Core i7-13700H, 16GB DDR5 RAM, 1TB SSD, Windows 11 Home (AERO 14 OLED BMF-72USBB4SH)</t>
-  </si>
-  <si>
-    <t>B0CW286XRZ</t>
-  </si>
-  <si>
-    <t>GIGABYTE - AORUS 16X (2024) Gaming Laptop - 165Hz 2560x1600 WQXGA - NVIDIA GeForce RTX 4070 - Intel i7-13650HX - 1TB SSD with 32GB DDR5 RAM - Windows 11 Home AD (AORUS 16X 9SG-43USC64SH)</t>
-  </si>
-  <si>
-    <t>B0BVRM8ZSG</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 15: 15.6" 16:9 Thin Bezel QHD 2560x1440 165Hz, NVIDIA GeForce RTX 4070 Laptop GPU 8GB GDDR6, Intel Core i7-13700H, 16GB DDR5 RAM, 1TB SSD, Win11 Home (AORUS 15 BSF-73US754SH), Black</t>
-  </si>
-  <si>
-    <t>B0CV2VVTX4</t>
-  </si>
-  <si>
-    <t>GIGABYTE - AORUS 17X (2024) Gaming Laptop - 240Hz 2560x1440 QHD - NVIDIA GeForce RTX 4090 - Intel i9-14900HX - 2TB SSD with 32GB DDR5 RAM - Windows 11 Home AD (AORUS 17X AZG-65US665SH)</t>
-  </si>
-  <si>
-    <t>B0CV2SCH63</t>
-  </si>
-  <si>
-    <t>GIGABYTE - G6 (2024) Gaming Laptop - 165Hz 1920x1200 WUXGA - NVIDIA GeForce RTX 4060 - Intel i7-13620H - 1TB SSD with 16GB DDR5 RAM - Windows 11 Home (G6 KF-H3US854KH)</t>
-  </si>
-  <si>
-    <t>B0CV2RQC53</t>
-  </si>
-  <si>
-    <t>GIGABYTE - AORUS 16X (2024) Gaming Laptop - 165Hz 2560x1600 WQXGA - NVIDIA GeForce RTX 4070 - Intel i9-14900HX - 2TB SSD with 32GB DDR5 RAM - Windows 11 Home AD (AORUS 16X ASG-63USC65SH)</t>
-  </si>
-  <si>
-    <t>B0BSR8VSF2</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 17X: 17.3" Thin Bezel QHD 2560x1440 240Hz Display, NVIDIA GeForce RTX 4080 Laptop GPU 12GB GDDR6, Intel Core i9-13900HX,16GB DDR5 RAM, 1TB SSD, Win11 Pro (AORUS 17X AXF-B4US694SP),Black</t>
-  </si>
-  <si>
-    <t>B0BVRFK7CZ</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 17: 17.3" Thin Bezel QHD 2560x1440 240Hz, NVIDIA GeForce RTX 4070 Laptop GPU 8GB GDDR6, Intel Core i7-13700H, 16GB DDR5 RAM, 1TB SSD, Win11 Home (AORUS 17 BSF-73US654SH),Black</t>
-  </si>
-  <si>
-    <t>B0CC3W59JB</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 15X: 15.6" 16:9 Thin Bezel QHD 2560x1440 165Hz, NVIDIA GeForce RTX 4070 Laptop GPU 8GB GDDR6, Intel Core i9-13980HX, 16GB DDR5 RAM, 1TB SSD, Win11 Home (AORUS 15X ASF-D3US754SH), Black</t>
-  </si>
-  <si>
-    <t>B0BVRF2X8K</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 15: 15.6" 16:9 Thin Bezel QHD 2560x1440 165Hz, NVIDIA GeForce RTX 4060 Laptop GPU 8GB GDDR6, Intel Core i7-13700H, 16GB DDR5 RAM, 1TB SSD, Win11 Home (AORUS 15 BKF-73US754SH), Black</t>
-  </si>
-  <si>
-    <t>B0BVRFRK5S</t>
-  </si>
-  <si>
-    <t>GIGABYTE AERO 14 OLED - 14.0" 16:10 2.8K QHD+ 2880x1800 90Hz OLED - NVIDIA GForce RTX 4050 GPU 6GB GDDR6 - Intel Core i5-12500H - 16GB DDR5 RAM - 1TB SSD - Windows 11 Home (AERO 14 OLED 9MF-E2USBB4SH)</t>
-  </si>
-  <si>
-    <t>B0C8W4N4TM</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 15: 15.6" 16:9 Thin Bezel FHD 1920x1080 360Hz, NVIDIA GeForce RTX 4050 Laptop GPU 6GB GDDR6, Intel Core i5-12500H, 8GB DDR5 RAM, 512GB SSD, Win11 Home (AORUS 15 9MF-E2US583SH), Black</t>
-  </si>
-  <si>
-    <t>B0BVRF9XKS</t>
-  </si>
-  <si>
-    <t>GIGABYTE AERO 16 OLED: 16" 16:10 4K UHD+ 3840x2400 60Hz OLED, NVIDIA GeForce RTX 4070 GPU 8GB GDDR6, Intel Core i7-13700H, 16GB DDR5 RAM, 1TB SSD, Windows 11 Home (AERO 16 OLED BSF-73US994SH)</t>
-  </si>
-  <si>
-    <t>B0BVRLCN99</t>
-  </si>
-  <si>
-    <t>GIGABYTE AERO 16 OLED: 16.0" 16:10 Thin Bezel 4K UHD+ 3840x2400 60Hz OLED, NVIDIA GeForce RTX 4070 GPU 8GB GDDR6, Intel Core i9-13900H, 32GB DDR5 RAM, 1TB SSD, Win11 Pro (AERO 16 OLED BSF-A3US964SP)</t>
-  </si>
-  <si>
-    <t>B0CGGZZTV3</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 17X: 17.3" 16:9 Thin Bezel QHD 2560x1440 240Hz, NVIDIA GeForce RTX 4090 Laptop GPU 16GB GDDR6, Intel Core i9-13980HX, 32GB DDR5 RAM, 2TB SSD, Windows 11 Home (AORUS 17X AZF-D5US665SH)</t>
-  </si>
-  <si>
-    <t>B0D3HBKW8C</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 17H: 17.3" Thin Bezel FHD 1920x1080 360Hz- NVIDIA GeForce RTX 4080 Laptop GPU 12GB GDDR6- Intel Core i7-13700H- 16GB DDR5 RAM- 1TB SSD- Win11 Home (AORUS 17H BXF-74US554SH-R) (Renewed)</t>
-  </si>
-  <si>
-    <t>B0CGH1BMZJ</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 16: 16.0" 16:10 QHD+ 2560x1600 240Hz, NVIDIA GeForce RTX 4070 Laptop GPU 8GB GDDR6, Intel Core i7-13700H, 16GB DDR5 RAM, 1TB SSD, Win11 Home AD (AORUS 16 BSF-73US654SH)</t>
-  </si>
-  <si>
-    <t>B0D3HBTT18</t>
-  </si>
-  <si>
-    <t>GIGABYTE G5 KE - 15.6" FHD 144Hz, NVIDIA GeForce RTX 3060 Laptop GPU 6GB GDDR6, Intel Core i5-12500H, 16GB Memory, 512GB SSD, Win11 Home, Gaming Laptop (G5 KE-52US213SH-R) (Renewed)</t>
-  </si>
-  <si>
-    <t>B0CGGZ3XBG</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 16: 16.0" 16:10 QHD+ 2560x1600 240Hz, NVIDIA GeForce RTX 4060 Laptop GPU 8GB GDDR6, Intel Core i7-13700H, 16GB DDR4 RAM, 1TB SSD, Win11 Home AD (AORUS 16 BKF-73US654SH)</t>
-  </si>
-  <si>
-    <t>B0CW28JXRJ</t>
-  </si>
-  <si>
-    <t>GIGABYTE - AORUS 15 (2024) Gaming Laptop - 165Hz 2560x1440 QHD - NVIDIA GeForce RTX 4060 - Intel Ultra 7 155H - 1TB SSD with 16GB DDR5 RAM - Windows 11 Home AD (AORUS 15 BKG-13US754SH)</t>
-  </si>
-  <si>
-    <t>B0CGH12MPN</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 17X: 17.3" 16:9 Thin Bezel QHD 2560x1440 240Hz, NVIDIA GeForce RTX 4080 Laptop GPU 12GB GDDR6, Intel Core i9-13980HX, 16GB DDR5 RAM, 1TB SSD, Windows 11 Pro (AORUS 17X AXF-D4US694SH)</t>
-  </si>
-  <si>
-    <t>B0BJNL7NRJ</t>
-  </si>
-  <si>
-    <t>GIGABYTE AERO 17 YE5: 17.3" 4K/UHD miniLED 120Hz, Intel Core i7-12700H, NVIDIA® GeForce RTX™ 3080Ti, 32GB DDR5 RAM, 2TB SSD, Win11 Pro (AERO 17 YE5-74US748HP)</t>
-  </si>
-  <si>
-    <t>B07SFR748X</t>
-  </si>
-  <si>
-    <t>Gigabyte AERO 15 OLED Thin and Light Laptop, 15.6 Thin Bezel UHD AMOLED Panel, i7-9750H, NVIDIA GeForce GTX1660Ti,16GB RAM, M.2 PCIe 512GB SSD, Win 10, 94Wh Battery (AERO 15 OLED SA-7US5130SH)</t>
-  </si>
-  <si>
-    <t>B0CW297HQV</t>
-  </si>
-  <si>
-    <t>GIGABYTE - AORUS 17 (2024) Gaming Laptop - 240Hz 2560x1440 QHD - NVIDIA GeForce RTX 4070 - Intel Ultra 7 155H - 1TB SSD with 16GB DDR5 RAM - Windows 11 Home AD (AORUS 17 BSG-13US654SH)</t>
-  </si>
-  <si>
-    <t>B0CV3B64K2</t>
-  </si>
-  <si>
-    <t>GIGABYTE - AORUS 17X (2024) Gaming Laptop - 240Hz 2560x1440 QHD - NVIDIA GeForce RTX 4080 - Intel i9-14900HX - 2TB SSD with 32GB DDR5 RAM - Windows 11 Home AD (AORUS 17X AXG-64US665SH)</t>
-  </si>
-  <si>
-    <t>B0D3HBK8LP</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 17 YE5: 17.3" Thin Bezel FHD 1920x1080 IPS- Intel Core i9-12900H- NVIDIA GeForce RTX 3080 Ti Laptop GPU 16GB GDDR6-32GB DDR5 RAM- 1TB SSD- Win11 Pro (AORUS 17 YE5-A4US544SP-R)(Renewed)</t>
-  </si>
-  <si>
-    <t>B0D3H8J99H</t>
-  </si>
-  <si>
-    <t>GIGABYTE U4 UD - 14.0" FHD - i7-1195G7 - Intel Iris Xe Graphics - 512 GB PCIe SSD - Laptop (U4 UD-70US823SH-R) (Renewed)</t>
-  </si>
-  <si>
-    <t>B0D3HDW513</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 15P XD: 15.6" FHD IPS Anti-Glare 240Hz, Intel Core i7, NVIDIA GeForce RTX 3070 Laptop GPU 8GB GDDR6, 16GB Memory, 1TB SSD, Win10 Home(AORUS 15P XD-73US324SH-R) (Renewed)</t>
-  </si>
-  <si>
-    <t>B0D3HB3ZKG</t>
-  </si>
-  <si>
-    <t>GIGABYTE - A7 K1 Gaming Laptop - 144Hz FHD 1920x1080 - NVIDIA GeForce RTX 3060 - AMD Ryzen7 5800H - 512GB M.2 SSD with 16GB DDR4 RAM - Windows 11 Home (A7 K1-BUS1130SB-R) (Renewed)</t>
-  </si>
-  <si>
-    <t>B0D3HD1XFH</t>
-  </si>
-  <si>
-    <t>GIGABYTE - AORUS 17G YD Gaming Laptop - 300Hz FHD 1920x1080 - NVIDIA GeForce RTX 3080 - Intel i7-11800H - 512GB M.2 SSD with 32GB DDR4 RAM - Windows 10 Home (AORUS 17G YD-73US345SH-R) (Renewed)</t>
-  </si>
-  <si>
-    <t>B0D3HB4SFN</t>
-  </si>
-  <si>
-    <t>GIGABYTE - AERO 16 XE4 Gaming Laptop - 60Hz UHD 3840x2400 - NVIDIA GeForce RTX 3070 Ti - Intel i7-12700H - 2TB M.2 SSD with 16GB DDR4 RAM - Windows 11 Pro (AERO 16 XE4-73US918HP-R) (Renewed)</t>
-  </si>
-  <si>
-    <t>B0D3HBPGV8</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 17 XE4: 17.3" Thin Bezel FHD 1920x1080 IPS- Intel Core i7-12700H- NVIDIA GeForce RTX 3070 Ti Laptop GPU 8GB GDDR6-16GB DDR4 RAM- 1TB SSD- Win11 Home (AORUS 17 XE4-73US514SH-R)(Renewed)</t>
-  </si>
-  <si>
-    <t>B0D3HDFR62</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS 17 XE5: 17.3" Thin Bezel FHD 1920x1080 IPS, Intel Core i7-12700H, NVIDIA GeForce RTX 3070 Ti Laptop GPU 8GB GDDR6, 16GB DDR5 RAM, 1TB SSD, Win11 Home (AORUS 17 XE5-73US534SH-R)(Renewed)</t>
-  </si>
-  <si>
-    <t>B09Z7349N8</t>
-  </si>
-  <si>
-    <t>GIGABYTE AERO 16 YE5-16" 4K/UHD+ Samsung AMOLED, Intel Core i9-12900H, NVIDIA® GeForce RTX™ 3080Ti, 64GB DDR5 RAM, 2TB SSD, Win11 Pro (AERO 16 YE5-A4US958HP)</t>
-  </si>
-  <si>
-    <t>B0D3HBRGLQ</t>
-  </si>
-  <si>
-    <t>GIGABYTE - AERO 17 YE5 Gaming Laptop - 120Hz UHD 3840x2400 - NVIDIA GeForce RTX 3080 Ti - Intel i7-12700H - 2TB M.2 SSD with 32GB DDR5 RAM - Windows 11 Pro (AERO 17 YE5-74US748HP-R) (Renewed)</t>
-  </si>
-  <si>
-    <t>B07SKLQXQX</t>
-  </si>
-  <si>
-    <t>GIGABYTE AERO 15 OLED Thin and Light Performance Laptop, 15.6 4K UHD OLED, GeForce RTX 2060 Studio laptop, Intel Core i7-9750H, 16GB DDR4, 512GB NVMe SSD, 8-hrs Battery (AERO 15 OLED WA-7US5130SP)</t>
-  </si>
-  <si>
-    <t>B0CV31TDXM</t>
-  </si>
-  <si>
-    <t>GIGABYTE - AORUS 16X (2024) Gaming Laptop - 165Hz 2560x1600 WQXGA - NVIDIA GeForce RTX 4060 - Intel i7-13650HX - 1TB SSD with 16GB DDR5 RAM - Win11 Home AD (AORUS 16X 9KG-43USC54SH)</t>
-  </si>
-  <si>
-    <t>B09QPS8LRG</t>
-  </si>
-  <si>
-    <t>GIGABYTE U4 UD - 14.0" Thin Bezel FHD IPS-Level i5-1155G7 Intel Iris Xe Graphics 512 GB PCIe SSD Win 11 Home Laptop (U4 UD-50US823SO)</t>
-  </si>
-  <si>
     <t>Week 0 (8 Dec - 14 Dec)</t>
   </si>
   <si>
@@ -474,6 +192,246 @@
   </si>
   <si>
     <t>Week 47 (2 Nov - 8 Nov)</t>
+  </si>
+  <si>
+    <t>B09VK3TVK2</t>
+  </si>
+  <si>
+    <t>GIGABYTE GP-UD750GM 750W 80 Plus Gold Certified Fully Modular Power Supply</t>
+  </si>
+  <si>
+    <t>B09RK7GFQL</t>
+  </si>
+  <si>
+    <t>GIGABYTE GP-UD850GM 850W 80 Plus Gold Certified Fully Modular Power Supply</t>
+  </si>
+  <si>
+    <t>B0BTJYYTGM</t>
+  </si>
+  <si>
+    <t>GIGABYTE GP-UD1000GM PG5 Rev2.0 - PCIe5.0 Ready - ATX3.0 - 1000W 80 Plus Gold Certified - Fully Modular Power Supply</t>
+  </si>
+  <si>
+    <t>B0CPQ88F7X</t>
+  </si>
+  <si>
+    <t>AORUS WATERFORCE II 360 Liquid CPU Cooler, 360mm Radiator with 3x120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5 (GP-AORUS WATERFORCE II 360)</t>
+  </si>
+  <si>
+    <t>B0CSTCZMQ5</t>
+  </si>
+  <si>
+    <t>GIGABYTE P650G 650W 80 Plus Gold Certified Power Supply (GP-P650G)</t>
+  </si>
+  <si>
+    <t>B0CPQBJ3JW</t>
+  </si>
+  <si>
+    <t>AORUS WATERFORCE II 360 ICE Liquid CPU Cooler, 360mm Radiator with 3x120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5 (GP-AORUS WATERFORCE II 360 ICE)</t>
+  </si>
+  <si>
+    <t>B0DJMWKGLN</t>
+  </si>
+  <si>
+    <t>AORUS EZ Chain Fan 120 (3-Pack), 120mm Hydro Dynamic Bearing ARGB Computer Case Fan</t>
+  </si>
+  <si>
+    <t>B09VKF3CFC</t>
+  </si>
+  <si>
+    <t>GIGABYTE GP-UD1000GM 1000W 80 Plus Gold Certified Fully Modular Power Supply</t>
+  </si>
+  <si>
+    <t>B0DJMVRMM5</t>
+  </si>
+  <si>
+    <t>AORUS EZ Chain Fan 120 ICE (3-Pack), 120mm Hydro Dynamic Bearing ARGB Computer Case Fan</t>
+  </si>
+  <si>
+    <t>B0DJMXBKN4</t>
+  </si>
+  <si>
+    <t>AORUS EZ Chain Fan 120, 120mm Hydro Dynamic Bearing Computer Case Fan</t>
+  </si>
+  <si>
+    <t>B0CPQ8XM9Z</t>
+  </si>
+  <si>
+    <t>AORUS WATERFORCE II 240 Liquid CPU Cooler, 240mm Radiator with 2X 120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5 (GP-AORUS WATERFORCE II 240)</t>
+  </si>
+  <si>
+    <t>B0CKM1JX4S</t>
+  </si>
+  <si>
+    <t>GIGABYTE GP-UD850GM PG5W - PCIe5.0 Ready - ATX3.0-850W 80 Plus Gold Certified - Fully Modular Power Supply - Japanese Capacitors</t>
+  </si>
+  <si>
+    <t>B0BTK4H5VS</t>
+  </si>
+  <si>
+    <t>GIGABYTE GP-UD850GM PG5 Rev2.0 - PCIe5.0 Ready - ATX3.0 - 850W 80 Plus Gold Certified - Fully Modular Power Supply</t>
+  </si>
+  <si>
+    <t>B08YMVNQDJ</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS WATERFORCE X 360 AIO Liquid CPU Cooler, Rotatable Circular LCD Display with Micro SD Support, 360mm Radiator with 3X 120mm Low Noise ARGB Fans, Compatible with Intel LGA1700, 12 Volts</t>
+  </si>
+  <si>
+    <t>B0CPQ9M15Y</t>
+  </si>
+  <si>
+    <t>AORUS WATERFORCE X II 360 Liquid CPU Cooler, 360mm Radiator with 3X 120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5(GP-AORUS WATERFORCE X II 360)</t>
+  </si>
+  <si>
+    <t>B09T5SDSYX</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS 120mm Sleeve Bearing ARGB Computer Case Fan, Black</t>
+  </si>
+  <si>
+    <t>B0CPQML6TS</t>
+  </si>
+  <si>
+    <t>AORUS WATERFORCE X II 360 ICE Liquid CPU Cooler, 360mm Radiator with 3X 120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5 (GP-AORUS WATERFORCE X II 360 ICE)</t>
+  </si>
+  <si>
+    <t>B0DJMVYK9B</t>
+  </si>
+  <si>
+    <t>AORUS EZ Chain Fan 120 ICE, 120mm Hydro Dynamic Bearing ARGB Computer Case Fan</t>
+  </si>
+  <si>
+    <t>B0BZFVFTWC</t>
+  </si>
+  <si>
+    <t>GIGABYTE GP-UD1300GM PG5 - PCIe5.0 Ready - ATX3.0 - 1300W 80 Plus Gold Certified - Fully Modular Power Supply</t>
+  </si>
+  <si>
+    <t>B0DL7T732W</t>
+  </si>
+  <si>
+    <t>GIGABYTE GP-AE850PM PG5 ICE - PCIe5.1 Ready - ATX3.1-850W 80 Plus Platinum Certified - Fully Modular Power Supply</t>
+  </si>
+  <si>
+    <t>B09N74MYL7</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS WATERFORCE 360 AIO Liquid CPU Cooler, 360mm Radiator with 3x120mm Low Noise ARGB Fans, Rotatable ARGB Lighting Panel Design,Compatible with Intel LGA1700 (GP-AORUS WATERFORCE 360),Black</t>
+  </si>
+  <si>
+    <t>B0DL78MJMY</t>
+  </si>
+  <si>
+    <t>GIGABYTE GP-AE1000PM PG5 ICE - PCIe5.1 Ready - ATX3.1-1000W 80 Plus Platinum Certified - Fully Modular Power Supply</t>
+  </si>
+  <si>
+    <t>B0DL7LNS2H</t>
+  </si>
+  <si>
+    <t>GIGABYTE GP-AE1000PM PG5 - PCIe5.1 Ready - ATX3.1-1000W 80 Plus Platinum Certified - Fully Modular Power Supply</t>
+  </si>
+  <si>
+    <t>B0DL717JPS</t>
+  </si>
+  <si>
+    <t>GIGABYTE GP-AE850PM PG5 - PCIe5.1 Ready - ATX3.1-850W 80 Plus Platinum Certified - Fully Modular Power Supply</t>
+  </si>
+  <si>
+    <t>B09VK3W3Y3</t>
+  </si>
+  <si>
+    <t>GIGABYTE GP-P650G 650W 80 Plus Gold Certified Power Supply</t>
+  </si>
+  <si>
+    <t>B0CPQ8V6LM</t>
+  </si>
+  <si>
+    <t>AORUS WATERFORCE X II 240 Liquid CPU Cooler, 240mm Radiator with 2X 120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5(GP-AORUS WATERFORCE X II 240)</t>
+  </si>
+  <si>
+    <t>B08YMY8ZZ3</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS WATERFORCE X 280 AIO Liquid CPU Cooler, Rotatable Circular LCD Display with Micro SD Support, 280mm Radiator with 2x140mm Low Noise ARGB Fans, Compatible with Intel LGA1700</t>
+  </si>
+  <si>
+    <t>B09VKFM255</t>
+  </si>
+  <si>
+    <t>GIGABYTE GP-AP1200PM 1200W 80 Plus Platinum Certified Fully Modular Power Supply</t>
+  </si>
+  <si>
+    <t>B0BSMJM9D7</t>
+  </si>
+  <si>
+    <t>GIGABYTE GP-UD850GM PG5 - PCIe 5.0 Ready - ATX 3.0 - 850W 80 Plus Gold Certified, Fully Modular Power Supply</t>
+  </si>
+  <si>
+    <t>B07W5LSX71</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS ATC800 CPU Cooler Smart RGB Functions, Dual 120mm High Airfllow Optimized Fans, 6X High Performance Copper Heatpipes, Maximum Surface Area Heatpipe Direct Touch Technology GP-ATC800</t>
+  </si>
+  <si>
+    <t>B07ZS9GZRY</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS RTX 2080 Ti Gaming Box (eGPU), Embedded GeForce RTX 2080 Ti, Thunderbolt 3 Plug and Play, Custom Quiet and Silent Waterforce AIO Cooling System, Dual Thunderbolt 3, Gv-N208TIXEB-11GC</t>
+  </si>
+  <si>
+    <t>B08DK7YPX4</t>
+  </si>
+  <si>
+    <t>Gigabyte GP-P450B (80 Plus Bronze Certified, Quiet Fan, Active Power Protection, Power Supply)</t>
+  </si>
+  <si>
+    <t>B08JGPBML2</t>
+  </si>
+  <si>
+    <t>Gigabyte GP-P850GM (80 Plus Gold 850W, Modular, Smart Fan, Smart Power Protection, Power Supply)</t>
+  </si>
+  <si>
+    <t>B079SSKYWB</t>
+  </si>
+  <si>
+    <t>Gigabyte P650B 80 Plus Bronze 650W, Quiet HYB Fan, Active Power Protection, Power Supply GP-P650B</t>
+  </si>
+  <si>
+    <t>B07YZ2NCR5</t>
+  </si>
+  <si>
+    <t>AORUS RGB AIO Liquid Cooler 280, 280mm Radiator, Dual 140mm Windforce PWM Fans, Customizable Full Color LCD Display, Advanced RGB Lighting and Control, Intel 115X/2066, AMD AM4, TR4</t>
+  </si>
+  <si>
+    <t>B07HCXL27D</t>
+  </si>
+  <si>
+    <t>AORUS P850W 80 Plus Gold 850W, Fully Modular, Smart Fan Function, Smart Power Protection, 10 Year Warranty, Power Supply GP-AP850GM</t>
+  </si>
+  <si>
+    <t>B09T5WL6YW</t>
+  </si>
+  <si>
+    <t>Gigabyte GP-AR140RFAN - AORUS 140mm Sleeve Bearing ARGB Computer Case Fan, Black</t>
+  </si>
+  <si>
+    <t>B07YZ26VVQ</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS RGB AIO Liquid Cooler 360, 360mm Radiator, Triple 120mm Windforce PWM Fans, Customizable Full Color LCD Display, Advanced RGB Lighting and Control, Intel 115X/2066, AMD AM4, TR4</t>
+  </si>
+  <si>
+    <t>B09VK35VYJ</t>
+  </si>
+  <si>
+    <t>GIGABYTE GP-UD1000GM PG5 - PCIe5.0 Ready - ATX3.0 - 1000W 80 Plus Gold Certified - Fully Modular Power Supply</t>
+  </si>
+  <si>
+    <t>B08DKJJFW6</t>
+  </si>
+  <si>
+    <t>Gigabyte GP-P750GM (80 Plus Gold 750W, Modular, Smart Fan, Smart Power Protection, Power Supply)</t>
   </si>
 </sst>
 </file>
@@ -526,14 +484,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,7 +779,7 @@
   <dimension ref="A1:AY85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:AY1"/>
+      <selection activeCell="A2" sqref="A2:AY41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,1880 +835,1880 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>145</v>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5">
-        <v>22</v>
+        <v>363</v>
       </c>
       <c r="E2" s="5">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="F2" s="5">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="G2" s="5">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="H2" s="5">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="I2" s="5">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="J2" s="5">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="K2" s="5">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="L2" s="5">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="M2" s="5">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="N2" s="5">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="O2" s="5">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="P2" s="5">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="Q2" s="5">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="R2" s="5">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="S2" s="5">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="T2" s="5">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="U2" s="5">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="V2" s="5">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="W2" s="5">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="X2" s="5">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="Y2" s="5">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="Z2" s="5">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="AA2" s="5">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="AB2" s="5">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="AC2" s="5">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="AD2" s="5">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="AE2" s="5">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="AF2" s="5">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="AG2" s="5">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="AH2" s="5">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="AI2" s="5">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="AJ2" s="5">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="AK2" s="5">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="AL2" s="5">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="AM2" s="5">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="AN2" s="5">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="AO2" s="5">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="AP2" s="5">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="AQ2" s="5">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="AR2" s="5">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="AS2" s="5">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="AT2" s="5">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AU2" s="5">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="AV2" s="5">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="AW2" s="5">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="AX2" s="5">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="AY2" s="5">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5">
+        <v>48</v>
+      </c>
+      <c r="E3" s="5">
+        <v>51</v>
+      </c>
+      <c r="F3" s="5">
+        <v>48</v>
+      </c>
+      <c r="G3" s="5">
+        <v>44</v>
+      </c>
+      <c r="H3" s="5">
+        <v>29</v>
+      </c>
+      <c r="I3" s="5">
+        <v>24</v>
+      </c>
+      <c r="J3" s="5">
+        <v>24</v>
+      </c>
+      <c r="K3" s="5">
+        <v>23</v>
+      </c>
+      <c r="L3" s="5">
+        <v>22</v>
+      </c>
+      <c r="M3" s="5">
+        <v>22</v>
+      </c>
+      <c r="N3" s="5">
+        <v>23</v>
+      </c>
+      <c r="O3" s="5">
+        <v>22</v>
+      </c>
+      <c r="P3" s="5">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>20</v>
+      </c>
+      <c r="R3" s="5">
+        <v>21</v>
+      </c>
+      <c r="S3" s="5">
+        <v>20</v>
+      </c>
+      <c r="T3" s="5">
+        <v>19</v>
+      </c>
+      <c r="U3" s="5">
+        <v>18</v>
+      </c>
+      <c r="V3" s="5">
+        <v>21</v>
+      </c>
+      <c r="W3" s="5">
+        <v>19</v>
+      </c>
+      <c r="X3" s="5">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="5">
         <v>17</v>
       </c>
-      <c r="E3" s="5">
+      <c r="AD3" s="5">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="5">
         <v>17</v>
       </c>
-      <c r="F3" s="5">
+      <c r="AF3" s="5">
+        <v>17</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>18</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>17</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>25</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>25</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>16</v>
+      </c>
+      <c r="AL3" s="5">
         <v>15</v>
       </c>
-      <c r="G3" s="5">
+      <c r="AM3" s="5">
+        <v>16</v>
+      </c>
+      <c r="AN3" s="5">
         <v>17</v>
       </c>
-      <c r="H3" s="5">
+      <c r="AO3" s="5">
+        <v>17</v>
+      </c>
+      <c r="AP3" s="5">
+        <v>16</v>
+      </c>
+      <c r="AQ3" s="5">
+        <v>18</v>
+      </c>
+      <c r="AR3" s="5">
+        <v>17</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>16</v>
+      </c>
+      <c r="AT3" s="5">
+        <v>15</v>
+      </c>
+      <c r="AU3" s="5">
+        <v>15</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>15</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>15</v>
+      </c>
+      <c r="AX3" s="5">
+        <v>17</v>
+      </c>
+      <c r="AY3" s="5">
         <v>14</v>
-      </c>
-      <c r="I3" s="5">
-        <v>14</v>
-      </c>
-      <c r="J3" s="5">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5">
-        <v>13</v>
-      </c>
-      <c r="L3" s="5">
-        <v>13</v>
-      </c>
-      <c r="M3" s="5">
-        <v>13</v>
-      </c>
-      <c r="N3" s="5">
-        <v>14</v>
-      </c>
-      <c r="O3" s="5">
-        <v>14</v>
-      </c>
-      <c r="P3" s="5">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>14</v>
-      </c>
-      <c r="R3" s="5">
-        <v>14</v>
-      </c>
-      <c r="S3" s="5">
-        <v>13</v>
-      </c>
-      <c r="T3" s="5">
-        <v>14</v>
-      </c>
-      <c r="U3" s="5">
-        <v>15</v>
-      </c>
-      <c r="V3" s="5">
-        <v>13</v>
-      </c>
-      <c r="W3" s="5">
-        <v>13</v>
-      </c>
-      <c r="X3" s="5">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>13</v>
-      </c>
-      <c r="AB3" s="5">
-        <v>10</v>
-      </c>
-      <c r="AC3" s="5">
-        <v>9</v>
-      </c>
-      <c r="AD3" s="5">
-        <v>12</v>
-      </c>
-      <c r="AE3" s="5">
-        <v>11</v>
-      </c>
-      <c r="AF3" s="5">
-        <v>13</v>
-      </c>
-      <c r="AG3" s="5">
-        <v>13</v>
-      </c>
-      <c r="AH3" s="5">
-        <v>12</v>
-      </c>
-      <c r="AI3" s="5">
-        <v>17</v>
-      </c>
-      <c r="AJ3" s="5">
-        <v>19</v>
-      </c>
-      <c r="AK3" s="5">
-        <v>12</v>
-      </c>
-      <c r="AL3" s="5">
-        <v>12</v>
-      </c>
-      <c r="AM3" s="5">
-        <v>11</v>
-      </c>
-      <c r="AN3" s="5">
-        <v>11</v>
-      </c>
-      <c r="AO3" s="5">
-        <v>11</v>
-      </c>
-      <c r="AP3" s="5">
-        <v>12</v>
-      </c>
-      <c r="AQ3" s="5">
-        <v>9</v>
-      </c>
-      <c r="AR3" s="5">
-        <v>11</v>
-      </c>
-      <c r="AS3" s="5">
-        <v>11</v>
-      </c>
-      <c r="AT3" s="5">
-        <v>12</v>
-      </c>
-      <c r="AU3" s="5">
-        <v>10</v>
-      </c>
-      <c r="AV3" s="5">
-        <v>9</v>
-      </c>
-      <c r="AW3" s="5">
-        <v>11</v>
-      </c>
-      <c r="AX3" s="5">
-        <v>11</v>
-      </c>
-      <c r="AY3" s="5">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E4" s="5">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G4" s="5">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I4" s="5">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J4" s="5">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K4" s="5">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L4" s="5">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M4" s="5">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="N4" s="5">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="O4" s="5">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="P4" s="5">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="5">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="R4" s="5">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="S4" s="5">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="T4" s="5">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="U4" s="5">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="V4" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="W4" s="5">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="X4" s="5">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="Y4" s="5">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="Z4" s="5">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AA4" s="5">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="AB4" s="5">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AC4" s="5">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AD4" s="5">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="AE4" s="5">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AF4" s="5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AG4" s="5">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AH4" s="5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AI4" s="5">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="AJ4" s="5">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AK4" s="5">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AL4" s="5">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AM4" s="5">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AN4" s="5">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AO4" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AP4" s="5">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AQ4" s="5">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="AR4" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AS4" s="5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AT4" s="5">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AU4" s="5">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="AV4" s="5">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AW4" s="5">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AX4" s="5">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AY4" s="5">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="5">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G5" s="5">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H5" s="5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I5" s="5">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J5" s="5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K5" s="5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L5" s="5">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M5" s="5">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="N5" s="5">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="O5" s="5">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="P5" s="5">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="5">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="R5" s="5">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="S5" s="5">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="T5" s="5">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="U5" s="5">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="V5" s="5">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="W5" s="5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="X5" s="5">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="Y5" s="5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="Z5" s="5">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AA5" s="5">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AB5" s="5">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="AC5" s="5">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AD5" s="5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AE5" s="5">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="AF5" s="5">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AG5" s="5">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AH5" s="5">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AI5" s="5">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="AJ5" s="5">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AK5" s="5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AL5" s="5">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AM5" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AN5" s="5">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AO5" s="5">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AP5" s="5">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="AQ5" s="5">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="AR5" s="5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AS5" s="5">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AT5" s="5">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AU5" s="5">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AV5" s="5">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="AW5" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AX5" s="5">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AY5" s="5">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43</v>
+      </c>
+      <c r="F6" s="5">
+        <v>45</v>
+      </c>
+      <c r="G6" s="5">
+        <v>41</v>
+      </c>
+      <c r="H6" s="5">
+        <v>31</v>
+      </c>
+      <c r="I6" s="5">
+        <v>27</v>
+      </c>
+      <c r="J6" s="5">
+        <v>28</v>
+      </c>
+      <c r="K6" s="5">
+        <v>25</v>
+      </c>
+      <c r="L6" s="5">
+        <v>24</v>
+      </c>
+      <c r="M6" s="5">
+        <v>24</v>
+      </c>
+      <c r="N6" s="5">
+        <v>27</v>
+      </c>
+      <c r="O6" s="5">
+        <v>27</v>
+      </c>
+      <c r="P6" s="5">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>25</v>
+      </c>
+      <c r="R6" s="5">
+        <v>27</v>
+      </c>
+      <c r="S6" s="5">
+        <v>26</v>
+      </c>
+      <c r="T6" s="5">
+        <v>23</v>
+      </c>
+      <c r="U6" s="5">
+        <v>23</v>
+      </c>
+      <c r="V6" s="5">
+        <v>25</v>
+      </c>
+      <c r="W6" s="5">
+        <v>24</v>
+      </c>
+      <c r="X6" s="5">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>19</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>21</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>19</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>21</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>19</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>18</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>21</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>19</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>24</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>25</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>18</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>16</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>16</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>16</v>
+      </c>
+      <c r="AO6" s="5">
+        <v>16</v>
+      </c>
+      <c r="AP6" s="5">
+        <v>15</v>
+      </c>
+      <c r="AQ6" s="5">
+        <v>16</v>
+      </c>
+      <c r="AR6" s="5">
+        <v>15</v>
+      </c>
+      <c r="AS6" s="5">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="AT6" s="5">
         <v>13</v>
       </c>
-      <c r="F6" s="5">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="AU6" s="5">
         <v>14</v>
       </c>
-      <c r="H6" s="5">
-        <v>11</v>
-      </c>
-      <c r="I6" s="5">
-        <v>10</v>
-      </c>
-      <c r="J6" s="5">
-        <v>9</v>
-      </c>
-      <c r="K6" s="5">
-        <v>9</v>
-      </c>
-      <c r="L6" s="5">
-        <v>9</v>
-      </c>
-      <c r="M6" s="5">
-        <v>9</v>
-      </c>
-      <c r="N6" s="5">
-        <v>10</v>
-      </c>
-      <c r="O6" s="5">
-        <v>10</v>
-      </c>
-      <c r="P6" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>9</v>
-      </c>
-      <c r="R6" s="5">
-        <v>9</v>
-      </c>
-      <c r="S6" s="5">
-        <v>8</v>
-      </c>
-      <c r="T6" s="5">
-        <v>8</v>
-      </c>
-      <c r="U6" s="5">
-        <v>8</v>
-      </c>
-      <c r="V6" s="5">
-        <v>7</v>
-      </c>
-      <c r="W6" s="5">
-        <v>8</v>
-      </c>
-      <c r="X6" s="5">
-        <v>7</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>7</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>6</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>7</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>6</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>7</v>
-      </c>
-      <c r="AG6" s="5">
-        <v>8</v>
-      </c>
-      <c r="AH6" s="5">
-        <v>6</v>
-      </c>
-      <c r="AI6" s="5">
-        <v>10</v>
-      </c>
-      <c r="AJ6" s="5">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="5">
-        <v>5</v>
-      </c>
-      <c r="AL6" s="5">
-        <v>7</v>
-      </c>
-      <c r="AM6" s="5">
-        <v>5</v>
-      </c>
-      <c r="AN6" s="5">
-        <v>6</v>
-      </c>
-      <c r="AO6" s="5">
-        <v>6</v>
-      </c>
-      <c r="AP6" s="5">
-        <v>4</v>
-      </c>
-      <c r="AQ6" s="5">
-        <v>5</v>
-      </c>
-      <c r="AR6" s="5">
-        <v>6</v>
-      </c>
-      <c r="AS6" s="5">
-        <v>7</v>
-      </c>
-      <c r="AT6" s="5">
-        <v>7</v>
-      </c>
-      <c r="AU6" s="5">
-        <v>4</v>
-      </c>
       <c r="AV6" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AW6" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AX6" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AY6" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="H7" s="5">
+        <v>14</v>
+      </c>
+      <c r="I7" s="5">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5">
-        <v>9</v>
-      </c>
-      <c r="G7" s="5">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5">
-        <v>7</v>
-      </c>
-      <c r="I7" s="5">
-        <v>6</v>
-      </c>
       <c r="J7" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K7" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L7" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M7" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N7" s="5">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O7" s="5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="P7" s="5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="5">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="R7" s="5">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="S7" s="5">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="T7" s="5">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="U7" s="5">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="V7" s="5">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="W7" s="5">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="X7" s="5">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="Y7" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z7" s="5">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AA7" s="5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AB7" s="5">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AC7" s="5">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="AD7" s="5">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AE7" s="5">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AF7" s="5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AG7" s="5">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AH7" s="5">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AI7" s="5">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AJ7" s="5">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AK7" s="5">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AL7" s="5">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AM7" s="5">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AN7" s="5">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AO7" s="5">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AP7" s="5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AQ7" s="5">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AR7" s="5">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AS7" s="5">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AT7" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AU7" s="5">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AV7" s="5">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AW7" s="5">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AX7" s="5">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AY7" s="5">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="G8" s="5">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5">
+        <v>15</v>
+      </c>
+      <c r="I8" s="5">
+        <v>16</v>
+      </c>
+      <c r="J8" s="5">
+        <v>20</v>
+      </c>
+      <c r="K8" s="5">
+        <v>19</v>
+      </c>
+      <c r="L8" s="5">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5">
-        <v>11</v>
-      </c>
-      <c r="H8" s="5">
-        <v>9</v>
-      </c>
-      <c r="I8" s="5">
-        <v>9</v>
-      </c>
-      <c r="J8" s="5">
-        <v>8</v>
-      </c>
-      <c r="K8" s="5">
-        <v>8</v>
-      </c>
-      <c r="L8" s="5">
-        <v>8</v>
-      </c>
       <c r="M8" s="5">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N8" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O8" s="5">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="P8" s="5">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="5">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="R8" s="5">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="S8" s="5">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="T8" s="5">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="U8" s="5">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="V8" s="5">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="W8" s="5">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="X8" s="5">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="Y8" s="5">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Z8" s="5">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AA8" s="5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AB8" s="5">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AC8" s="5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AD8" s="5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AE8" s="5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AF8" s="5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AG8" s="5">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AH8" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AI8" s="5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AJ8" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AK8" s="5">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AL8" s="5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AM8" s="5">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AN8" s="5">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AO8" s="5">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AP8" s="5">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AQ8" s="5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AR8" s="5">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AS8" s="5">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AT8" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AU8" s="5">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AV8" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AW8" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AX8" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AY8" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="5">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5">
+        <v>21</v>
+      </c>
+      <c r="G9" s="5">
+        <v>22</v>
+      </c>
+      <c r="H9" s="5">
+        <v>17</v>
+      </c>
+      <c r="I9" s="5">
+        <v>15</v>
+      </c>
+      <c r="J9" s="5">
+        <v>15</v>
+      </c>
+      <c r="K9" s="5">
+        <v>14</v>
+      </c>
+      <c r="L9" s="5">
+        <v>13</v>
+      </c>
+      <c r="M9" s="5">
+        <v>13</v>
+      </c>
+      <c r="N9" s="5">
+        <v>14</v>
+      </c>
+      <c r="O9" s="5">
+        <v>14</v>
+      </c>
+      <c r="P9" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>13</v>
+      </c>
+      <c r="R9" s="5">
+        <v>14</v>
+      </c>
+      <c r="S9" s="5">
+        <v>13</v>
+      </c>
+      <c r="T9" s="5">
+        <v>11</v>
+      </c>
+      <c r="U9" s="5">
+        <v>12</v>
+      </c>
+      <c r="V9" s="5">
+        <v>14</v>
+      </c>
+      <c r="W9" s="5">
+        <v>12</v>
+      </c>
+      <c r="X9" s="5">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>11</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>11</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="5">
         <v>9</v>
       </c>
-      <c r="E9" s="5">
+      <c r="AG9" s="5">
+        <v>10</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>12</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>11</v>
+      </c>
+      <c r="AK9" s="5">
         <v>9</v>
       </c>
-      <c r="F9" s="5">
+      <c r="AL9" s="5">
+        <v>9</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>9</v>
+      </c>
+      <c r="AN9" s="5">
+        <v>9</v>
+      </c>
+      <c r="AO9" s="5">
+        <v>9</v>
+      </c>
+      <c r="AP9" s="5">
+        <v>9</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>9</v>
+      </c>
+      <c r="AR9" s="5">
+        <v>9</v>
+      </c>
+      <c r="AS9" s="5">
+        <v>9</v>
+      </c>
+      <c r="AT9" s="5">
         <v>8</v>
       </c>
-      <c r="G9" s="5">
-        <v>9</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="AU9" s="5">
+        <v>8</v>
+      </c>
+      <c r="AV9" s="5">
         <v>7</v>
       </c>
-      <c r="I9" s="5">
-        <v>6</v>
-      </c>
-      <c r="J9" s="5">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5">
-        <v>6</v>
-      </c>
-      <c r="L9" s="5">
-        <v>6</v>
-      </c>
-      <c r="M9" s="5">
-        <v>6</v>
-      </c>
-      <c r="N9" s="5">
-        <v>6</v>
-      </c>
-      <c r="O9" s="5">
-        <v>6</v>
-      </c>
-      <c r="P9" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>6</v>
-      </c>
-      <c r="R9" s="5">
-        <v>6</v>
-      </c>
-      <c r="S9" s="5">
-        <v>5</v>
-      </c>
-      <c r="T9" s="5">
-        <v>6</v>
-      </c>
-      <c r="U9" s="5">
-        <v>6</v>
-      </c>
-      <c r="V9" s="5">
-        <v>5</v>
-      </c>
-      <c r="W9" s="5">
-        <v>5</v>
-      </c>
-      <c r="X9" s="5">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>6</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="5">
-        <v>4</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AH9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AI9" s="5">
-        <v>6</v>
-      </c>
-      <c r="AJ9" s="5">
+      <c r="AW9" s="5">
         <v>7</v>
       </c>
-      <c r="AK9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AL9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AM9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AN9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AO9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AP9" s="5">
-        <v>6</v>
-      </c>
-      <c r="AQ9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AR9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AS9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AT9" s="5">
-        <v>6</v>
-      </c>
-      <c r="AU9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AV9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AW9" s="5">
-        <v>6</v>
-      </c>
       <c r="AX9" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY9" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5">
+        <v>21</v>
+      </c>
+      <c r="H10" s="5">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5">
+        <v>16</v>
+      </c>
+      <c r="J10" s="5">
+        <v>21</v>
+      </c>
+      <c r="K10" s="5">
+        <v>21</v>
+      </c>
+      <c r="L10" s="5">
+        <v>18</v>
+      </c>
+      <c r="M10" s="5">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5">
-        <v>7</v>
-      </c>
-      <c r="F10" s="5">
-        <v>6</v>
-      </c>
-      <c r="G10" s="5">
-        <v>7</v>
-      </c>
-      <c r="H10" s="5">
-        <v>7</v>
-      </c>
-      <c r="I10" s="5">
-        <v>8</v>
-      </c>
-      <c r="J10" s="5">
-        <v>8</v>
-      </c>
-      <c r="K10" s="5">
-        <v>7</v>
-      </c>
-      <c r="L10" s="5">
-        <v>8</v>
-      </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
+        <v>22</v>
+      </c>
+      <c r="O10" s="5">
+        <v>20</v>
+      </c>
+      <c r="P10" s="5">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>27</v>
+      </c>
+      <c r="R10" s="5">
+        <v>22</v>
+      </c>
+      <c r="S10" s="5">
+        <v>22</v>
+      </c>
+      <c r="T10" s="5">
+        <v>22</v>
+      </c>
+      <c r="U10" s="5">
+        <v>19</v>
+      </c>
+      <c r="V10" s="5">
+        <v>22</v>
+      </c>
+      <c r="W10" s="5">
+        <v>22</v>
+      </c>
+      <c r="X10" s="5">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>22</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>17</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>20</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>16</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>18</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>18</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>16</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>18</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>15</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>17</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>19</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>18</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>16</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>18</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>14</v>
+      </c>
+      <c r="AO10" s="5">
+        <v>16</v>
+      </c>
+      <c r="AP10" s="5">
+        <v>18</v>
+      </c>
+      <c r="AQ10" s="5">
+        <v>22</v>
+      </c>
+      <c r="AR10" s="5">
+        <v>19</v>
+      </c>
+      <c r="AS10" s="5">
+        <v>15</v>
+      </c>
+      <c r="AT10" s="5">
         <v>12</v>
       </c>
-      <c r="N10" s="5">
-        <v>12</v>
-      </c>
-      <c r="O10" s="5">
-        <v>11</v>
-      </c>
-      <c r="P10" s="5">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>11</v>
-      </c>
-      <c r="R10" s="5">
-        <v>11</v>
-      </c>
-      <c r="S10" s="5">
-        <v>10</v>
-      </c>
-      <c r="T10" s="5">
-        <v>11</v>
-      </c>
-      <c r="U10" s="5">
-        <v>11</v>
-      </c>
-      <c r="V10" s="5">
-        <v>10</v>
-      </c>
-      <c r="W10" s="5">
-        <v>10</v>
-      </c>
-      <c r="X10" s="5">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>10</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>9</v>
-      </c>
-      <c r="AB10" s="5">
-        <v>8</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>9</v>
-      </c>
-      <c r="AD10" s="5">
-        <v>9</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>9</v>
-      </c>
-      <c r="AF10" s="5">
-        <v>10</v>
-      </c>
-      <c r="AG10" s="5">
-        <v>10</v>
-      </c>
-      <c r="AH10" s="5">
-        <v>10</v>
-      </c>
-      <c r="AI10" s="5">
-        <v>12</v>
-      </c>
-      <c r="AJ10" s="5">
-        <v>12</v>
-      </c>
-      <c r="AK10" s="5">
-        <v>9</v>
-      </c>
-      <c r="AL10" s="5">
-        <v>9</v>
-      </c>
-      <c r="AM10" s="5">
-        <v>8</v>
-      </c>
-      <c r="AN10" s="5">
-        <v>9</v>
-      </c>
-      <c r="AO10" s="5">
-        <v>9</v>
-      </c>
-      <c r="AP10" s="5">
-        <v>9</v>
-      </c>
-      <c r="AQ10" s="5">
-        <v>8</v>
-      </c>
-      <c r="AR10" s="5">
-        <v>8</v>
-      </c>
-      <c r="AS10" s="5">
-        <v>8</v>
-      </c>
-      <c r="AT10" s="5">
-        <v>9</v>
-      </c>
       <c r="AU10" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AV10" s="5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AW10" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX10" s="5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AY10" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5">
+        <v>11</v>
+      </c>
+      <c r="H11" s="5">
+        <v>15</v>
+      </c>
+      <c r="I11" s="5">
+        <v>16</v>
+      </c>
+      <c r="J11" s="5">
+        <v>19</v>
+      </c>
+      <c r="K11" s="5">
+        <v>20</v>
+      </c>
+      <c r="L11" s="5">
+        <v>18</v>
+      </c>
+      <c r="M11" s="5">
+        <v>19</v>
+      </c>
+      <c r="N11" s="5">
+        <v>19</v>
+      </c>
+      <c r="O11" s="5">
+        <v>19</v>
+      </c>
+      <c r="P11" s="5">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>23</v>
+      </c>
+      <c r="R11" s="5">
+        <v>20</v>
+      </c>
+      <c r="S11" s="5">
+        <v>21</v>
+      </c>
+      <c r="T11" s="5">
+        <v>19</v>
+      </c>
+      <c r="U11" s="5">
+        <v>18</v>
+      </c>
+      <c r="V11" s="5">
+        <v>19</v>
+      </c>
+      <c r="W11" s="5">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="X11" s="5">
         <v>23</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5">
-        <v>3</v>
-      </c>
-      <c r="G11" s="5">
-        <v>3</v>
-      </c>
-      <c r="H11" s="5">
-        <v>2</v>
-      </c>
-      <c r="I11" s="5">
-        <v>2</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <v>2</v>
-      </c>
-      <c r="L11" s="5">
-        <v>2</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-      <c r="N11" s="5">
-        <v>2</v>
-      </c>
-      <c r="O11" s="5">
-        <v>2</v>
-      </c>
-      <c r="P11" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>2</v>
-      </c>
-      <c r="R11" s="5">
-        <v>2</v>
-      </c>
-      <c r="S11" s="5">
-        <v>1</v>
-      </c>
-      <c r="T11" s="5">
-        <v>1</v>
-      </c>
-      <c r="U11" s="5">
-        <v>2</v>
-      </c>
-      <c r="V11" s="5">
-        <v>1</v>
-      </c>
-      <c r="W11" s="5">
-        <v>1</v>
-      </c>
-      <c r="X11" s="5">
-        <v>1</v>
-      </c>
       <c r="Y11" s="5">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="Z11" s="5">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AA11" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AB11" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AC11" s="5">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AD11" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AE11" s="5">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AF11" s="5">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AG11" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AH11" s="5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AI11" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AJ11" s="5">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AK11" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AL11" s="5">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AM11" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AN11" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AO11" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AP11" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AQ11" s="5">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AR11" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AS11" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AT11" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AU11" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AV11" s="5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AW11" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AX11" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AY11" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F12" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G12" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K12" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N12" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O12" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P12" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R12" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA12" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AB12" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AC12" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AD12" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE12" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AF12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AG12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AH12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI12" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AJ12" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AL12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AM12" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AN12" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AO12" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AP12" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AQ12" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AR12" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AS12" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AT12" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AU12" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV12" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E13" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="5">
         <v>8</v>
@@ -2760,150 +2717,150 @@
         <v>8</v>
       </c>
       <c r="K13" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M13" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N13" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O13" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P13" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R13" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S13" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T13" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U13" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="V13" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W13" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X13" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y13" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z13" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA13" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB13" s="5">
         <v>6</v>
       </c>
       <c r="AC13" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD13" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE13" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF13" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AG13" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AH13" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI13" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AJ13" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AK13" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AL13" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AM13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN13" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO13" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ13" s="5">
         <v>5</v>
       </c>
       <c r="AR13" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS13" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT13" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AU13" s="5">
         <v>5</v>
       </c>
       <c r="AV13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY13" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="5">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5">
+        <v>7</v>
+      </c>
+      <c r="G14" s="5">
         <v>5</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>6</v>
       </c>
       <c r="H14" s="5">
         <v>5</v>
@@ -2912,16 +2869,16 @@
         <v>4</v>
       </c>
       <c r="J14" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14" s="5">
+        <v>4</v>
+      </c>
+      <c r="L14" s="5">
+        <v>4</v>
+      </c>
+      <c r="M14" s="5">
         <v>5</v>
-      </c>
-      <c r="L14" s="5">
-        <v>5</v>
-      </c>
-      <c r="M14" s="5">
-        <v>4</v>
       </c>
       <c r="N14" s="5">
         <v>5</v>
@@ -2930,7 +2887,7 @@
         <v>5</v>
       </c>
       <c r="P14" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="5">
         <v>4</v>
@@ -2939,16 +2896,16 @@
         <v>4</v>
       </c>
       <c r="S14" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T14" s="5">
         <v>3</v>
       </c>
       <c r="U14" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V14" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W14" s="5">
         <v>3</v>
@@ -2963,28 +2920,28 @@
         <v>3</v>
       </c>
       <c r="AA14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="5">
         <v>2</v>
       </c>
-      <c r="AB14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="5">
-        <v>1</v>
-      </c>
       <c r="AD14" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE14" s="5">
         <v>2</v>
       </c>
       <c r="AF14" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG14" s="5">
         <v>3</v>
       </c>
       <c r="AH14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI14" s="5">
         <v>3</v>
@@ -2993,13 +2950,13 @@
         <v>3</v>
       </c>
       <c r="AK14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN14" s="5">
         <v>2</v>
@@ -3008,13 +2965,13 @@
         <v>2</v>
       </c>
       <c r="AP14" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS14" s="5">
         <v>2</v>
@@ -3023,1112 +2980,1112 @@
         <v>2</v>
       </c>
       <c r="AU14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW14" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E15" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F15" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G15" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H15" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I15" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J15" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K15" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L15" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M15" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N15" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O15" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P15" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q15" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R15" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S15" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T15" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U15" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V15" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W15" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X15" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y15" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z15" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA15" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB15" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC15" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD15" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE15" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF15" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG15" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH15" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI15" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ15" s="5">
         <v>7</v>
       </c>
       <c r="AK15" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL15" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AM15" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN15" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AO15" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP15" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ15" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AR15" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AS15" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT15" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU15" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV15" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW15" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX15" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY15" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E16" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F16" s="5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G16" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H16" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I16" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J16" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K16" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L16" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M16" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N16" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O16" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P16" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q16" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R16" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S16" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T16" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U16" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V16" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W16" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X16" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y16" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z16" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA16" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB16" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG16" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI16" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ16" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AK16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AM16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AN16" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO16" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP16" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AR16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AS16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AT16" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV16" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY16" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E17" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F17" s="5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G17" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H17" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I17" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J17" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K17" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L17" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M17" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N17" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O17" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P17" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R17" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S17" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T17" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U17" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V17" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W17" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X17" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Y17" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Z17" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AA17" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB17" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AC17" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AD17" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE17" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AF17" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AG17" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AH17" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AI17" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ17" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AK17" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AL17" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AM17" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AN17" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AO17" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AP17" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AQ17" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AR17" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AS17" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AT17" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AU17" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AV17" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW17" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX17" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY17" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E18" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F18" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G18" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L18" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V18" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W18" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X18" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y18" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG18" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT18" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU18" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV18" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW18" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX18" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY18" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" s="5">
         <v>4</v>
       </c>
       <c r="F19" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G19" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H19" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J19" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K19" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L19" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M19" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N19" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O19" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P19" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q19" s="5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R19" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S19" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T19" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U19" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V19" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W19" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X19" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Y19" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z19" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AA19" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB19" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC19" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD19" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE19" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF19" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AG19" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AH19" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI19" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ19" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AK19" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL19" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AM19" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AN19" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO19" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AP19" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AQ19" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AR19" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AS19" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT19" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU19" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV19" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW19" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX19" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY19" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20" s="5">
+        <v>4</v>
+      </c>
+      <c r="I20" s="5">
+        <v>4</v>
+      </c>
+      <c r="J20" s="5">
+        <v>4</v>
+      </c>
+      <c r="K20" s="5">
+        <v>4</v>
+      </c>
+      <c r="L20" s="5">
+        <v>4</v>
+      </c>
+      <c r="M20" s="5">
+        <v>4</v>
+      </c>
+      <c r="N20" s="5">
+        <v>4</v>
+      </c>
+      <c r="O20" s="5">
+        <v>4</v>
+      </c>
+      <c r="P20" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>4</v>
+      </c>
+      <c r="R20" s="5">
+        <v>4</v>
+      </c>
+      <c r="S20" s="5">
+        <v>4</v>
+      </c>
+      <c r="T20" s="5">
+        <v>3</v>
+      </c>
+      <c r="U20" s="5">
+        <v>3</v>
+      </c>
+      <c r="V20" s="5">
+        <v>4</v>
+      </c>
+      <c r="W20" s="5">
+        <v>3</v>
+      </c>
+      <c r="X20" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH20" s="5">
         <v>2</v>
       </c>
-      <c r="I20" s="5">
-        <v>2</v>
-      </c>
-      <c r="J20" s="5">
-        <v>2</v>
-      </c>
-      <c r="K20" s="5">
-        <v>2</v>
-      </c>
-      <c r="L20" s="5">
-        <v>2</v>
-      </c>
-      <c r="M20" s="5">
-        <v>2</v>
-      </c>
-      <c r="N20" s="5">
-        <v>2</v>
-      </c>
-      <c r="O20" s="5">
-        <v>2</v>
-      </c>
-      <c r="P20" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>2</v>
-      </c>
-      <c r="R20" s="5">
-        <v>2</v>
-      </c>
-      <c r="S20" s="5">
-        <v>2</v>
-      </c>
-      <c r="T20" s="5">
-        <v>2</v>
-      </c>
-      <c r="U20" s="5">
-        <v>2</v>
-      </c>
-      <c r="V20" s="5">
-        <v>2</v>
-      </c>
-      <c r="W20" s="5">
-        <v>2</v>
-      </c>
-      <c r="X20" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA20" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="5">
-        <v>2</v>
-      </c>
-      <c r="AH20" s="5">
-        <v>1</v>
-      </c>
       <c r="AI20" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ20" s="5">
         <v>2</v>
       </c>
       <c r="AK20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO20" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ20" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K21" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L21" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O21" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P21" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R21" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S21" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T21" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U21" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V21" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W21" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X21" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y21" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z21" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA21" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB21" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC21" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD21" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE21" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF21" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG21" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH21" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI21" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ21" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK21" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL21" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM21" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN21" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO21" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP21" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ21" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR21" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS21" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT21" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU21" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV21" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW21" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX21" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY21" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>3</v>
@@ -4140,326 +4097,326 @@
         <v>3</v>
       </c>
       <c r="F22" s="5">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3</v>
+      </c>
+      <c r="H22" s="5">
+        <v>3</v>
+      </c>
+      <c r="I22" s="5">
+        <v>3</v>
+      </c>
+      <c r="J22" s="5">
+        <v>3</v>
+      </c>
+      <c r="K22" s="5">
+        <v>3</v>
+      </c>
+      <c r="L22" s="5">
+        <v>3</v>
+      </c>
+      <c r="M22" s="5">
+        <v>3</v>
+      </c>
+      <c r="N22" s="5">
+        <v>3</v>
+      </c>
+      <c r="O22" s="5">
+        <v>3</v>
+      </c>
+      <c r="P22" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>3</v>
+      </c>
+      <c r="R22" s="5">
+        <v>3</v>
+      </c>
+      <c r="S22" s="5">
+        <v>3</v>
+      </c>
+      <c r="T22" s="5">
+        <v>3</v>
+      </c>
+      <c r="U22" s="5">
+        <v>3</v>
+      </c>
+      <c r="V22" s="5">
+        <v>3</v>
+      </c>
+      <c r="W22" s="5">
+        <v>3</v>
+      </c>
+      <c r="X22" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>3</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH22" s="5">
         <v>2</v>
       </c>
-      <c r="G22" s="5">
+      <c r="AI22" s="5">
+        <v>3</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK22" s="5">
         <v>2</v>
       </c>
-      <c r="H22" s="5">
+      <c r="AL22" s="5">
         <v>2</v>
       </c>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5">
-        <v>1</v>
-      </c>
-      <c r="M22" s="5">
-        <v>1</v>
-      </c>
-      <c r="N22" s="5">
-        <v>1</v>
-      </c>
-      <c r="O22" s="5">
-        <v>1</v>
-      </c>
-      <c r="P22" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>1</v>
-      </c>
-      <c r="R22" s="5">
-        <v>1</v>
-      </c>
-      <c r="S22" s="5">
-        <v>1</v>
-      </c>
-      <c r="T22" s="5">
-        <v>1</v>
-      </c>
-      <c r="U22" s="5">
-        <v>1</v>
-      </c>
-      <c r="V22" s="5">
-        <v>1</v>
-      </c>
-      <c r="W22" s="5">
-        <v>1</v>
-      </c>
-      <c r="X22" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL22" s="5">
-        <v>1</v>
-      </c>
       <c r="AM22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO22" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ22" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR22" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
         <v>2</v>
       </c>
-      <c r="E23" s="5">
+      <c r="G23" s="5">
+        <v>3</v>
+      </c>
+      <c r="H23" s="5">
         <v>2</v>
       </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
-        <v>2</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
       <c r="I23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O23" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z23" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB23" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC23" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD23" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF23" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK23" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL23" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM23" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ23" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AS23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AU23" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV23" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX23" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="5">
         <v>1</v>
       </c>
       <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
         <v>2</v>
       </c>
-      <c r="H24" s="5">
-        <v>3</v>
-      </c>
       <c r="I24" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" s="5">
         <v>3</v>
@@ -4468,13 +4425,13 @@
         <v>3</v>
       </c>
       <c r="L24" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24" s="5">
         <v>3</v>
       </c>
       <c r="N24" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O24" s="5">
         <v>3</v>
@@ -4495,94 +4452,94 @@
         <v>3</v>
       </c>
       <c r="U24" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W24" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X24" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y24" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z24" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA24" s="5">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>4</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>5</v>
+      </c>
+      <c r="AI24" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ24" s="5">
+        <v>5</v>
+      </c>
+      <c r="AK24" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL24" s="5">
+        <v>4</v>
+      </c>
+      <c r="AM24" s="5">
+        <v>4</v>
+      </c>
+      <c r="AN24" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO24" s="5">
+        <v>3</v>
+      </c>
+      <c r="AP24" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ24" s="5">
+        <v>4</v>
+      </c>
+      <c r="AR24" s="5">
+        <v>3</v>
+      </c>
+      <c r="AS24" s="5">
+        <v>4</v>
+      </c>
+      <c r="AT24" s="5">
+        <v>3</v>
+      </c>
+      <c r="AU24" s="5">
+        <v>3</v>
+      </c>
+      <c r="AV24" s="5">
         <v>2</v>
-      </c>
-      <c r="AB24" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="5">
-        <v>2</v>
-      </c>
-      <c r="AD24" s="5">
-        <v>2</v>
-      </c>
-      <c r="AE24" s="5">
-        <v>2</v>
-      </c>
-      <c r="AF24" s="5">
-        <v>3</v>
-      </c>
-      <c r="AG24" s="5">
-        <v>3</v>
-      </c>
-      <c r="AH24" s="5">
-        <v>2</v>
-      </c>
-      <c r="AI24" s="5">
-        <v>2</v>
-      </c>
-      <c r="AJ24" s="5">
-        <v>3</v>
-      </c>
-      <c r="AK24" s="5">
-        <v>2</v>
-      </c>
-      <c r="AL24" s="5">
-        <v>2</v>
-      </c>
-      <c r="AM24" s="5">
-        <v>2</v>
-      </c>
-      <c r="AN24" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO24" s="5">
-        <v>2</v>
-      </c>
-      <c r="AP24" s="5">
-        <v>3</v>
-      </c>
-      <c r="AQ24" s="5">
-        <v>1</v>
-      </c>
-      <c r="AR24" s="5">
-        <v>2</v>
-      </c>
-      <c r="AS24" s="5">
-        <v>2</v>
-      </c>
-      <c r="AT24" s="5">
-        <v>2</v>
-      </c>
-      <c r="AU24" s="5">
-        <v>2</v>
-      </c>
-      <c r="AV24" s="5">
-        <v>1</v>
       </c>
       <c r="AW24" s="5">
         <v>2</v>
       </c>
       <c r="AX24" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="5">
         <v>1</v>
@@ -4590,210 +4547,210 @@
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="5">
         <v>1</v>
       </c>
       <c r="I25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K25" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M25" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O25" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P25" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R25" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S25" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T25" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE25" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH25" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI25" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK25" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM25" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AN25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AO25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AP25" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ25" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AR25" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AS25" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AT25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AU25" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AV25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW25" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AX25" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY25" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K26" s="5">
         <v>2</v>
       </c>
       <c r="L26" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" s="5">
         <v>2</v>
       </c>
       <c r="N26" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O26" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P26" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R26" s="5">
         <v>2</v>
@@ -4805,7 +4762,7 @@
         <v>2</v>
       </c>
       <c r="U26" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V26" s="5">
         <v>2</v>
@@ -4823,28 +4780,28 @@
         <v>2</v>
       </c>
       <c r="AA26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD26" s="5">
         <v>2</v>
       </c>
       <c r="AE26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG26" s="5">
         <v>2</v>
       </c>
       <c r="AH26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI26" s="5">
         <v>2</v>
@@ -4853,22 +4810,22 @@
         <v>2</v>
       </c>
       <c r="AK26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL26" s="5">
         <v>1</v>
       </c>
       <c r="AM26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN26" s="5">
         <v>1</v>
       </c>
       <c r="AO26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="5">
         <v>1</v>
@@ -4877,33 +4834,33 @@
         <v>2</v>
       </c>
       <c r="AS26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV26" s="5">
         <v>1</v>
       </c>
       <c r="AW26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>3</v>
@@ -4915,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="5">
         <v>1</v>
@@ -4924,19 +4881,19 @@
         <v>1</v>
       </c>
       <c r="I27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="5">
         <v>1</v>
       </c>
       <c r="M27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="5">
         <v>1</v>
@@ -4954,111 +4911,111 @@
         <v>1</v>
       </c>
       <c r="S27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="5">
         <v>1</v>
       </c>
       <c r="V27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="5">
         <v>1</v>
       </c>
       <c r="AA27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="5">
         <v>0</v>
       </c>
       <c r="AM27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="5">
         <v>0</v>
       </c>
       <c r="AU27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>3</v>
@@ -5210,10 +5167,10 @@
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>3</v>
@@ -5222,162 +5179,162 @@
         <v>1</v>
       </c>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="5">
         <v>1</v>
       </c>
       <c r="H29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU29" s="5">
         <v>0</v>
       </c>
       <c r="AV29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW29" s="5">
         <v>0</v>
       </c>
       <c r="AX29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="5">
         <v>0</v>
@@ -5386,13 +5343,13 @@
         <v>0</v>
       </c>
       <c r="H30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="5">
         <v>0</v>
@@ -5520,10 +5477,10 @@
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>3</v>
@@ -5675,10 +5632,10 @@
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>3</v>
@@ -5830,10 +5787,10 @@
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>3</v>
@@ -5845,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="5">
         <v>0</v>
@@ -5985,10 +5942,10 @@
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>3</v>
@@ -6140,10 +6097,10 @@
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>3</v>
@@ -6295,10 +6252,10 @@
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>3</v>
@@ -6316,61 +6273,61 @@
         <v>0</v>
       </c>
       <c r="H36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5">
         <v>0</v>
       </c>
       <c r="K36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="5">
         <v>0</v>
@@ -6388,10 +6345,10 @@
         <v>0</v>
       </c>
       <c r="AF36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="5">
         <v>0</v>
@@ -6400,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="5">
         <v>0</v>
@@ -6418,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="5">
         <v>0</v>
@@ -6430,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="AT36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU36" s="5">
         <v>0</v>
@@ -6450,10 +6407,10 @@
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>3</v>
@@ -6605,10 +6562,10 @@
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>3</v>
@@ -6760,10 +6717,10 @@
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>3</v>
@@ -6915,10 +6872,10 @@
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>3</v>
@@ -7070,10 +7027,10 @@
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>3</v>
@@ -7224,1089 +7181,375 @@
       </c>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="5">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0</v>
-      </c>
-      <c r="I42" s="5">
-        <v>0</v>
-      </c>
-      <c r="J42" s="5">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5">
-        <v>0</v>
-      </c>
-      <c r="L42" s="5">
-        <v>0</v>
-      </c>
-      <c r="M42" s="5">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5">
-        <v>0</v>
-      </c>
-      <c r="O42" s="5">
-        <v>0</v>
-      </c>
-      <c r="P42" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>0</v>
-      </c>
-      <c r="R42" s="5">
-        <v>0</v>
-      </c>
-      <c r="S42" s="5">
-        <v>0</v>
-      </c>
-      <c r="T42" s="5">
-        <v>0</v>
-      </c>
-      <c r="U42" s="5">
-        <v>0</v>
-      </c>
-      <c r="V42" s="5">
-        <v>0</v>
-      </c>
-      <c r="W42" s="5">
-        <v>0</v>
-      </c>
-      <c r="X42" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY42" s="5">
-        <v>0</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="3"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="5">
-        <v>0</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5">
-        <v>0</v>
-      </c>
-      <c r="I43" s="5">
-        <v>0</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5">
-        <v>0</v>
-      </c>
-      <c r="L43" s="5">
-        <v>0</v>
-      </c>
-      <c r="M43" s="5">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5">
-        <v>0</v>
-      </c>
-      <c r="O43" s="5">
-        <v>0</v>
-      </c>
-      <c r="P43" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>0</v>
-      </c>
-      <c r="R43" s="5">
-        <v>0</v>
-      </c>
-      <c r="S43" s="5">
-        <v>0</v>
-      </c>
-      <c r="T43" s="5">
-        <v>0</v>
-      </c>
-      <c r="U43" s="5">
-        <v>0</v>
-      </c>
-      <c r="V43" s="5">
-        <v>0</v>
-      </c>
-      <c r="W43" s="5">
-        <v>0</v>
-      </c>
-      <c r="X43" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY43" s="5">
-        <v>0</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="3"/>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="5">
-        <v>0</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0</v>
-      </c>
-      <c r="I44" s="5">
-        <v>0</v>
-      </c>
-      <c r="J44" s="5">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5">
-        <v>0</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0</v>
-      </c>
-      <c r="M44" s="5">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5">
-        <v>0</v>
-      </c>
-      <c r="O44" s="5">
-        <v>0</v>
-      </c>
-      <c r="P44" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>0</v>
-      </c>
-      <c r="R44" s="5">
-        <v>0</v>
-      </c>
-      <c r="S44" s="5">
-        <v>0</v>
-      </c>
-      <c r="T44" s="5">
-        <v>0</v>
-      </c>
-      <c r="U44" s="5">
-        <v>0</v>
-      </c>
-      <c r="V44" s="5">
-        <v>0</v>
-      </c>
-      <c r="W44" s="5">
-        <v>0</v>
-      </c>
-      <c r="X44" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY44" s="5">
-        <v>0</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="3"/>
+      <c r="AX44" s="3"/>
+      <c r="AY44" s="3"/>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="5">
-        <v>0</v>
-      </c>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
-      <c r="F45" s="5">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5">
-        <v>0</v>
-      </c>
-      <c r="H45" s="5">
-        <v>0</v>
-      </c>
-      <c r="I45" s="5">
-        <v>0</v>
-      </c>
-      <c r="J45" s="5">
-        <v>0</v>
-      </c>
-      <c r="K45" s="5">
-        <v>0</v>
-      </c>
-      <c r="L45" s="5">
-        <v>0</v>
-      </c>
-      <c r="M45" s="5">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5">
-        <v>0</v>
-      </c>
-      <c r="O45" s="5">
-        <v>0</v>
-      </c>
-      <c r="P45" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>0</v>
-      </c>
-      <c r="R45" s="5">
-        <v>0</v>
-      </c>
-      <c r="S45" s="5">
-        <v>0</v>
-      </c>
-      <c r="T45" s="5">
-        <v>0</v>
-      </c>
-      <c r="U45" s="5">
-        <v>0</v>
-      </c>
-      <c r="V45" s="5">
-        <v>0</v>
-      </c>
-      <c r="W45" s="5">
-        <v>0</v>
-      </c>
-      <c r="X45" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY45" s="5">
-        <v>0</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="3"/>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="3"/>
+      <c r="AX45" s="3"/>
+      <c r="AY45" s="3"/>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="5">
-        <v>0</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
-      <c r="F46" s="5">
-        <v>0</v>
-      </c>
-      <c r="G46" s="5">
-        <v>0</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0</v>
-      </c>
-      <c r="I46" s="5">
-        <v>0</v>
-      </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="K46" s="5">
-        <v>0</v>
-      </c>
-      <c r="L46" s="5">
-        <v>0</v>
-      </c>
-      <c r="M46" s="5">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5">
-        <v>0</v>
-      </c>
-      <c r="O46" s="5">
-        <v>0</v>
-      </c>
-      <c r="P46" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="5">
-        <v>0</v>
-      </c>
-      <c r="R46" s="5">
-        <v>0</v>
-      </c>
-      <c r="S46" s="5">
-        <v>0</v>
-      </c>
-      <c r="T46" s="5">
-        <v>0</v>
-      </c>
-      <c r="U46" s="5">
-        <v>0</v>
-      </c>
-      <c r="V46" s="5">
-        <v>0</v>
-      </c>
-      <c r="W46" s="5">
-        <v>0</v>
-      </c>
-      <c r="X46" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY46" s="5">
-        <v>0</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="3"/>
+      <c r="AO46" s="3"/>
+      <c r="AP46" s="3"/>
+      <c r="AQ46" s="3"/>
+      <c r="AR46" s="3"/>
+      <c r="AS46" s="3"/>
+      <c r="AT46" s="3"/>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="3"/>
+      <c r="AX46" s="3"/>
+      <c r="AY46" s="3"/>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="5">
-        <v>0</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0</v>
-      </c>
-      <c r="I47" s="5">
-        <v>0</v>
-      </c>
-      <c r="J47" s="5">
-        <v>0</v>
-      </c>
-      <c r="K47" s="5">
-        <v>0</v>
-      </c>
-      <c r="L47" s="5">
-        <v>0</v>
-      </c>
-      <c r="M47" s="5">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5">
-        <v>0</v>
-      </c>
-      <c r="O47" s="5">
-        <v>0</v>
-      </c>
-      <c r="P47" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="5">
-        <v>0</v>
-      </c>
-      <c r="R47" s="5">
-        <v>0</v>
-      </c>
-      <c r="S47" s="5">
-        <v>0</v>
-      </c>
-      <c r="T47" s="5">
-        <v>0</v>
-      </c>
-      <c r="U47" s="5">
-        <v>0</v>
-      </c>
-      <c r="V47" s="5">
-        <v>0</v>
-      </c>
-      <c r="W47" s="5">
-        <v>0</v>
-      </c>
-      <c r="X47" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY47" s="5">
-        <v>0</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="3"/>
+      <c r="AX47" s="3"/>
+      <c r="AY47" s="3"/>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="5">
-        <v>0</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
-      <c r="F48" s="5">
-        <v>0</v>
-      </c>
-      <c r="G48" s="5">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
-        <v>0</v>
-      </c>
-      <c r="I48" s="5">
-        <v>0</v>
-      </c>
-      <c r="J48" s="5">
-        <v>0</v>
-      </c>
-      <c r="K48" s="5">
-        <v>0</v>
-      </c>
-      <c r="L48" s="5">
-        <v>0</v>
-      </c>
-      <c r="M48" s="5">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5">
-        <v>0</v>
-      </c>
-      <c r="O48" s="5">
-        <v>0</v>
-      </c>
-      <c r="P48" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="5">
-        <v>0</v>
-      </c>
-      <c r="R48" s="5">
-        <v>0</v>
-      </c>
-      <c r="S48" s="5">
-        <v>0</v>
-      </c>
-      <c r="T48" s="5">
-        <v>0</v>
-      </c>
-      <c r="U48" s="5">
-        <v>0</v>
-      </c>
-      <c r="V48" s="5">
-        <v>0</v>
-      </c>
-      <c r="W48" s="5">
-        <v>0</v>
-      </c>
-      <c r="X48" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY48" s="5">
-        <v>0</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="3"/>
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>

--- a/forecasts_folder/p70_forecast.xlsx
+++ b/forecasts_folder/p70_forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/forecasts_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AA5CCA6-E1E0-48B7-9318-3F7E9B5CA681}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFF12DD0-AD54-4D94-A9CF-6A7C91ED8A62}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
   <si>
     <t>ASIN</t>
   </si>
@@ -194,244 +194,166 @@
     <t>Week 47 (2 Nov - 8 Nov)</t>
   </si>
   <si>
-    <t>B09VK3TVK2</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD750GM 750W 80 Plus Gold Certified Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B09RK7GFQL</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD850GM 850W 80 Plus Gold Certified Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0BTJYYTGM</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD1000GM PG5 Rev2.0 - PCIe5.0 Ready - ATX3.0 - 1000W 80 Plus Gold Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0CPQ88F7X</t>
-  </si>
-  <si>
-    <t>AORUS WATERFORCE II 360 Liquid CPU Cooler, 360mm Radiator with 3x120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5 (GP-AORUS WATERFORCE II 360)</t>
-  </si>
-  <si>
-    <t>B0CSTCZMQ5</t>
-  </si>
-  <si>
-    <t>GIGABYTE P650G 650W 80 Plus Gold Certified Power Supply (GP-P650G)</t>
-  </si>
-  <si>
-    <t>B0CPQBJ3JW</t>
-  </si>
-  <si>
-    <t>AORUS WATERFORCE II 360 ICE Liquid CPU Cooler, 360mm Radiator with 3x120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5 (GP-AORUS WATERFORCE II 360 ICE)</t>
-  </si>
-  <si>
-    <t>B0DJMWKGLN</t>
-  </si>
-  <si>
-    <t>AORUS EZ Chain Fan 120 (3-Pack), 120mm Hydro Dynamic Bearing ARGB Computer Case Fan</t>
-  </si>
-  <si>
-    <t>B09VKF3CFC</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD1000GM 1000W 80 Plus Gold Certified Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0DJMVRMM5</t>
-  </si>
-  <si>
-    <t>AORUS EZ Chain Fan 120 ICE (3-Pack), 120mm Hydro Dynamic Bearing ARGB Computer Case Fan</t>
-  </si>
-  <si>
-    <t>B0DJMXBKN4</t>
-  </si>
-  <si>
-    <t>AORUS EZ Chain Fan 120, 120mm Hydro Dynamic Bearing Computer Case Fan</t>
-  </si>
-  <si>
-    <t>B0CPQ8XM9Z</t>
-  </si>
-  <si>
-    <t>AORUS WATERFORCE II 240 Liquid CPU Cooler, 240mm Radiator with 2X 120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5 (GP-AORUS WATERFORCE II 240)</t>
-  </si>
-  <si>
-    <t>B0CKM1JX4S</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD850GM PG5W - PCIe5.0 Ready - ATX3.0-850W 80 Plus Gold Certified - Fully Modular Power Supply - Japanese Capacitors</t>
-  </si>
-  <si>
-    <t>B0BTK4H5VS</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD850GM PG5 Rev2.0 - PCIe5.0 Ready - ATX3.0 - 850W 80 Plus Gold Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B08YMVNQDJ</t>
-  </si>
-  <si>
-    <t>Gigabyte AORUS WATERFORCE X 360 AIO Liquid CPU Cooler, Rotatable Circular LCD Display with Micro SD Support, 360mm Radiator with 3X 120mm Low Noise ARGB Fans, Compatible with Intel LGA1700, 12 Volts</t>
-  </si>
-  <si>
-    <t>B0CPQ9M15Y</t>
-  </si>
-  <si>
-    <t>AORUS WATERFORCE X II 360 Liquid CPU Cooler, 360mm Radiator with 3X 120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5(GP-AORUS WATERFORCE X II 360)</t>
-  </si>
-  <si>
-    <t>B09T5SDSYX</t>
-  </si>
-  <si>
-    <t>Gigabyte AORUS 120mm Sleeve Bearing ARGB Computer Case Fan, Black</t>
-  </si>
-  <si>
-    <t>B0CPQML6TS</t>
-  </si>
-  <si>
-    <t>AORUS WATERFORCE X II 360 ICE Liquid CPU Cooler, 360mm Radiator with 3X 120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5 (GP-AORUS WATERFORCE X II 360 ICE)</t>
-  </si>
-  <si>
-    <t>B0DJMVYK9B</t>
-  </si>
-  <si>
-    <t>AORUS EZ Chain Fan 120 ICE, 120mm Hydro Dynamic Bearing ARGB Computer Case Fan</t>
-  </si>
-  <si>
-    <t>B0BZFVFTWC</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD1300GM PG5 - PCIe5.0 Ready - ATX3.0 - 1300W 80 Plus Gold Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0DL7T732W</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-AE850PM PG5 ICE - PCIe5.1 Ready - ATX3.1-850W 80 Plus Platinum Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B09N74MYL7</t>
-  </si>
-  <si>
-    <t>Gigabyte AORUS WATERFORCE 360 AIO Liquid CPU Cooler, 360mm Radiator with 3x120mm Low Noise ARGB Fans, Rotatable ARGB Lighting Panel Design,Compatible with Intel LGA1700 (GP-AORUS WATERFORCE 360),Black</t>
-  </si>
-  <si>
-    <t>B0DL78MJMY</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-AE1000PM PG5 ICE - PCIe5.1 Ready - ATX3.1-1000W 80 Plus Platinum Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0DL7LNS2H</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-AE1000PM PG5 - PCIe5.1 Ready - ATX3.1-1000W 80 Plus Platinum Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0DL717JPS</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-AE850PM PG5 - PCIe5.1 Ready - ATX3.1-850W 80 Plus Platinum Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B09VK3W3Y3</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-P650G 650W 80 Plus Gold Certified Power Supply</t>
-  </si>
-  <si>
-    <t>B0CPQ8V6LM</t>
-  </si>
-  <si>
-    <t>AORUS WATERFORCE X II 240 Liquid CPU Cooler, 240mm Radiator with 2X 120mm Low Noise ARGB Fans, Compatible with Intel LGA1851, LGA1700, and AMD AM5(GP-AORUS WATERFORCE X II 240)</t>
-  </si>
-  <si>
-    <t>B08YMY8ZZ3</t>
-  </si>
-  <si>
-    <t>Gigabyte AORUS WATERFORCE X 280 AIO Liquid CPU Cooler, Rotatable Circular LCD Display with Micro SD Support, 280mm Radiator with 2x140mm Low Noise ARGB Fans, Compatible with Intel LGA1700</t>
-  </si>
-  <si>
-    <t>B09VKFM255</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-AP1200PM 1200W 80 Plus Platinum Certified Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B0BSMJM9D7</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD850GM PG5 - PCIe 5.0 Ready - ATX 3.0 - 850W 80 Plus Gold Certified, Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B07W5LSX71</t>
-  </si>
-  <si>
-    <t>Gigabyte AORUS ATC800 CPU Cooler Smart RGB Functions, Dual 120mm High Airfllow Optimized Fans, 6X High Performance Copper Heatpipes, Maximum Surface Area Heatpipe Direct Touch Technology GP-ATC800</t>
-  </si>
-  <si>
-    <t>B07ZS9GZRY</t>
-  </si>
-  <si>
-    <t>Gigabyte AORUS RTX 2080 Ti Gaming Box (eGPU), Embedded GeForce RTX 2080 Ti, Thunderbolt 3 Plug and Play, Custom Quiet and Silent Waterforce AIO Cooling System, Dual Thunderbolt 3, Gv-N208TIXEB-11GC</t>
-  </si>
-  <si>
-    <t>B08DK7YPX4</t>
-  </si>
-  <si>
-    <t>Gigabyte GP-P450B (80 Plus Bronze Certified, Quiet Fan, Active Power Protection, Power Supply)</t>
-  </si>
-  <si>
-    <t>B08JGPBML2</t>
-  </si>
-  <si>
-    <t>Gigabyte GP-P850GM (80 Plus Gold 850W, Modular, Smart Fan, Smart Power Protection, Power Supply)</t>
-  </si>
-  <si>
-    <t>B079SSKYWB</t>
-  </si>
-  <si>
-    <t>Gigabyte P650B 80 Plus Bronze 650W, Quiet HYB Fan, Active Power Protection, Power Supply GP-P650B</t>
-  </si>
-  <si>
-    <t>B07YZ2NCR5</t>
-  </si>
-  <si>
-    <t>AORUS RGB AIO Liquid Cooler 280, 280mm Radiator, Dual 140mm Windforce PWM Fans, Customizable Full Color LCD Display, Advanced RGB Lighting and Control, Intel 115X/2066, AMD AM4, TR4</t>
-  </si>
-  <si>
-    <t>B07HCXL27D</t>
-  </si>
-  <si>
-    <t>AORUS P850W 80 Plus Gold 850W, Fully Modular, Smart Fan Function, Smart Power Protection, 10 Year Warranty, Power Supply GP-AP850GM</t>
-  </si>
-  <si>
-    <t>B09T5WL6YW</t>
-  </si>
-  <si>
-    <t>Gigabyte GP-AR140RFAN - AORUS 140mm Sleeve Bearing ARGB Computer Case Fan, Black</t>
-  </si>
-  <si>
-    <t>B07YZ26VVQ</t>
-  </si>
-  <si>
-    <t>GIGABYTE AORUS RGB AIO Liquid Cooler 360, 360mm Radiator, Triple 120mm Windforce PWM Fans, Customizable Full Color LCD Display, Advanced RGB Lighting and Control, Intel 115X/2066, AMD AM4, TR4</t>
-  </si>
-  <si>
-    <t>B09VK35VYJ</t>
-  </si>
-  <si>
-    <t>GIGABYTE GP-UD1000GM PG5 - PCIe5.0 Ready - ATX3.0 - 1000W 80 Plus Gold Certified - Fully Modular Power Supply</t>
-  </si>
-  <si>
-    <t>B08DKJJFW6</t>
-  </si>
-  <si>
-    <t>Gigabyte GP-P750GM (80 Plus Gold 750W, Modular, Smart Fan, Smart Power Protection, Power Supply)</t>
+    <t>B0C4BH2Z7D</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen4 7300 SSD 1TB PCIe 4.0 NVMe M.2 Internal Solid State Hard Drive with Read Speed Up to 7300MB/s, Write Speed Up to 6000MB/s (AG4731TB)</t>
+  </si>
+  <si>
+    <t>B0C4BKJCWV</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen4 7300 SSD 2TB PCIe 4.0 NVMe M.2 Internal Solid State Hard Drive with Read Speed Up to 7300MB/s, Write Speed Up to 6850MB/s, AG4732TB</t>
+  </si>
+  <si>
+    <t>B0CDNCNBSP</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen5 12000 SSD 2TB PCIe 5.0 NVMe M.2 Internal Solid State Hard Drive with Read Speed Up to 12400MB/s, Write Speed Up to 11800MB/s, AG512K2TB</t>
+  </si>
+  <si>
+    <t>B0CDP24LW9</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen5 12000 SSD 1TB PCIe 5.0 NVMe M.2 Internal Solid State Hard Drive with Read Speed Up to 11700MB/s, Write Speed Up to 9500MB/s, AG512K1TB</t>
+  </si>
+  <si>
+    <t>B091ZG1ZC6</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS GP-ARS16G37 (RGB/ 16GB RAM Memory Kit (2x8GB)/ 3733MHz/ Supports AORUS Memory Boost/ RGB Fusion 2.0/ Selected Memory Ics/ 100% Sorted and Tested/ Memory)</t>
+  </si>
+  <si>
+    <t>B09SBV8M5F</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS Memory ARS32G60D5R (DDR5 32GB (2x16GB) 6000MHz)</t>
+  </si>
+  <si>
+    <t>B0CXZK5JGC</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS M.2 SSD to PCIe x16 Easy One Click RAID Add-in Card (AIC), M.2 PCIe Adapter for Gen5 SSDs PCIe 5.0 (GC-4XM2G5)</t>
+  </si>
+  <si>
+    <t>B08XY93JT3</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen4 7000s SSD 2TB PCIe 4.0 NVMe M.2, Nanocarbon Coated Aluminum Heatsink, 3D TLC NAND, SSD- GP-AG70S2TB</t>
+  </si>
+  <si>
+    <t>B07G5RD1XK</t>
+  </si>
+  <si>
+    <t>GIGABYTE SSD 240GB (GP-GSTFS31240GNTD)</t>
+  </si>
+  <si>
+    <t>B09MDTM5Z6</t>
+  </si>
+  <si>
+    <t>AORUS Memory GP-ARS32G52D5 (DDR5 32GB (2x16GB) 5200MHz) Black</t>
+  </si>
+  <si>
+    <t>B07TJWZGL9</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS NVMe Gen4 M.2 1TB PCI-Express 4.0 Interface High Performance Gaming, Full Body Copper Heat Spreader, Toshiba 3D NAND, DDR Cache Buffer, SSD GP-ASM2NE6100TTTD</t>
+  </si>
+  <si>
+    <t>B084KGJDDM</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS RGB Memory 16GB (2x8GB) 288-Pin RGB PC4-28800 DDR4 3600MHz Perfect for Intel X299, X299X, Z390 and AMD X570, TRX40 Platforms Desktop Memory Model GP-AR36C18S8K2HU416R</t>
+  </si>
+  <si>
+    <t>B083GTQPXF</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen4 7000s SSD 1TB PCIe 4.0 NVMe 1.4 M.2, Nanocarbon Coated Aluminum Heatsink, 3D TLC NAND, SSD GP-AG70S1TB-P</t>
+  </si>
+  <si>
+    <t>B07VV87QVL</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS NVMe Gen4 M.2 500GB PCI-Express 4.0 Interface High Performance Gaming, Full Body Copper Heat Spreader, Toshiba 3D NAND, DDR Cache Buffer, 5 Year Warranty SSD GP-ASM2NE6500GTTD</t>
+  </si>
+  <si>
+    <t>B099ZF7M85</t>
+  </si>
+  <si>
+    <t>AORUS GP-ARS16G37D RGB 16GB RAM Memory Kit (2x8GB) 3733MHz, Supports AORUS Memory Boost and RGB Fusion 2.0. Selected Memory ICS, 100% Sorted and Tested (with Demo Modules).</t>
+  </si>
+  <si>
+    <t>B07TJX83W2</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS NVMe Gen4 M.2 2TB PCI-Express 4.0 Interface High Performance Gaming, Full Body Copper Heat Spreader, Toshiba 3D NAND, DDR Cache Buffer, SSD GP-ASM2NE6200TTTD</t>
+  </si>
+  <si>
+    <t>B07GBZL93X</t>
+  </si>
+  <si>
+    <t>GIGABYTE GC-Titan Ridge (Titan Ridge Thunderbolt 3 PCIe Card Component)</t>
+  </si>
+  <si>
+    <t>B0CKHM2ZQ6</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen4 5000E SSD 2TB PCIe 4.0 NVMe M.2 Internal Solid State Hard Drive with Read Speed Up to 6500MB/s, Write Speed Up to 6000MB/s, AG450E2TB-G</t>
+  </si>
+  <si>
+    <t>B08XY9146V</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS Gen4 7000s SSD 1TB PCIe 4.0 NVMe M.2, Nanocarbon Coated Aluminum Heatsink, 3D TLC NAND, SSD GP-AG70S1TB</t>
+  </si>
+  <si>
+    <t>B08FCY3BM2</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS NVMe Gen4 M.2 1TB PCI-Express 4.0 Interface High Performance Gaming, 3D TLC NAND, External DDR Cache Buffer, SSD (GP-AG41TB)</t>
+  </si>
+  <si>
+    <t>B07Z9YBT3T</t>
+  </si>
+  <si>
+    <t>GIGABYTE NVMe 1.3/M.2/PCIe 3.0x4/ 1TB SSD (GP-GSM2NE3100TNTD)</t>
+  </si>
+  <si>
+    <t>B091ZFTQQ1</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS GP-ARS16G33 (RGB/ 16GB RAM Memory Kit/ 16GB (2x8GB)/ 3333MHz/ Supports AORUS Memory Boost/ RGB Fusion 2.0/ Selected Memory Ics/ 100% Sorted and Tested/ Memory)</t>
+  </si>
+  <si>
+    <t>B07QJ756H8</t>
+  </si>
+  <si>
+    <t>GIGABYTE SSD 480GB (GP-GSTFS31480GNTD)</t>
+  </si>
+  <si>
+    <t>B0BHM59TQB</t>
+  </si>
+  <si>
+    <t>GIGABYTE Gen3 2500E SSD 1TB NVMe M.2 Internal Solid State Hard Drive with Read Speed Up to 2400MB/s, Write Speed Up to 1800 MB/s, Host Memory Buffer Supported, (G325E1TB)</t>
+  </si>
+  <si>
+    <t>B08FWY81LM</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS NVMe Gen4 M.2 2TB PCI-Express 4.0 Interface High Performance Gaming, 3D TLC NAND, External DDR Cache Buffer, SSD GP-AG42TB</t>
+  </si>
+  <si>
+    <t>B07QBVWCQL</t>
+  </si>
+  <si>
+    <t>AORUS RGB NVMe M.2 512GB High Performance Gaming, Integrated Heatsink, Toshiba 3D NAND, DDR Cache Buffer, 5 Year Warranty SSD GP-ASM2NE2512GTTDR</t>
+  </si>
+  <si>
+    <t>B07GJKR7RX</t>
+  </si>
+  <si>
+    <t>Gigabyte GIGABYTE SSD 120GB NAND Flash SATA III 2.5" Internal SSD - GP-GSTFS31120GNTD 2.5 inches GP-GSTFS31120GNTD</t>
   </si>
 </sst>
 </file>
@@ -779,7 +701,7 @@
   <dimension ref="A1:AY85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AY41"/>
+      <selection activeCell="A2" sqref="A2:AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,148 +913,148 @@
         <v>3</v>
       </c>
       <c r="D2" s="5">
-        <v>363</v>
+        <v>39</v>
       </c>
       <c r="E2" s="5">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="F2" s="5">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="G2" s="5">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="H2" s="5">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="J2" s="5">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="K2" s="5">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="L2" s="5">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="M2" s="5">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="N2" s="5">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="O2" s="5">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="P2" s="5">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="5">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="R2" s="5">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="S2" s="5">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="T2" s="5">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="U2" s="5">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="V2" s="5">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="W2" s="5">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="X2" s="5">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="Y2" s="5">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="Z2" s="5">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="AA2" s="5">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="AB2" s="5">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="AC2" s="5">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AD2" s="5">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="AE2" s="5">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="AF2" s="5">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AG2" s="5">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AH2" s="5">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="AI2" s="5">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="AJ2" s="5">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="AK2" s="5">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AL2" s="5">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="AM2" s="5">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="AN2" s="5">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="AO2" s="5">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="AP2" s="5">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="AQ2" s="5">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="AR2" s="5">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="AS2" s="5">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="AT2" s="5">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="AU2" s="5">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AV2" s="5">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="AW2" s="5">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="AX2" s="5">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="AY2" s="5">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
@@ -1146,70 +1068,70 @@
         <v>3</v>
       </c>
       <c r="D3" s="5">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F3" s="5">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G3" s="5">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H3" s="5">
+        <v>30</v>
+      </c>
+      <c r="I3" s="5">
         <v>29</v>
       </c>
-      <c r="I3" s="5">
-        <v>24</v>
-      </c>
       <c r="J3" s="5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K3" s="5">
+        <v>27</v>
+      </c>
+      <c r="L3" s="5">
+        <v>25</v>
+      </c>
+      <c r="M3" s="5">
+        <v>26</v>
+      </c>
+      <c r="N3" s="5">
+        <v>22</v>
+      </c>
+      <c r="O3" s="5">
         <v>23</v>
       </c>
-      <c r="L3" s="5">
+      <c r="P3" s="5">
         <v>22</v>
       </c>
-      <c r="M3" s="5">
-        <v>22</v>
-      </c>
-      <c r="N3" s="5">
-        <v>23</v>
-      </c>
-      <c r="O3" s="5">
-        <v>22</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>21</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>20</v>
-      </c>
-      <c r="R3" s="5">
-        <v>21</v>
       </c>
       <c r="S3" s="5">
         <v>20</v>
       </c>
       <c r="T3" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U3" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V3" s="5">
         <v>21</v>
       </c>
       <c r="W3" s="5">
+        <v>20</v>
+      </c>
+      <c r="X3" s="5">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="5">
         <v>19</v>
-      </c>
-      <c r="X3" s="5">
-        <v>19</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>18</v>
       </c>
       <c r="Z3" s="5">
         <v>19</v>
@@ -1224,7 +1146,7 @@
         <v>17</v>
       </c>
       <c r="AD3" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE3" s="5">
         <v>17</v>
@@ -1233,61 +1155,61 @@
         <v>17</v>
       </c>
       <c r="AG3" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH3" s="5">
+        <v>23</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>24</v>
+      </c>
+      <c r="AJ3" s="5">
         <v>17</v>
       </c>
-      <c r="AI3" s="5">
-        <v>25</v>
-      </c>
-      <c r="AJ3" s="5">
-        <v>25</v>
-      </c>
       <c r="AK3" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL3" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM3" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AN3" s="5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO3" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP3" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AQ3" s="5">
         <v>18</v>
       </c>
       <c r="AR3" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS3" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT3" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AU3" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AV3" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AW3" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AX3" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY3" s="5">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
@@ -1301,148 +1223,148 @@
         <v>3</v>
       </c>
       <c r="D4" s="5">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G4" s="5">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H4" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I4" s="5">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J4" s="5">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K4" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L4" s="5">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M4" s="5">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="N4" s="5">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="O4" s="5">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="P4" s="5">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="5">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="R4" s="5">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="S4" s="5">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="T4" s="5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="U4" s="5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="V4" s="5">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="W4" s="5">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X4" s="5">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="Y4" s="5">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="Z4" s="5">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AA4" s="5">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AB4" s="5">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AC4" s="5">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AD4" s="5">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AE4" s="5">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AF4" s="5">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AG4" s="5">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AH4" s="5">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AI4" s="5">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AJ4" s="5">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AK4" s="5">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AL4" s="5">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AM4" s="5">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AN4" s="5">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AO4" s="5">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AP4" s="5">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AQ4" s="5">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AR4" s="5">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AS4" s="5">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AT4" s="5">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AU4" s="5">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AV4" s="5">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AW4" s="5">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AX4" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AY4" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
@@ -1456,148 +1378,148 @@
         <v>3</v>
       </c>
       <c r="D5" s="5">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G5" s="5">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H5" s="5">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I5" s="5">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J5" s="5">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K5" s="5">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L5" s="5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M5" s="5">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="N5" s="5">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="O5" s="5">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="P5" s="5">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="5">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="R5" s="5">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="S5" s="5">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="T5" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="U5" s="5">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V5" s="5">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="W5" s="5">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="X5" s="5">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Y5" s="5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="Z5" s="5">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="AA5" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB5" s="5">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AC5" s="5">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AD5" s="5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="AE5" s="5">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AF5" s="5">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AG5" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH5" s="5">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AI5" s="5">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="AJ5" s="5">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="AK5" s="5">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AL5" s="5">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AM5" s="5">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AN5" s="5">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AO5" s="5">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AP5" s="5">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="AQ5" s="5">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AR5" s="5">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AS5" s="5">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AT5" s="5">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AU5" s="5">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AV5" s="5">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AW5" s="5">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AX5" s="5">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AY5" s="5">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
@@ -1611,148 +1533,148 @@
         <v>3</v>
       </c>
       <c r="D6" s="5">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E6" s="5">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G6" s="5">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="H6" s="5">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I6" s="5">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J6" s="5">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K6" s="5">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="L6" s="5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="M6" s="5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N6" s="5">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="O6" s="5">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="P6" s="5">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="5">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="R6" s="5">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="S6" s="5">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="T6" s="5">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="U6" s="5">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="V6" s="5">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="W6" s="5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="X6" s="5">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="Y6" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z6" s="5">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="AA6" s="5">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="5">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AC6" s="5">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AD6" s="5">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE6" s="5">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AF6" s="5">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AG6" s="5">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AH6" s="5">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AI6" s="5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="AJ6" s="5">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="AK6" s="5">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AL6" s="5">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AM6" s="5">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AN6" s="5">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AO6" s="5">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AP6" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AQ6" s="5">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AR6" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AS6" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AT6" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AU6" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AV6" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AW6" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AX6" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AY6" s="5">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
@@ -1766,148 +1688,148 @@
         <v>3</v>
       </c>
       <c r="D7" s="5">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F7" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G7" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H7" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I7" s="5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J7" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K7" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L7" s="5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M7" s="5">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N7" s="5">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="O7" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="P7" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="5">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="R7" s="5">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="S7" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="T7" s="5">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="U7" s="5">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="V7" s="5">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="W7" s="5">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="X7" s="5">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="Y7" s="5">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="Z7" s="5">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="AA7" s="5">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="5">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AC7" s="5">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="AD7" s="5">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="AE7" s="5">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AF7" s="5">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AG7" s="5">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="AH7" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AI7" s="5">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="AJ7" s="5">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AK7" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AL7" s="5">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="AM7" s="5">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="AN7" s="5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AO7" s="5">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="AP7" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AQ7" s="5">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AR7" s="5">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="AS7" s="5">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AT7" s="5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AU7" s="5">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AV7" s="5">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="5">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AY7" s="5">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
@@ -1921,148 +1843,148 @@
         <v>3</v>
       </c>
       <c r="D8" s="5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H8" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I8" s="5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J8" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K8" s="5">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="L8" s="5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M8" s="5">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="N8" s="5">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="O8" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P8" s="5">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="5">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="R8" s="5">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="S8" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="T8" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="U8" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="V8" s="5">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="W8" s="5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="X8" s="5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AI8" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AR8" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AS8" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AV8" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
@@ -2076,148 +1998,148 @@
         <v>3</v>
       </c>
       <c r="D9" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H9" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L9" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M9" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N9" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O9" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P9" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R9" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="S9" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="T9" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U9" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="V9" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="W9" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="X9" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AK9" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AR9" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AS9" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AV9" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
@@ -2231,148 +2153,148 @@
         <v>3</v>
       </c>
       <c r="D10" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E10" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G10" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K10" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L10" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M10" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N10" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="O10" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P10" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="5">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="R10" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="S10" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T10" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="U10" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="V10" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="W10" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="X10" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
@@ -2386,148 +2308,148 @@
         <v>3</v>
       </c>
       <c r="D11" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H11" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I11" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J11" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K11" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L11" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="M11" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N11" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="O11" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="P11" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="R11" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S11" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="T11" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="U11" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="V11" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="W11" s="5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="X11" s="5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AJ11" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AM11" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AN11" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AO11" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AQ11" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AR11" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AS11" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AV11" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
@@ -2541,148 +2463,148 @@
         <v>3</v>
       </c>
       <c r="D12" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R12" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
@@ -2696,148 +2618,148 @@
         <v>3</v>
       </c>
       <c r="D13" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K13" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L13" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M13" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N13" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O13" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P13" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R13" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S13" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T13" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U13" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V13" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W13" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X13" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
@@ -2851,148 +2773,148 @@
         <v>3</v>
       </c>
       <c r="D14" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K14" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L14" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M14" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N14" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O14" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P14" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R14" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S14" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T14" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U14" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V14" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W14" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X14" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
@@ -3006,148 +2928,148 @@
         <v>3</v>
       </c>
       <c r="D15" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F15" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G15" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H15" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I15" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K15" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V15" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX15" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
@@ -3161,148 +3083,148 @@
         <v>3</v>
       </c>
       <c r="D16" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L16" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W16" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X16" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
@@ -3316,148 +3238,148 @@
         <v>3</v>
       </c>
       <c r="D17" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F17" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I17" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N17" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O17" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R17" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T17" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U17" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
@@ -3471,148 +3393,148 @@
         <v>3</v>
       </c>
       <c r="D18" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G18" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
@@ -3626,148 +3548,148 @@
         <v>3</v>
       </c>
       <c r="D19" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I19" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K19" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L19" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M19" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N19" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O19" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P19" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R19" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S19" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T19" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U19" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V19" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W19" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X19" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN19" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AS19" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW19" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX19" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
@@ -3781,148 +3703,148 @@
         <v>3</v>
       </c>
       <c r="D20" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K20" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L20" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M20" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N20" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O20" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P20" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R20" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S20" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V20" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX20" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
@@ -3936,148 +3858,148 @@
         <v>3</v>
       </c>
       <c r="D21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O21" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U21" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV21" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW21" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
@@ -4091,148 +4013,148 @@
         <v>3</v>
       </c>
       <c r="D22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
@@ -4246,148 +4168,148 @@
         <v>3</v>
       </c>
       <c r="D23" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
@@ -4401,148 +4323,148 @@
         <v>3</v>
       </c>
       <c r="D24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L24" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS24" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW24" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
@@ -4556,148 +4478,148 @@
         <v>3</v>
       </c>
       <c r="D25" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K25" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L25" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M25" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N25" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O25" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P25" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R25" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S25" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T25" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AX25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.25">
@@ -4711,148 +4633,148 @@
         <v>3</v>
       </c>
       <c r="D26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
@@ -4866,148 +4788,148 @@
         <v>3</v>
       </c>
       <c r="D27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="5">
         <v>0</v>
       </c>
       <c r="AM27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="5">
         <v>0</v>
       </c>
       <c r="AU27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
@@ -5021,2164 +4943,838 @@
         <v>3</v>
       </c>
       <c r="D28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29" s="5">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5">
-        <v>1</v>
-      </c>
-      <c r="L29" s="5">
-        <v>1</v>
-      </c>
-      <c r="M29" s="5">
-        <v>1</v>
-      </c>
-      <c r="N29" s="5">
-        <v>1</v>
-      </c>
-      <c r="O29" s="5">
-        <v>1</v>
-      </c>
-      <c r="P29" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>1</v>
-      </c>
-      <c r="R29" s="5">
-        <v>1</v>
-      </c>
-      <c r="S29" s="5">
-        <v>1</v>
-      </c>
-      <c r="T29" s="5">
-        <v>1</v>
-      </c>
-      <c r="U29" s="5">
-        <v>1</v>
-      </c>
-      <c r="V29" s="5">
-        <v>1</v>
-      </c>
-      <c r="W29" s="5">
-        <v>1</v>
-      </c>
-      <c r="X29" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AP29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AR29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AS29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AT29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AW29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AY29" s="5">
-        <v>1</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1</v>
-      </c>
-      <c r="J30" s="5">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
-        <v>0</v>
-      </c>
-      <c r="M30" s="5">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5">
-        <v>0</v>
-      </c>
-      <c r="O30" s="5">
-        <v>0</v>
-      </c>
-      <c r="P30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>0</v>
-      </c>
-      <c r="R30" s="5">
-        <v>0</v>
-      </c>
-      <c r="S30" s="5">
-        <v>0</v>
-      </c>
-      <c r="T30" s="5">
-        <v>0</v>
-      </c>
-      <c r="U30" s="5">
-        <v>0</v>
-      </c>
-      <c r="V30" s="5">
-        <v>0</v>
-      </c>
-      <c r="W30" s="5">
-        <v>0</v>
-      </c>
-      <c r="X30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY30" s="5">
-        <v>0</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5">
-        <v>0</v>
-      </c>
-      <c r="M31" s="5">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
-        <v>0</v>
-      </c>
-      <c r="O31" s="5">
-        <v>0</v>
-      </c>
-      <c r="P31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>0</v>
-      </c>
-      <c r="R31" s="5">
-        <v>0</v>
-      </c>
-      <c r="S31" s="5">
-        <v>0</v>
-      </c>
-      <c r="T31" s="5">
-        <v>0</v>
-      </c>
-      <c r="U31" s="5">
-        <v>0</v>
-      </c>
-      <c r="V31" s="5">
-        <v>0</v>
-      </c>
-      <c r="W31" s="5">
-        <v>0</v>
-      </c>
-      <c r="X31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY31" s="5">
-        <v>0</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
-        <v>0</v>
-      </c>
-      <c r="K32" s="5">
-        <v>0</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
-      <c r="M32" s="5">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5">
-        <v>0</v>
-      </c>
-      <c r="O32" s="5">
-        <v>0</v>
-      </c>
-      <c r="P32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>0</v>
-      </c>
-      <c r="R32" s="5">
-        <v>0</v>
-      </c>
-      <c r="S32" s="5">
-        <v>0</v>
-      </c>
-      <c r="T32" s="5">
-        <v>0</v>
-      </c>
-      <c r="U32" s="5">
-        <v>0</v>
-      </c>
-      <c r="V32" s="5">
-        <v>0</v>
-      </c>
-      <c r="W32" s="5">
-        <v>0</v>
-      </c>
-      <c r="X32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY32" s="5">
-        <v>0</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0</v>
-      </c>
-      <c r="J33" s="5">
-        <v>0</v>
-      </c>
-      <c r="K33" s="5">
-        <v>0</v>
-      </c>
-      <c r="L33" s="5">
-        <v>0</v>
-      </c>
-      <c r="M33" s="5">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5">
-        <v>0</v>
-      </c>
-      <c r="O33" s="5">
-        <v>0</v>
-      </c>
-      <c r="P33" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>0</v>
-      </c>
-      <c r="R33" s="5">
-        <v>0</v>
-      </c>
-      <c r="S33" s="5">
-        <v>0</v>
-      </c>
-      <c r="T33" s="5">
-        <v>0</v>
-      </c>
-      <c r="U33" s="5">
-        <v>0</v>
-      </c>
-      <c r="V33" s="5">
-        <v>0</v>
-      </c>
-      <c r="W33" s="5">
-        <v>0</v>
-      </c>
-      <c r="X33" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY33" s="5">
-        <v>0</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0</v>
-      </c>
-      <c r="K34" s="5">
-        <v>0</v>
-      </c>
-      <c r="L34" s="5">
-        <v>0</v>
-      </c>
-      <c r="M34" s="5">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5">
-        <v>0</v>
-      </c>
-      <c r="O34" s="5">
-        <v>0</v>
-      </c>
-      <c r="P34" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>0</v>
-      </c>
-      <c r="R34" s="5">
-        <v>0</v>
-      </c>
-      <c r="S34" s="5">
-        <v>0</v>
-      </c>
-      <c r="T34" s="5">
-        <v>0</v>
-      </c>
-      <c r="U34" s="5">
-        <v>0</v>
-      </c>
-      <c r="V34" s="5">
-        <v>0</v>
-      </c>
-      <c r="W34" s="5">
-        <v>0</v>
-      </c>
-      <c r="X34" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY34" s="5">
-        <v>0</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5">
-        <v>0</v>
-      </c>
-      <c r="H35" s="5">
-        <v>0</v>
-      </c>
-      <c r="I35" s="5">
-        <v>0</v>
-      </c>
-      <c r="J35" s="5">
-        <v>0</v>
-      </c>
-      <c r="K35" s="5">
-        <v>0</v>
-      </c>
-      <c r="L35" s="5">
-        <v>0</v>
-      </c>
-      <c r="M35" s="5">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5">
-        <v>0</v>
-      </c>
-      <c r="O35" s="5">
-        <v>0</v>
-      </c>
-      <c r="P35" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>0</v>
-      </c>
-      <c r="R35" s="5">
-        <v>0</v>
-      </c>
-      <c r="S35" s="5">
-        <v>0</v>
-      </c>
-      <c r="T35" s="5">
-        <v>0</v>
-      </c>
-      <c r="U35" s="5">
-        <v>0</v>
-      </c>
-      <c r="V35" s="5">
-        <v>0</v>
-      </c>
-      <c r="W35" s="5">
-        <v>0</v>
-      </c>
-      <c r="X35" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY35" s="5">
-        <v>0</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5">
-        <v>0</v>
-      </c>
-      <c r="H36" s="5">
-        <v>0</v>
-      </c>
-      <c r="I36" s="5">
-        <v>0</v>
-      </c>
-      <c r="J36" s="5">
-        <v>0</v>
-      </c>
-      <c r="K36" s="5">
-        <v>0</v>
-      </c>
-      <c r="L36" s="5">
-        <v>0</v>
-      </c>
-      <c r="M36" s="5">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5">
-        <v>0</v>
-      </c>
-      <c r="O36" s="5">
-        <v>0</v>
-      </c>
-      <c r="P36" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>0</v>
-      </c>
-      <c r="R36" s="5">
-        <v>0</v>
-      </c>
-      <c r="S36" s="5">
-        <v>0</v>
-      </c>
-      <c r="T36" s="5">
-        <v>0</v>
-      </c>
-      <c r="U36" s="5">
-        <v>0</v>
-      </c>
-      <c r="V36" s="5">
-        <v>0</v>
-      </c>
-      <c r="W36" s="5">
-        <v>0</v>
-      </c>
-      <c r="X36" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY36" s="5">
-        <v>0</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5">
-        <v>0</v>
-      </c>
-      <c r="H37" s="5">
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
-        <v>0</v>
-      </c>
-      <c r="J37" s="5">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5">
-        <v>0</v>
-      </c>
-      <c r="L37" s="5">
-        <v>0</v>
-      </c>
-      <c r="M37" s="5">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5">
-        <v>0</v>
-      </c>
-      <c r="O37" s="5">
-        <v>0</v>
-      </c>
-      <c r="P37" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>0</v>
-      </c>
-      <c r="R37" s="5">
-        <v>0</v>
-      </c>
-      <c r="S37" s="5">
-        <v>0</v>
-      </c>
-      <c r="T37" s="5">
-        <v>0</v>
-      </c>
-      <c r="U37" s="5">
-        <v>0</v>
-      </c>
-      <c r="V37" s="5">
-        <v>0</v>
-      </c>
-      <c r="W37" s="5">
-        <v>0</v>
-      </c>
-      <c r="X37" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY37" s="5">
-        <v>0</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5">
-        <v>0</v>
-      </c>
-      <c r="H38" s="5">
-        <v>0</v>
-      </c>
-      <c r="I38" s="5">
-        <v>0</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5">
-        <v>0</v>
-      </c>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
-      <c r="M38" s="5">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5">
-        <v>0</v>
-      </c>
-      <c r="O38" s="5">
-        <v>0</v>
-      </c>
-      <c r="P38" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>0</v>
-      </c>
-      <c r="R38" s="5">
-        <v>0</v>
-      </c>
-      <c r="S38" s="5">
-        <v>0</v>
-      </c>
-      <c r="T38" s="5">
-        <v>0</v>
-      </c>
-      <c r="U38" s="5">
-        <v>0</v>
-      </c>
-      <c r="V38" s="5">
-        <v>0</v>
-      </c>
-      <c r="W38" s="5">
-        <v>0</v>
-      </c>
-      <c r="X38" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY38" s="5">
-        <v>0</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
-      <c r="H39" s="5">
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5">
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5">
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
-        <v>0</v>
-      </c>
-      <c r="P39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>0</v>
-      </c>
-      <c r="R39" s="5">
-        <v>0</v>
-      </c>
-      <c r="S39" s="5">
-        <v>0</v>
-      </c>
-      <c r="T39" s="5">
-        <v>0</v>
-      </c>
-      <c r="U39" s="5">
-        <v>0</v>
-      </c>
-      <c r="V39" s="5">
-        <v>0</v>
-      </c>
-      <c r="W39" s="5">
-        <v>0</v>
-      </c>
-      <c r="X39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="5">
-        <v>0</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="5">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0</v>
-      </c>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5">
-        <v>0</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0</v>
-      </c>
-      <c r="M40" s="5">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5">
-        <v>0</v>
-      </c>
-      <c r="O40" s="5">
-        <v>0</v>
-      </c>
-      <c r="P40" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>0</v>
-      </c>
-      <c r="R40" s="5">
-        <v>0</v>
-      </c>
-      <c r="S40" s="5">
-        <v>0</v>
-      </c>
-      <c r="T40" s="5">
-        <v>0</v>
-      </c>
-      <c r="U40" s="5">
-        <v>0</v>
-      </c>
-      <c r="V40" s="5">
-        <v>0</v>
-      </c>
-      <c r="W40" s="5">
-        <v>0</v>
-      </c>
-      <c r="X40" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX40" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY40" s="5">
-        <v>0</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="5">
-        <v>0</v>
-      </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-      <c r="F41" s="5">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-      <c r="H41" s="5">
-        <v>0</v>
-      </c>
-      <c r="I41" s="5">
-        <v>0</v>
-      </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5">
-        <v>0</v>
-      </c>
-      <c r="L41" s="5">
-        <v>0</v>
-      </c>
-      <c r="M41" s="5">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5">
-        <v>0</v>
-      </c>
-      <c r="O41" s="5">
-        <v>0</v>
-      </c>
-      <c r="P41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>0</v>
-      </c>
-      <c r="R41" s="5">
-        <v>0</v>
-      </c>
-      <c r="S41" s="5">
-        <v>0</v>
-      </c>
-      <c r="T41" s="5">
-        <v>0</v>
-      </c>
-      <c r="U41" s="5">
-        <v>0</v>
-      </c>
-      <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41" s="5">
-        <v>0</v>
-      </c>
-      <c r="X41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY41" s="5">
-        <v>0</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>

--- a/forecasts_folder/p70_forecast.xlsx
+++ b/forecasts_folder/p70_forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/forecasts_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4440EAB-DEA4-4540-AAFB-74B03034499F}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2DAE5E0-9398-4C93-977E-65A2588B81D5}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1412,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A102" sqref="A102:AY147"/>
     </sheetView>
   </sheetViews>
@@ -16186,10 +16186,10 @@
     </row>
     <row r="96" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -16341,10 +16341,10 @@
     </row>
     <row r="97" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B97" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -16806,10 +16806,10 @@
     </row>
     <row r="100" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
@@ -16950,21 +16950,21 @@
         <v>0</v>
       </c>
       <c r="AW100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B101" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C101" t="s">
         <v>3</v>
@@ -17105,13 +17105,13 @@
         <v>0</v>
       </c>
       <c r="AW101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:51" x14ac:dyDescent="0.3">

--- a/forecasts_folder/p70_forecast.xlsx
+++ b/forecasts_folder/p70_forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/forecasts_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2DAE5E0-9398-4C93-977E-65A2588B81D5}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_F25DC773A252ABDACC104884C91A59425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA770BC0-D6D2-4F63-AA1A-5249D56C9D25}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,150 +506,6 @@
     <t>GIGABYTE B650 UD AX (rev. 1.0) AM5 LGA 1718 AMD B650 ATX DDR5, PCIe 4.0 M.2, PCIe 4.0, USB 3.2 Gen2x2 Type-C, Wi-Fi 6, GbE LAN, Q-Flash, EZ-Latch</t>
   </si>
   <si>
-    <t>Week 0 (19 Jan - 25 Jan)</t>
-  </si>
-  <si>
-    <t>Week 1 (26 Jan - 1 Feb)</t>
-  </si>
-  <si>
-    <t>Week 2 (2 Feb - 8 Feb)</t>
-  </si>
-  <si>
-    <t>Week 3 (9 Feb - 15 Feb)</t>
-  </si>
-  <si>
-    <t>Week 4 (16 Feb - 22 Feb)</t>
-  </si>
-  <si>
-    <t>Week 5 (23 Feb - 1 Mar)</t>
-  </si>
-  <si>
-    <t>Week 6 (2 Mar - 8 Mar)</t>
-  </si>
-  <si>
-    <t>Week 7 (9 Mar - 15 Mar)</t>
-  </si>
-  <si>
-    <t>Week 8 (16 Mar - 22 Mar)</t>
-  </si>
-  <si>
-    <t>Week 9 (23 Mar - 29 Mar)</t>
-  </si>
-  <si>
-    <t>Week 10 (30 Mar - 5 Apr)</t>
-  </si>
-  <si>
-    <t>Week 11 (6 Apr - 12 Apr)</t>
-  </si>
-  <si>
-    <t>Week 12 (13 Apr - 19 Apr)</t>
-  </si>
-  <si>
-    <t>Week 13 (20 Apr - 26 Apr)</t>
-  </si>
-  <si>
-    <t>Week 14 (27 Apr - 3 May)</t>
-  </si>
-  <si>
-    <t>Week 15 (4 May - 10 May)</t>
-  </si>
-  <si>
-    <t>Week 16 (11 May - 17 May)</t>
-  </si>
-  <si>
-    <t>Week 17 (18 May - 24 May)</t>
-  </si>
-  <si>
-    <t>Week 18 (25 May - 31 May)</t>
-  </si>
-  <si>
-    <t>Week 19 (1 Jun - 7 Jun)</t>
-  </si>
-  <si>
-    <t>Week 20 (8 Jun - 14 Jun)</t>
-  </si>
-  <si>
-    <t>Week 21 (15 Jun - 21 Jun)</t>
-  </si>
-  <si>
-    <t>Week 22 (22 Jun - 28 Jun)</t>
-  </si>
-  <si>
-    <t>Week 23 (29 Jun - 5 Jul)</t>
-  </si>
-  <si>
-    <t>Week 24 (6 Jul - 12 Jul)</t>
-  </si>
-  <si>
-    <t>Week 25 (13 Jul - 19 Jul)</t>
-  </si>
-  <si>
-    <t>Week 26 (20 Jul - 26 Jul)</t>
-  </si>
-  <si>
-    <t>Week 27 (27 Jul - 2 Aug)</t>
-  </si>
-  <si>
-    <t>Week 28 (3 Aug - 9 Aug)</t>
-  </si>
-  <si>
-    <t>Week 29 (10 Aug - 16 Aug)</t>
-  </si>
-  <si>
-    <t>Week 30 (17 Aug - 23 Aug)</t>
-  </si>
-  <si>
-    <t>Week 31 (24 Aug - 30 Aug)</t>
-  </si>
-  <si>
-    <t>Week 32 (31 Aug - 6 Sep)</t>
-  </si>
-  <si>
-    <t>Week 33 (7 Sep - 13 Sep)</t>
-  </si>
-  <si>
-    <t>Week 34 (14 Sep - 20 Sep)</t>
-  </si>
-  <si>
-    <t>Week 35 (21 Sep - 27 Sep)</t>
-  </si>
-  <si>
-    <t>Week 36 (28 Sep - 4 Oct)</t>
-  </si>
-  <si>
-    <t>Week 37 (5 Oct - 11 Oct)</t>
-  </si>
-  <si>
-    <t>Week 38 (12 Oct - 18 Oct)</t>
-  </si>
-  <si>
-    <t>Week 39 (19 Oct - 25 Oct)</t>
-  </si>
-  <si>
-    <t>Week 40 (26 Oct - 1 Nov)</t>
-  </si>
-  <si>
-    <t>Week 41 (2 Nov - 8 Nov)</t>
-  </si>
-  <si>
-    <t>Week 42 (9 Nov - 15 Nov)</t>
-  </si>
-  <si>
-    <t>Week 43 (16 Nov - 22 Nov)</t>
-  </si>
-  <si>
-    <t>Week 44 (23 Nov - 29 Nov)</t>
-  </si>
-  <si>
-    <t>Week 45 (30 Nov - 6 Dec)</t>
-  </si>
-  <si>
-    <t>Week 46 (7 Dec - 13 Dec)</t>
-  </si>
-  <si>
-    <t>Week 47 (14 Dec - 20 Dec)</t>
-  </si>
-  <si>
     <t>B0DQLJGTRM</t>
   </si>
   <si>
@@ -792,6 +648,150 @@
   </si>
   <si>
     <t>GIGABYTE X570 AORUS PRO Wi-Fi (AMD Ryzen 3000/X570/ATX/PCIe4.0/DDR4/USB3.1/Realtek ALC1220-VB/Fins-Array Heatsink/RGB Fusion 2.0/2xM.2 Thermal Guard/Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>Week 0 (26 Jan - 1 Feb)</t>
+  </si>
+  <si>
+    <t>Week 1 (2 Feb - 8 Feb)</t>
+  </si>
+  <si>
+    <t>Week 2 (9 Feb - 15 Feb)</t>
+  </si>
+  <si>
+    <t>Week 3 (16 Feb - 22 Feb)</t>
+  </si>
+  <si>
+    <t>Week 4 (23 Feb - 1 Mar)</t>
+  </si>
+  <si>
+    <t>Week 5 (2 Mar - 8 Mar)</t>
+  </si>
+  <si>
+    <t>Week 6 (9 Mar - 15 Mar)</t>
+  </si>
+  <si>
+    <t>Week 7 (16 Mar - 22 Mar)</t>
+  </si>
+  <si>
+    <t>Week 8 (23 Mar - 29 Mar)</t>
+  </si>
+  <si>
+    <t>Week 9 (30 Mar - 5 Apr)</t>
+  </si>
+  <si>
+    <t>Week 10 (6 Apr - 12 Apr)</t>
+  </si>
+  <si>
+    <t>Week 11 (13 Apr - 19 Apr)</t>
+  </si>
+  <si>
+    <t>Week 12 (20 Apr - 26 Apr)</t>
+  </si>
+  <si>
+    <t>Week 13 (27 Apr - 3 May)</t>
+  </si>
+  <si>
+    <t>Week 14 (4 May - 10 May)</t>
+  </si>
+  <si>
+    <t>Week 15 (11 May - 17 May)</t>
+  </si>
+  <si>
+    <t>Week 16 (18 May - 24 May)</t>
+  </si>
+  <si>
+    <t>Week 17 (25 May - 31 May)</t>
+  </si>
+  <si>
+    <t>Week 18 (1 Jun - 7 Jun)</t>
+  </si>
+  <si>
+    <t>Week 19 (8 Jun - 14 Jun)</t>
+  </si>
+  <si>
+    <t>Week 20 (15 Jun - 21 Jun)</t>
+  </si>
+  <si>
+    <t>Week 21 (22 Jun - 28 Jun)</t>
+  </si>
+  <si>
+    <t>Week 22 (29 Jun - 5 Jul)</t>
+  </si>
+  <si>
+    <t>Week 23 (6 Jul - 12 Jul)</t>
+  </si>
+  <si>
+    <t>Week 24 (13 Jul - 19 Jul)</t>
+  </si>
+  <si>
+    <t>Week 25 (20 Jul - 26 Jul)</t>
+  </si>
+  <si>
+    <t>Week 26 (27 Jul - 2 Aug)</t>
+  </si>
+  <si>
+    <t>Week 27 (3 Aug - 9 Aug)</t>
+  </si>
+  <si>
+    <t>Week 28 (10 Aug - 16 Aug)</t>
+  </si>
+  <si>
+    <t>Week 29 (17 Aug - 23 Aug)</t>
+  </si>
+  <si>
+    <t>Week 30 (24 Aug - 30 Aug)</t>
+  </si>
+  <si>
+    <t>Week 31 (31 Aug - 6 Sep)</t>
+  </si>
+  <si>
+    <t>Week 32 (7 Sep - 13 Sep)</t>
+  </si>
+  <si>
+    <t>Week 33 (14 Sep - 20 Sep)</t>
+  </si>
+  <si>
+    <t>Week 34 (21 Sep - 27 Sep)</t>
+  </si>
+  <si>
+    <t>Week 35 (28 Sep - 4 Oct)</t>
+  </si>
+  <si>
+    <t>Week 36 (5 Oct - 11 Oct)</t>
+  </si>
+  <si>
+    <t>Week 37 (12 Oct - 18 Oct)</t>
+  </si>
+  <si>
+    <t>Week 38 (19 Oct - 25 Oct)</t>
+  </si>
+  <si>
+    <t>Week 39 (26 Oct - 1 Nov)</t>
+  </si>
+  <si>
+    <t>Week 40 (2 Nov - 8 Nov)</t>
+  </si>
+  <si>
+    <t>Week 41 (9 Nov - 15 Nov)</t>
+  </si>
+  <si>
+    <t>Week 42 (16 Nov - 22 Nov)</t>
+  </si>
+  <si>
+    <t>Week 43 (23 Nov - 29 Nov)</t>
+  </si>
+  <si>
+    <t>Week 44 (30 Nov - 6 Dec)</t>
+  </si>
+  <si>
+    <t>Week 45 (7 Dec - 13 Dec)</t>
+  </si>
+  <si>
+    <t>Week 46 (14 Dec - 20 Dec)</t>
+  </si>
+  <si>
+    <t>Week 47 (21 Dec - 27 Dec)</t>
   </si>
   <si>
     <t>B0BH9DXY38</t>
@@ -1412,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A102" sqref="A102:AY147"/>
     </sheetView>
   </sheetViews>
@@ -1470,148 +1470,148 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
@@ -4871,10 +4871,10 @@
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
@@ -6421,10 +6421,10 @@
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
@@ -7816,10 +7816,10 @@
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
@@ -8436,10 +8436,10 @@
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
@@ -8591,10 +8591,10 @@
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>3</v>
@@ -9056,10 +9056,10 @@
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>3</v>
@@ -10606,10 +10606,10 @@
     </row>
     <row r="60" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>3</v>
@@ -12156,10 +12156,10 @@
     </row>
     <row r="70" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>3</v>
@@ -12621,10 +12621,10 @@
     </row>
     <row r="73" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>3</v>
@@ -12931,10 +12931,10 @@
     </row>
     <row r="75" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>3</v>
@@ -13396,10 +13396,10 @@
     </row>
     <row r="78" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>3</v>
@@ -14016,10 +14016,10 @@
     </row>
     <row r="82" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -14326,10 +14326,10 @@
     </row>
     <row r="84" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>3</v>
@@ -14636,10 +14636,10 @@
     </row>
     <row r="86" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B86" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -14791,10 +14791,10 @@
     </row>
     <row r="87" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="B87" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -15101,10 +15101,10 @@
     </row>
     <row r="89" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="B89" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -15411,10 +15411,10 @@
     </row>
     <row r="91" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="B91" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -15566,10 +15566,10 @@
     </row>
     <row r="92" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -16031,10 +16031,10 @@
     </row>
     <row r="95" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="B95" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -16186,10 +16186,10 @@
     </row>
     <row r="96" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="B96" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -16341,10 +16341,10 @@
     </row>
     <row r="97" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -16496,10 +16496,10 @@
     </row>
     <row r="98" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="B98" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -16806,10 +16806,10 @@
     </row>
     <row r="100" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="B100" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
@@ -16961,10 +16961,10 @@
     </row>
     <row r="101" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="C101" t="s">
         <v>3</v>

--- a/forecasts_folder/p70_forecast.xlsx
+++ b/forecasts_folder/p70_forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/forecasts_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{8BCBAC57-579A-4668-8294-A50785DBFF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09BFFB70-D73D-4F3B-AB33-927641C4B124}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{8BCBAC57-579A-4668-8294-A50785DBFF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A92201F-334F-4F33-AAD1-A2ADE676A68A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33444" yWindow="1500" windowWidth="23040" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="344">
   <si>
     <t>ASIN</t>
   </si>
@@ -792,6 +792,282 @@
   </si>
   <si>
     <t>Week 47 (25 Jan - 31 Jan)</t>
+  </si>
+  <si>
+    <t>B0DGVBM73J</t>
+  </si>
+  <si>
+    <t>GIGABYTE X870E AORUS Elite WIFI7 AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+  </si>
+  <si>
+    <t>B0BH9DXY38</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AORUS Elite AX (LGA 1700/ Intel Z790/ ATX/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel WiFi 6E/ 2.5GbE LAN/Q-Flash Plus/PCIe EZ-Latch/Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>B0DGVBSLLP</t>
+  </si>
+  <si>
+    <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+  </si>
+  <si>
+    <t>B0D2RL4PT6</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 S WiFi DDR4 LGA 1700 Intel Z790 ATX Motherboard with DDR4, Triple M.2, PCIe 4.0, USB 3.2 Gen2 Type-C, 2.5GbE LAN, PCIe EZ-Latch, Multi-Key</t>
+  </si>
+  <si>
+    <t>B0DGVGT3PJ</t>
+  </si>
+  <si>
+    <t>GIGABYTE X870 Gaming X WIFI7 AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 3X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+  </si>
+  <si>
+    <t>B0D2PK3CC1</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790M AORUS Elite AX ICE LGA 1700 Intel Z790 M-ATX Motherboard with DDR5, Triple M.2, PCIe 5.0, USB 3.2 Gen2X2 Type-C, Intel Wi-Fi 6E, 2.5GbE LAN, Q-Flash Plus, EZ-Latch Plus</t>
+  </si>
+  <si>
+    <t>B0DGVSW4FD</t>
+  </si>
+  <si>
+    <t>GIGABYTE X870E AORUS Master AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+  </si>
+  <si>
+    <t>B0CTNPZLNH</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 Eagle AX LGA 1700 Intel Z790 ATX Motherboard with DDR5, M.2, PCIe 5.0, USB 3.2 Gen2X2 Type-C, Intel Wi-Fi 6E, 2.5GbE LAN, Q-Flash Plus, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0BHTMXMRQ</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 UD AC (LGA 1700/ Intel Z790/ ATX/ DDR5/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Wi-Fi/ 2.5GbE LAN/PCIe EZ-Latch/Multi-Key/Motherboard)</t>
+  </si>
+  <si>
+    <t>B083RW9TJF</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AORUS PRO X (LGA 1700/ Intel/ Z790 X/ATX/ DDR5/ 5* M.2/ PCIe 5.0/ USB 3.2 Type-C/Wi-Fi 7/ 5GbE LAN/Q-Flash Plus/EZ-Latch Plus/Motherboard)</t>
+  </si>
+  <si>
+    <t>B0DGVGV7YN</t>
+  </si>
+  <si>
+    <t>GIGABYTE X870E AORUS PRO AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+  </si>
+  <si>
+    <t>B0CTTVFWHM</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AORUS PRO X WIFI7 LGA 1700 Intel Z790 X ATX Motherboard with DDR5, 5* M.2, PCIe 5.0, USB 3.2 Type-C, Wi-Fi 7, 5GbE LAN, Q-Flash Plus, EZ-Latch Plus</t>
+  </si>
+  <si>
+    <t>B083RW9KDM</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AORUS Elite X WIFI7 (LGA 1700/ Intel/ Z790 X/ATX/ DDR5/ 4* M.2/ PCIe 5.0/ USB 3.2 Type-C/Wi-Fi 7/2.5GbE LAN/Q-Flash Plus/EZ-Latch Plus/Motherboard)</t>
+  </si>
+  <si>
+    <t>B0DJP95MGB</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 AORUS Elite WIFI7 Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, Thunderbolt 4, WIFI7, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B083RVX2FQ</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AORUS Master X (LGA 1700/ Intel Z790 X/EATX/ DDR5/ 5* M.2/ PCIe 5.0/ USB 3.2 Type-C/Wi-Fi 7/ 10GbE LAN/Q-Flash Plus/EZ-Latch Plus/Motherboard)</t>
+  </si>
+  <si>
+    <t>B0CKS6BMH7</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AORUS Elite AX ICE (LGA 1700/ Intel/ Z790 X/ATX/ DDR5/ 4* M.2/ PCIe 5.0/ USB 3.2 Type-C/Wi-Fi 6E/ 2.5GbE LAN/Q-Flash Plus/EZ-Latch Plus/Motherboard)</t>
+  </si>
+  <si>
+    <t>B0D8WH39QJ</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 Gaming Plus AX LGA 1700 Intel Z790 ATX Motherboard with DDR5, Triple M.2, PCIe 4.0, USB 3.2 Gen2 Type-C, Realtek Wi-Fi 6, Realtek LAN, Q-Flash Plus, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0BH9F7DKS</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AORUS Master EATX Motherboard with DDR5, PCIe 5.0, WiFi 6E, 10GbE LAN, Q-Flash Plus</t>
+  </si>
+  <si>
+    <t>B0DJP9FZYK</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890M Gaming X Ultra Core (Series 2) LGA 1851, mATX, DDR5, 3X M.2, PCIe 5.0, Front USB Type-C, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0DJP8MMMJ</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 Eagle WIFI7 Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0DJP7NRXX</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 AORUS Elite WIFI7 ICE Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 3X M.2, PCIe 5.0, Thunderbolt 4, WIFI7, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0DJP8W3BY</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 UD WIFI6E Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 3X M.2, PCIe 5.0, Front USB Type-C, WIFI6E, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0BSVYXM5C</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 Gaming X AX (LGA 1700/ Intel/ Z790/ ATX/ DDR5/ M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Wi-Fi 6E/ 2.5GbE LAN/Q-Flash Plus/EZ-Latch Plus/Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>B0DJP8Q6JK</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890M AORUS Elite WIFI7 ICE Ultra Core (Series 2) LGA 1851, ATX, DDR5, 3X M.2, PCIe 5.0, Thunderbolt 4, WIFI7, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0DJP9KLLD</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 AERO G Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 5xM.2, PCIe 5.0, Thunderbolt 4, WIFI7, Dual 2.5Gbe LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0DJP76L1F</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 AORUS Elite X ICE Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 5X M.2, PCIe 5.0, Thunderbolt 4, WIFI7, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0BZQ43XXL</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790I AORUS Ultra (LGA 1700/ Intel/ Z790/ Mini-ITX/ DDR5/ Dual M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Killer Wi-Fi 6E/ Intel 2.5GbE LAN/Q-Flash Plus/Motherboard)</t>
+  </si>
+  <si>
+    <t>B0DJP82ML2</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890I AORUS Ultra Ultra Core (Series 2) LGA 1851, Mini-ITX, DDR5, 2X M.2, PCIe 5.0, Thunderbolt 4, WIFI7, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0DJP8NFWP</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 AORUS PRO ICE Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 5X M.2, PCIe 5.0, Thunderbolt 4, WIFI7, 5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0DJP9LCYC</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 AORUS Master Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 5X M.2, PCIe 5.0, Thunderbolt 4, WIFI7, 10GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0BH9BBLHB</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 AERO G (LGA 1700/ Intel Z790/ ATX/ DDR5/ 5 * 5.0 M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/WiFi 6E/ Intel 2.5GbE LAN/Motherboard), 128 GB</t>
+  </si>
+  <si>
+    <t>B0DJP9DBVS</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z890 Gaming X WIFI7 Intel Core Ultra (Series 2) LGA 1851 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch</t>
+  </si>
+  <si>
+    <t>B0CTTWH6TD</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 D AC LGA 1700 Intel Z790 ATX Motherboard with DDR5, Triple M.2, PCIe 5.0, USB 3.2 Gen2X2 Type-C, 2.5GbE LAN, PCIe EZ-Latch, Multi-Key</t>
+  </si>
+  <si>
+    <t>B09JZFT4SN</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z690 AORUS ULTRA (LGA 1700/ Intel Z690/ ATX/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2/ Type-C/ WiFi 6/ 2.5GbE LAN/ Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>B09L9DY4L1</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z690 AERO G DDR4 (LGA 1700/ Intel Z690/ ATX/ DDR4/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ WiFi 6/ Intel 2.5 GbE LAN/ Motherboard)</t>
+  </si>
+  <si>
+    <t>B09J6BWK2Z</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z690 AORUS Elite AX DDR4 (LGA 1700/ Intel Z690/ ATX/ DDR4/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/WiFi 6/2.5GbE LAN/Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>B083R7T5P4</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 UD AX (LGA 1700/ Intel/ Z790/ ATX/DDR5/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Wi-Fi 6E/ 2.5GbE LAN/PCIe EZ-Latch/Multi-Key/Motherboard)</t>
+  </si>
+  <si>
+    <t>B083R7PHMX</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z790 D DDR4 (LGA 1700/ Intel/ Z790/ ATX/ DDR4/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C 2.5GbE LAN/PCIe EZ-Latch/Multi-Key/Motherboard)</t>
+  </si>
+  <si>
+    <t>B09J64TBJG</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z690 AORUS MASTER (LGA 1700/ Intel Z690/ ATX/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ Intel WiFi 6E/ AQUANTIA 10GbE LAN/ Intel Thunderbolt 4/ Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>B09JZGTYXJ</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z690 UD AX DDR4 (LGA 1700/ Intel Z690/ ATX/ DDR4/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2/ Type-C/WiFi 6/2.5GbE LAN/Motherboard)</t>
+  </si>
+  <si>
+    <t>B09J5TC4F8</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z690 Gaming X DDR4 (LGA 1700/ Intel Z690/ ATX/ DDR4/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/ 2.5GbE LAN/Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>B083NN4MLZ</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z690 AERO G (LGA 1700/ Intel Z690/ ATX/ DDR5/ Quad M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/WiFi 6/ Intel 2.5 GbE LAN/Motherboard)</t>
+  </si>
+  <si>
+    <t>B087GH5SK2</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z490 AORUS Master (Intel LGA1200/Z490/ATX/Intel 2.5G LAN/3xM.2 Thermal Guard/SATA 6Gb/s/USB 3.2 Gen 2/Intel Wi-Fi 6/ESS Sabre DAC/Fins Array II/Gaming Motherboard)</t>
+  </si>
+  <si>
+    <t>B083GT6ZBX</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z590 AORUS Tachyon (LGA 1200/ Intel/ Z590/ ATX/Triple M.2/ PCIe 4.0/ USB 3.2 Gen2X2 Type-C/Intel WiFi 6E/ 2.5GbE LAN/Onboard Overclocking Kit/Motherboard)</t>
+  </si>
+  <si>
+    <t>B07HS59X7P</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z390 UD (LGA 1151 (300 Series) Intel Z390 SATA 6Gb/s ATX Intel Motherboard for Cryptocurrency Mining with above 4G Decoding, 6 x PCIe Slots)</t>
+  </si>
+  <si>
+    <t>B08WPV5HS7</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z590 AORUS ELITE (LGA 1200/ Intel Z590/ ATX/ Triple M.2/ PCIe 4.0/ USB 3.2 Gen2X2 Type-C/ 2.5GbE LAN/ Gaming Motherboard)</t>
   </si>
 </sst>
 </file>
@@ -866,6 +1142,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1131,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY101"/>
+  <dimension ref="A1:AY147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:AY1"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:AY147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16835,6 +17115,7136 @@
         <v>0</v>
       </c>
     </row>
+    <row r="102" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>252</v>
+      </c>
+      <c r="B102" t="s">
+        <v>253</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="4">
+        <v>290.69</v>
+      </c>
+      <c r="E102" s="4">
+        <v>291.10000000000002</v>
+      </c>
+      <c r="F102" s="4">
+        <v>278.20999999999998</v>
+      </c>
+      <c r="G102" s="4">
+        <v>271.52999999999997</v>
+      </c>
+      <c r="H102" s="4">
+        <v>281.83</v>
+      </c>
+      <c r="I102" s="4">
+        <v>248.85</v>
+      </c>
+      <c r="J102" s="4">
+        <v>278.44</v>
+      </c>
+      <c r="K102" s="4">
+        <v>286.20999999999998</v>
+      </c>
+      <c r="L102" s="4">
+        <v>250.11</v>
+      </c>
+      <c r="M102" s="4">
+        <v>265.27999999999997</v>
+      </c>
+      <c r="N102" s="4">
+        <v>276.05</v>
+      </c>
+      <c r="O102" s="4">
+        <v>262.29000000000002</v>
+      </c>
+      <c r="P102" s="4">
+        <v>263.74</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>234.97</v>
+      </c>
+      <c r="R102" s="4">
+        <v>246.39</v>
+      </c>
+      <c r="S102" s="4">
+        <v>240.5</v>
+      </c>
+      <c r="T102" s="4">
+        <v>237.47</v>
+      </c>
+      <c r="U102" s="4">
+        <v>246.35</v>
+      </c>
+      <c r="V102" s="4">
+        <v>271.17</v>
+      </c>
+      <c r="W102" s="4">
+        <v>338.11</v>
+      </c>
+      <c r="X102" s="4">
+        <v>346.99</v>
+      </c>
+      <c r="Y102" s="4">
+        <v>246.22</v>
+      </c>
+      <c r="Z102" s="4">
+        <v>221.78</v>
+      </c>
+      <c r="AA102" s="4">
+        <v>243.7</v>
+      </c>
+      <c r="AB102" s="4">
+        <v>257.62</v>
+      </c>
+      <c r="AC102" s="4">
+        <v>218.2</v>
+      </c>
+      <c r="AD102" s="4">
+        <v>224.78</v>
+      </c>
+      <c r="AE102" s="4">
+        <v>219.02</v>
+      </c>
+      <c r="AF102" s="4">
+        <v>217.05</v>
+      </c>
+      <c r="AG102" s="4">
+        <v>224.32</v>
+      </c>
+      <c r="AH102" s="4">
+        <v>220.48</v>
+      </c>
+      <c r="AI102" s="4">
+        <v>218.89</v>
+      </c>
+      <c r="AJ102" s="4">
+        <v>206.28</v>
+      </c>
+      <c r="AK102" s="4">
+        <v>229.41</v>
+      </c>
+      <c r="AL102" s="4">
+        <v>219.13</v>
+      </c>
+      <c r="AM102" s="4">
+        <v>252.15</v>
+      </c>
+      <c r="AN102" s="4">
+        <v>253.04</v>
+      </c>
+      <c r="AO102" s="4">
+        <v>262.95</v>
+      </c>
+      <c r="AP102" s="4">
+        <v>310.36</v>
+      </c>
+      <c r="AQ102" s="4">
+        <v>454.14</v>
+      </c>
+      <c r="AR102" s="4">
+        <v>446.08</v>
+      </c>
+      <c r="AS102" s="4">
+        <v>412.11</v>
+      </c>
+      <c r="AT102" s="4">
+        <v>323.81</v>
+      </c>
+      <c r="AU102" s="4">
+        <v>278.24</v>
+      </c>
+      <c r="AV102" s="4">
+        <v>246.68</v>
+      </c>
+      <c r="AW102" s="4">
+        <v>247.77</v>
+      </c>
+      <c r="AX102" s="4">
+        <v>238</v>
+      </c>
+      <c r="AY102" s="4">
+        <v>219.54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>254</v>
+      </c>
+      <c r="B103" t="s">
+        <v>255</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="4">
+        <v>206.36</v>
+      </c>
+      <c r="E103" s="4">
+        <v>165.15</v>
+      </c>
+      <c r="F103" s="4">
+        <v>175.73</v>
+      </c>
+      <c r="G103" s="4">
+        <v>182.11</v>
+      </c>
+      <c r="H103" s="4">
+        <v>185.46</v>
+      </c>
+      <c r="I103" s="4">
+        <v>179.79</v>
+      </c>
+      <c r="J103" s="4">
+        <v>178.37</v>
+      </c>
+      <c r="K103" s="4">
+        <v>183.95</v>
+      </c>
+      <c r="L103" s="4">
+        <v>178.41</v>
+      </c>
+      <c r="M103" s="4">
+        <v>173.84</v>
+      </c>
+      <c r="N103" s="4">
+        <v>175.15</v>
+      </c>
+      <c r="O103" s="4">
+        <v>175.91</v>
+      </c>
+      <c r="P103" s="4">
+        <v>171.2</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>162.65</v>
+      </c>
+      <c r="R103" s="4">
+        <v>165.12</v>
+      </c>
+      <c r="S103" s="4">
+        <v>161.62</v>
+      </c>
+      <c r="T103" s="4">
+        <v>161.74</v>
+      </c>
+      <c r="U103" s="4">
+        <v>161.68</v>
+      </c>
+      <c r="V103" s="4">
+        <v>173.77</v>
+      </c>
+      <c r="W103" s="4">
+        <v>262.56</v>
+      </c>
+      <c r="X103" s="4">
+        <v>266.57</v>
+      </c>
+      <c r="Y103" s="4">
+        <v>166.67</v>
+      </c>
+      <c r="Z103" s="4">
+        <v>155.04</v>
+      </c>
+      <c r="AA103" s="4">
+        <v>159.41999999999999</v>
+      </c>
+      <c r="AB103" s="4">
+        <v>164.76</v>
+      </c>
+      <c r="AC103" s="4">
+        <v>152.91</v>
+      </c>
+      <c r="AD103" s="4">
+        <v>152.38999999999999</v>
+      </c>
+      <c r="AE103" s="4">
+        <v>154.28</v>
+      </c>
+      <c r="AF103" s="4">
+        <v>142.57</v>
+      </c>
+      <c r="AG103" s="4">
+        <v>154.63</v>
+      </c>
+      <c r="AH103" s="4">
+        <v>148.36000000000001</v>
+      </c>
+      <c r="AI103" s="4">
+        <v>151.30000000000001</v>
+      </c>
+      <c r="AJ103" s="4">
+        <v>144.29</v>
+      </c>
+      <c r="AK103" s="4">
+        <v>156.97999999999999</v>
+      </c>
+      <c r="AL103" s="4">
+        <v>153.72</v>
+      </c>
+      <c r="AM103" s="4">
+        <v>168.39</v>
+      </c>
+      <c r="AN103" s="4">
+        <v>174.86</v>
+      </c>
+      <c r="AO103" s="4">
+        <v>187.14</v>
+      </c>
+      <c r="AP103" s="4">
+        <v>217.36</v>
+      </c>
+      <c r="AQ103" s="4">
+        <v>280.94</v>
+      </c>
+      <c r="AR103" s="4">
+        <v>279.01</v>
+      </c>
+      <c r="AS103" s="4">
+        <v>248.46</v>
+      </c>
+      <c r="AT103" s="4">
+        <v>271.95</v>
+      </c>
+      <c r="AU103" s="4">
+        <v>218.41</v>
+      </c>
+      <c r="AV103" s="4">
+        <v>150.61000000000001</v>
+      </c>
+      <c r="AW103" s="4">
+        <v>163.16</v>
+      </c>
+      <c r="AX103" s="4">
+        <v>154.74</v>
+      </c>
+      <c r="AY103" s="4">
+        <v>145.54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>256</v>
+      </c>
+      <c r="B104" t="s">
+        <v>257</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="4">
+        <v>161.80000000000001</v>
+      </c>
+      <c r="E104" s="4">
+        <v>175.86</v>
+      </c>
+      <c r="F104" s="4">
+        <v>170.31</v>
+      </c>
+      <c r="G104" s="4">
+        <v>164.88</v>
+      </c>
+      <c r="H104" s="4">
+        <v>175.4</v>
+      </c>
+      <c r="I104" s="4">
+        <v>146.21</v>
+      </c>
+      <c r="J104" s="4">
+        <v>176</v>
+      </c>
+      <c r="K104" s="4">
+        <v>179.07</v>
+      </c>
+      <c r="L104" s="4">
+        <v>153.32</v>
+      </c>
+      <c r="M104" s="4">
+        <v>163.91</v>
+      </c>
+      <c r="N104" s="4">
+        <v>177.64</v>
+      </c>
+      <c r="O104" s="4">
+        <v>176.83</v>
+      </c>
+      <c r="P104" s="4">
+        <v>171.08</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>155.09</v>
+      </c>
+      <c r="R104" s="4">
+        <v>167.4</v>
+      </c>
+      <c r="S104" s="4">
+        <v>156.94</v>
+      </c>
+      <c r="T104" s="4">
+        <v>158.47999999999999</v>
+      </c>
+      <c r="U104" s="4">
+        <v>165.85</v>
+      </c>
+      <c r="V104" s="4">
+        <v>178.65</v>
+      </c>
+      <c r="W104" s="4">
+        <v>235.51</v>
+      </c>
+      <c r="X104" s="4">
+        <v>234.58</v>
+      </c>
+      <c r="Y104" s="4">
+        <v>165.72</v>
+      </c>
+      <c r="Z104" s="4">
+        <v>148.72999999999999</v>
+      </c>
+      <c r="AA104" s="4">
+        <v>166.61</v>
+      </c>
+      <c r="AB104" s="4">
+        <v>175.18</v>
+      </c>
+      <c r="AC104" s="4">
+        <v>148.75</v>
+      </c>
+      <c r="AD104" s="4">
+        <v>150.07</v>
+      </c>
+      <c r="AE104" s="4">
+        <v>151.36000000000001</v>
+      </c>
+      <c r="AF104" s="4">
+        <v>144.91</v>
+      </c>
+      <c r="AG104" s="4">
+        <v>154.11000000000001</v>
+      </c>
+      <c r="AH104" s="4">
+        <v>149.93</v>
+      </c>
+      <c r="AI104" s="4">
+        <v>146.4</v>
+      </c>
+      <c r="AJ104" s="4">
+        <v>137.76</v>
+      </c>
+      <c r="AK104" s="4">
+        <v>149.76</v>
+      </c>
+      <c r="AL104" s="4">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="AM104" s="4">
+        <v>179.74</v>
+      </c>
+      <c r="AN104" s="4">
+        <v>181.39</v>
+      </c>
+      <c r="AO104" s="4">
+        <v>184.03</v>
+      </c>
+      <c r="AP104" s="4">
+        <v>239.26</v>
+      </c>
+      <c r="AQ104" s="4">
+        <v>315.02</v>
+      </c>
+      <c r="AR104" s="4">
+        <v>328.88</v>
+      </c>
+      <c r="AS104" s="4">
+        <v>280.74</v>
+      </c>
+      <c r="AT104" s="4">
+        <v>230.52</v>
+      </c>
+      <c r="AU104" s="4">
+        <v>197.68</v>
+      </c>
+      <c r="AV104" s="4">
+        <v>152.9</v>
+      </c>
+      <c r="AW104" s="4">
+        <v>161.65</v>
+      </c>
+      <c r="AX104" s="4">
+        <v>149.22999999999999</v>
+      </c>
+      <c r="AY104" s="4">
+        <v>132.43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>258</v>
+      </c>
+      <c r="B105" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="4">
+        <v>127.66</v>
+      </c>
+      <c r="E105" s="4">
+        <v>123.98</v>
+      </c>
+      <c r="F105" s="4">
+        <v>119.33</v>
+      </c>
+      <c r="G105" s="4">
+        <v>116.29</v>
+      </c>
+      <c r="H105" s="4">
+        <v>120.93</v>
+      </c>
+      <c r="I105" s="4">
+        <v>114.1</v>
+      </c>
+      <c r="J105" s="4">
+        <v>119.56</v>
+      </c>
+      <c r="K105" s="4">
+        <v>120.36</v>
+      </c>
+      <c r="L105" s="4">
+        <v>113.5</v>
+      </c>
+      <c r="M105" s="4">
+        <v>110.78</v>
+      </c>
+      <c r="N105" s="4">
+        <v>117.58</v>
+      </c>
+      <c r="O105" s="4">
+        <v>112.35</v>
+      </c>
+      <c r="P105" s="4">
+        <v>112.35</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>106.74</v>
+      </c>
+      <c r="R105" s="4">
+        <v>107.45</v>
+      </c>
+      <c r="S105" s="4">
+        <v>106.23</v>
+      </c>
+      <c r="T105" s="4">
+        <v>103.64</v>
+      </c>
+      <c r="U105" s="4">
+        <v>105.59</v>
+      </c>
+      <c r="V105" s="4">
+        <v>115.03</v>
+      </c>
+      <c r="W105" s="4">
+        <v>156.16999999999999</v>
+      </c>
+      <c r="X105" s="4">
+        <v>154.47</v>
+      </c>
+      <c r="Y105" s="4">
+        <v>111.03</v>
+      </c>
+      <c r="Z105" s="4">
+        <v>100.11</v>
+      </c>
+      <c r="AA105" s="4">
+        <v>104.75</v>
+      </c>
+      <c r="AB105" s="4">
+        <v>112.61</v>
+      </c>
+      <c r="AC105" s="4">
+        <v>99.07</v>
+      </c>
+      <c r="AD105" s="4">
+        <v>99.71</v>
+      </c>
+      <c r="AE105" s="4">
+        <v>98.9</v>
+      </c>
+      <c r="AF105" s="4">
+        <v>96.42</v>
+      </c>
+      <c r="AG105" s="4">
+        <v>102.48</v>
+      </c>
+      <c r="AH105" s="4">
+        <v>95.57</v>
+      </c>
+      <c r="AI105" s="4">
+        <v>99.88</v>
+      </c>
+      <c r="AJ105" s="4">
+        <v>95.79</v>
+      </c>
+      <c r="AK105" s="4">
+        <v>103.37</v>
+      </c>
+      <c r="AL105" s="4">
+        <v>98.2</v>
+      </c>
+      <c r="AM105" s="4">
+        <v>112.41</v>
+      </c>
+      <c r="AN105" s="4">
+        <v>112.54</v>
+      </c>
+      <c r="AO105" s="4">
+        <v>115.09</v>
+      </c>
+      <c r="AP105" s="4">
+        <v>149.46</v>
+      </c>
+      <c r="AQ105" s="4">
+        <v>182.37</v>
+      </c>
+      <c r="AR105" s="4">
+        <v>192.39</v>
+      </c>
+      <c r="AS105" s="4">
+        <v>188.51</v>
+      </c>
+      <c r="AT105" s="4">
+        <v>168.67</v>
+      </c>
+      <c r="AU105" s="4">
+        <v>141.5</v>
+      </c>
+      <c r="AV105" s="4">
+        <v>120.98</v>
+      </c>
+      <c r="AW105" s="4">
+        <v>118.05</v>
+      </c>
+      <c r="AX105" s="4">
+        <v>111.74</v>
+      </c>
+      <c r="AY105" s="4">
+        <v>104.47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>260</v>
+      </c>
+      <c r="B106" t="s">
+        <v>261</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="4">
+        <v>112.07</v>
+      </c>
+      <c r="E106" s="4">
+        <v>88.2</v>
+      </c>
+      <c r="F106" s="4">
+        <v>86.88</v>
+      </c>
+      <c r="G106" s="4">
+        <v>85.74</v>
+      </c>
+      <c r="H106" s="4">
+        <v>88.77</v>
+      </c>
+      <c r="I106" s="4">
+        <v>80.680000000000007</v>
+      </c>
+      <c r="J106" s="4">
+        <v>89.98</v>
+      </c>
+      <c r="K106" s="4">
+        <v>92</v>
+      </c>
+      <c r="L106" s="4">
+        <v>80.34</v>
+      </c>
+      <c r="M106" s="4">
+        <v>85.08</v>
+      </c>
+      <c r="N106" s="4">
+        <v>87.72</v>
+      </c>
+      <c r="O106" s="4">
+        <v>89.73</v>
+      </c>
+      <c r="P106" s="4">
+        <v>88.01</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>82.13</v>
+      </c>
+      <c r="R106" s="4">
+        <v>86.12</v>
+      </c>
+      <c r="S106" s="4">
+        <v>81.069999999999993</v>
+      </c>
+      <c r="T106" s="4">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="U106" s="4">
+        <v>82.01</v>
+      </c>
+      <c r="V106" s="4">
+        <v>88.69</v>
+      </c>
+      <c r="W106" s="4">
+        <v>117.77</v>
+      </c>
+      <c r="X106" s="4">
+        <v>119.05</v>
+      </c>
+      <c r="Y106" s="4">
+        <v>81.53</v>
+      </c>
+      <c r="Z106" s="4">
+        <v>74.14</v>
+      </c>
+      <c r="AA106" s="4">
+        <v>81.28</v>
+      </c>
+      <c r="AB106" s="4">
+        <v>85.33</v>
+      </c>
+      <c r="AC106" s="4">
+        <v>74.239999999999995</v>
+      </c>
+      <c r="AD106" s="4">
+        <v>74.510000000000005</v>
+      </c>
+      <c r="AE106" s="4">
+        <v>72.08</v>
+      </c>
+      <c r="AF106" s="4">
+        <v>73.16</v>
+      </c>
+      <c r="AG106" s="4">
+        <v>76.17</v>
+      </c>
+      <c r="AH106" s="4">
+        <v>74.56</v>
+      </c>
+      <c r="AI106" s="4">
+        <v>74.5</v>
+      </c>
+      <c r="AJ106" s="4">
+        <v>67.87</v>
+      </c>
+      <c r="AK106" s="4">
+        <v>74.290000000000006</v>
+      </c>
+      <c r="AL106" s="4">
+        <v>70.64</v>
+      </c>
+      <c r="AM106" s="4">
+        <v>86.42</v>
+      </c>
+      <c r="AN106" s="4">
+        <v>84.97</v>
+      </c>
+      <c r="AO106" s="4">
+        <v>86.06</v>
+      </c>
+      <c r="AP106" s="4">
+        <v>110.43</v>
+      </c>
+      <c r="AQ106" s="4">
+        <v>146.52000000000001</v>
+      </c>
+      <c r="AR106" s="4">
+        <v>153.18</v>
+      </c>
+      <c r="AS106" s="4">
+        <v>134.94</v>
+      </c>
+      <c r="AT106" s="4">
+        <v>105.14</v>
+      </c>
+      <c r="AU106" s="4">
+        <v>95.66</v>
+      </c>
+      <c r="AV106" s="4">
+        <v>79.09</v>
+      </c>
+      <c r="AW106" s="4">
+        <v>83.81</v>
+      </c>
+      <c r="AX106" s="4">
+        <v>80.63</v>
+      </c>
+      <c r="AY106" s="4">
+        <v>67.930000000000007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>262</v>
+      </c>
+      <c r="B107" t="s">
+        <v>263</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="4">
+        <v>63.8</v>
+      </c>
+      <c r="E107" s="4">
+        <v>48.7</v>
+      </c>
+      <c r="F107" s="4">
+        <v>48.98</v>
+      </c>
+      <c r="G107" s="4">
+        <v>49.13</v>
+      </c>
+      <c r="H107" s="4">
+        <v>49.43</v>
+      </c>
+      <c r="I107" s="4">
+        <v>47.74</v>
+      </c>
+      <c r="J107" s="4">
+        <v>48.97</v>
+      </c>
+      <c r="K107" s="4">
+        <v>50.19</v>
+      </c>
+      <c r="L107" s="4">
+        <v>47.59</v>
+      </c>
+      <c r="M107" s="4">
+        <v>47.18</v>
+      </c>
+      <c r="N107" s="4">
+        <v>47.32</v>
+      </c>
+      <c r="O107" s="4">
+        <v>48.13</v>
+      </c>
+      <c r="P107" s="4">
+        <v>47.04</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>45.71</v>
+      </c>
+      <c r="R107" s="4">
+        <v>46.43</v>
+      </c>
+      <c r="S107" s="4">
+        <v>45.45</v>
+      </c>
+      <c r="T107" s="4">
+        <v>43.82</v>
+      </c>
+      <c r="U107" s="4">
+        <v>45.46</v>
+      </c>
+      <c r="V107" s="4">
+        <v>47.35</v>
+      </c>
+      <c r="W107" s="4">
+        <v>63.41</v>
+      </c>
+      <c r="X107" s="4">
+        <v>63.93</v>
+      </c>
+      <c r="Y107" s="4">
+        <v>44.86</v>
+      </c>
+      <c r="Z107" s="4">
+        <v>42.48</v>
+      </c>
+      <c r="AA107" s="4">
+        <v>44.47</v>
+      </c>
+      <c r="AB107" s="4">
+        <v>46.16</v>
+      </c>
+      <c r="AC107" s="4">
+        <v>42.22</v>
+      </c>
+      <c r="AD107" s="4">
+        <v>41.21</v>
+      </c>
+      <c r="AE107" s="4">
+        <v>41.96</v>
+      </c>
+      <c r="AF107" s="4">
+        <v>40.869999999999997</v>
+      </c>
+      <c r="AG107" s="4">
+        <v>43.47</v>
+      </c>
+      <c r="AH107" s="4">
+        <v>42.61</v>
+      </c>
+      <c r="AI107" s="4">
+        <v>42.34</v>
+      </c>
+      <c r="AJ107" s="4">
+        <v>40.21</v>
+      </c>
+      <c r="AK107" s="4">
+        <v>43.16</v>
+      </c>
+      <c r="AL107" s="4">
+        <v>41.57</v>
+      </c>
+      <c r="AM107" s="4">
+        <v>47.02</v>
+      </c>
+      <c r="AN107" s="4">
+        <v>46.07</v>
+      </c>
+      <c r="AO107" s="4">
+        <v>46.31</v>
+      </c>
+      <c r="AP107" s="4">
+        <v>59.35</v>
+      </c>
+      <c r="AQ107" s="4">
+        <v>67.760000000000005</v>
+      </c>
+      <c r="AR107" s="4">
+        <v>76.02</v>
+      </c>
+      <c r="AS107" s="4">
+        <v>66.95</v>
+      </c>
+      <c r="AT107" s="4">
+        <v>61.19</v>
+      </c>
+      <c r="AU107" s="4">
+        <v>58.02</v>
+      </c>
+      <c r="AV107" s="4">
+        <v>44.98</v>
+      </c>
+      <c r="AW107" s="4">
+        <v>46.27</v>
+      </c>
+      <c r="AX107" s="4">
+        <v>43.76</v>
+      </c>
+      <c r="AY107" s="4">
+        <v>41.64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>264</v>
+      </c>
+      <c r="B108" t="s">
+        <v>265</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="4">
+        <v>58.28</v>
+      </c>
+      <c r="E108" s="4">
+        <v>63.68</v>
+      </c>
+      <c r="F108" s="4">
+        <v>52.41</v>
+      </c>
+      <c r="G108" s="4">
+        <v>56.26</v>
+      </c>
+      <c r="H108" s="4">
+        <v>58.6</v>
+      </c>
+      <c r="I108" s="4">
+        <v>54.23</v>
+      </c>
+      <c r="J108" s="4">
+        <v>61.79</v>
+      </c>
+      <c r="K108" s="4">
+        <v>62.98</v>
+      </c>
+      <c r="L108" s="4">
+        <v>53.94</v>
+      </c>
+      <c r="M108" s="4">
+        <v>58.72</v>
+      </c>
+      <c r="N108" s="4">
+        <v>61.3</v>
+      </c>
+      <c r="O108" s="4">
+        <v>59.5</v>
+      </c>
+      <c r="P108" s="4">
+        <v>59.4</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>56.32</v>
+      </c>
+      <c r="R108" s="4">
+        <v>57.16</v>
+      </c>
+      <c r="S108" s="4">
+        <v>54.72</v>
+      </c>
+      <c r="T108" s="4">
+        <v>54.43</v>
+      </c>
+      <c r="U108" s="4">
+        <v>62.19</v>
+      </c>
+      <c r="V108" s="4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="W108" s="4">
+        <v>85.82</v>
+      </c>
+      <c r="X108" s="4">
+        <v>84.57</v>
+      </c>
+      <c r="Y108" s="4">
+        <v>57.13</v>
+      </c>
+      <c r="Z108" s="4">
+        <v>50.6</v>
+      </c>
+      <c r="AA108" s="4">
+        <v>58.61</v>
+      </c>
+      <c r="AB108" s="4">
+        <v>62.25</v>
+      </c>
+      <c r="AC108" s="4">
+        <v>51.97</v>
+      </c>
+      <c r="AD108" s="4">
+        <v>51.94</v>
+      </c>
+      <c r="AE108" s="4">
+        <v>52.89</v>
+      </c>
+      <c r="AF108" s="4">
+        <v>51.7</v>
+      </c>
+      <c r="AG108" s="4">
+        <v>52.93</v>
+      </c>
+      <c r="AH108" s="4">
+        <v>51.69</v>
+      </c>
+      <c r="AI108" s="4">
+        <v>49.74</v>
+      </c>
+      <c r="AJ108" s="4">
+        <v>47.62</v>
+      </c>
+      <c r="AK108" s="4">
+        <v>49.81</v>
+      </c>
+      <c r="AL108" s="4">
+        <v>48.11</v>
+      </c>
+      <c r="AM108" s="4">
+        <v>61.71</v>
+      </c>
+      <c r="AN108" s="4">
+        <v>53.97</v>
+      </c>
+      <c r="AO108" s="4">
+        <v>56.24</v>
+      </c>
+      <c r="AP108" s="4">
+        <v>79.040000000000006</v>
+      </c>
+      <c r="AQ108" s="4">
+        <v>89.95</v>
+      </c>
+      <c r="AR108" s="4">
+        <v>106.78</v>
+      </c>
+      <c r="AS108" s="4">
+        <v>86.18</v>
+      </c>
+      <c r="AT108" s="4">
+        <v>78.94</v>
+      </c>
+      <c r="AU108" s="4">
+        <v>63.73</v>
+      </c>
+      <c r="AV108" s="4">
+        <v>53.83</v>
+      </c>
+      <c r="AW108" s="4">
+        <v>61.89</v>
+      </c>
+      <c r="AX108" s="4">
+        <v>55.82</v>
+      </c>
+      <c r="AY108" s="4">
+        <v>52.28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>266</v>
+      </c>
+      <c r="B109" t="s">
+        <v>267</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="4">
+        <v>52.85</v>
+      </c>
+      <c r="E109" s="4">
+        <v>51.49</v>
+      </c>
+      <c r="F109" s="4">
+        <v>52.22</v>
+      </c>
+      <c r="G109" s="4">
+        <v>55.52</v>
+      </c>
+      <c r="H109" s="4">
+        <v>55.64</v>
+      </c>
+      <c r="I109" s="4">
+        <v>53.35</v>
+      </c>
+      <c r="J109" s="4">
+        <v>56.74</v>
+      </c>
+      <c r="K109" s="4">
+        <v>57.74</v>
+      </c>
+      <c r="L109" s="4">
+        <v>54.3</v>
+      </c>
+      <c r="M109" s="4">
+        <v>55.46</v>
+      </c>
+      <c r="N109" s="4">
+        <v>55.09</v>
+      </c>
+      <c r="O109" s="4">
+        <v>56.25</v>
+      </c>
+      <c r="P109" s="4">
+        <v>54.56</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>52.41</v>
+      </c>
+      <c r="R109" s="4">
+        <v>53.54</v>
+      </c>
+      <c r="S109" s="4">
+        <v>51.22</v>
+      </c>
+      <c r="T109" s="4">
+        <v>50.29</v>
+      </c>
+      <c r="U109" s="4">
+        <v>52</v>
+      </c>
+      <c r="V109" s="4">
+        <v>54.74</v>
+      </c>
+      <c r="W109" s="4">
+        <v>64.010000000000005</v>
+      </c>
+      <c r="X109" s="4">
+        <v>64.33</v>
+      </c>
+      <c r="Y109" s="4">
+        <v>53.15</v>
+      </c>
+      <c r="Z109" s="4">
+        <v>49.74</v>
+      </c>
+      <c r="AA109" s="4">
+        <v>50.7</v>
+      </c>
+      <c r="AB109" s="4">
+        <v>51.71</v>
+      </c>
+      <c r="AC109" s="4">
+        <v>46.96</v>
+      </c>
+      <c r="AD109" s="4">
+        <v>47.3</v>
+      </c>
+      <c r="AE109" s="4">
+        <v>49.38</v>
+      </c>
+      <c r="AF109" s="4">
+        <v>45.75</v>
+      </c>
+      <c r="AG109" s="4">
+        <v>48.4</v>
+      </c>
+      <c r="AH109" s="4">
+        <v>45.06</v>
+      </c>
+      <c r="AI109" s="4">
+        <v>46.56</v>
+      </c>
+      <c r="AJ109" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="AK109" s="4">
+        <v>46.42</v>
+      </c>
+      <c r="AL109" s="4">
+        <v>43.95</v>
+      </c>
+      <c r="AM109" s="4">
+        <v>46.88</v>
+      </c>
+      <c r="AN109" s="4">
+        <v>47.17</v>
+      </c>
+      <c r="AO109" s="4">
+        <v>45.93</v>
+      </c>
+      <c r="AP109" s="4">
+        <v>55.29</v>
+      </c>
+      <c r="AQ109" s="4">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="AR109" s="4">
+        <v>80.66</v>
+      </c>
+      <c r="AS109" s="4">
+        <v>71.52</v>
+      </c>
+      <c r="AT109" s="4">
+        <v>60.87</v>
+      </c>
+      <c r="AU109" s="4">
+        <v>59.75</v>
+      </c>
+      <c r="AV109" s="4">
+        <v>41.91</v>
+      </c>
+      <c r="AW109" s="4">
+        <v>42.47</v>
+      </c>
+      <c r="AX109" s="4">
+        <v>39.58</v>
+      </c>
+      <c r="AY109" s="4">
+        <v>36.54</v>
+      </c>
+    </row>
+    <row r="110" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>268</v>
+      </c>
+      <c r="B110" t="s">
+        <v>269</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="4">
+        <v>42.36</v>
+      </c>
+      <c r="E110" s="4">
+        <v>38.21</v>
+      </c>
+      <c r="F110" s="4">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="G110" s="4">
+        <v>40.74</v>
+      </c>
+      <c r="H110" s="4">
+        <v>40.98</v>
+      </c>
+      <c r="I110" s="4">
+        <v>39.42</v>
+      </c>
+      <c r="J110" s="4">
+        <v>41.36</v>
+      </c>
+      <c r="K110" s="4">
+        <v>41.97</v>
+      </c>
+      <c r="L110" s="4">
+        <v>39.46</v>
+      </c>
+      <c r="M110" s="4">
+        <v>40.33</v>
+      </c>
+      <c r="N110" s="4">
+        <v>39.64</v>
+      </c>
+      <c r="O110" s="4">
+        <v>40.090000000000003</v>
+      </c>
+      <c r="P110" s="4">
+        <v>39.479999999999997</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>38.71</v>
+      </c>
+      <c r="R110" s="4">
+        <v>38.64</v>
+      </c>
+      <c r="S110" s="4">
+        <v>37.61</v>
+      </c>
+      <c r="T110" s="4">
+        <v>36.78</v>
+      </c>
+      <c r="U110" s="4">
+        <v>37.81</v>
+      </c>
+      <c r="V110" s="4">
+        <v>38.369999999999997</v>
+      </c>
+      <c r="W110" s="4">
+        <v>46.87</v>
+      </c>
+      <c r="X110" s="4">
+        <v>47.94</v>
+      </c>
+      <c r="Y110" s="4">
+        <v>36.85</v>
+      </c>
+      <c r="Z110" s="4">
+        <v>34.39</v>
+      </c>
+      <c r="AA110" s="4">
+        <v>36.03</v>
+      </c>
+      <c r="AB110" s="4">
+        <v>36.26</v>
+      </c>
+      <c r="AC110" s="4">
+        <v>33.36</v>
+      </c>
+      <c r="AD110" s="4">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="AE110" s="4">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="AF110" s="4">
+        <v>31.13</v>
+      </c>
+      <c r="AG110" s="4">
+        <v>33.35</v>
+      </c>
+      <c r="AH110" s="4">
+        <v>31.46</v>
+      </c>
+      <c r="AI110" s="4">
+        <v>32.58</v>
+      </c>
+      <c r="AJ110" s="4">
+        <v>30.13</v>
+      </c>
+      <c r="AK110" s="4">
+        <v>32.83</v>
+      </c>
+      <c r="AL110" s="4">
+        <v>32.28</v>
+      </c>
+      <c r="AM110" s="4">
+        <v>35.78</v>
+      </c>
+      <c r="AN110" s="4">
+        <v>35.58</v>
+      </c>
+      <c r="AO110" s="4">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="AP110" s="4">
+        <v>39.29</v>
+      </c>
+      <c r="AQ110" s="4">
+        <v>46.34</v>
+      </c>
+      <c r="AR110" s="4">
+        <v>46.71</v>
+      </c>
+      <c r="AS110" s="4">
+        <v>45.89</v>
+      </c>
+      <c r="AT110" s="4">
+        <v>45.12</v>
+      </c>
+      <c r="AU110" s="4">
+        <v>41.86</v>
+      </c>
+      <c r="AV110" s="4">
+        <v>32.51</v>
+      </c>
+      <c r="AW110" s="4">
+        <v>33.630000000000003</v>
+      </c>
+      <c r="AX110" s="4">
+        <v>30.56</v>
+      </c>
+      <c r="AY110" s="4">
+        <v>28.88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>270</v>
+      </c>
+      <c r="B111" t="s">
+        <v>271</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="4">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="E111" s="4">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="F111" s="4">
+        <v>34.64</v>
+      </c>
+      <c r="G111" s="4">
+        <v>36.85</v>
+      </c>
+      <c r="H111" s="4">
+        <v>37.130000000000003</v>
+      </c>
+      <c r="I111" s="4">
+        <v>36.130000000000003</v>
+      </c>
+      <c r="J111" s="4">
+        <v>38.909999999999997</v>
+      </c>
+      <c r="K111" s="4">
+        <v>39.57</v>
+      </c>
+      <c r="L111" s="4">
+        <v>35.229999999999997</v>
+      </c>
+      <c r="M111" s="4">
+        <v>39.11</v>
+      </c>
+      <c r="N111" s="4">
+        <v>37.74</v>
+      </c>
+      <c r="O111" s="4">
+        <v>37.99</v>
+      </c>
+      <c r="P111" s="4">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="Q111" s="4">
+        <v>37.24</v>
+      </c>
+      <c r="R111" s="4">
+        <v>36.869999999999997</v>
+      </c>
+      <c r="S111" s="4">
+        <v>35.43</v>
+      </c>
+      <c r="T111" s="4">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="U111" s="4">
+        <v>36.6</v>
+      </c>
+      <c r="V111" s="4">
+        <v>38.86</v>
+      </c>
+      <c r="W111" s="4">
+        <v>44</v>
+      </c>
+      <c r="X111" s="4">
+        <v>44.93</v>
+      </c>
+      <c r="Y111" s="4">
+        <v>36.11</v>
+      </c>
+      <c r="Z111" s="4">
+        <v>31.87</v>
+      </c>
+      <c r="AA111" s="4">
+        <v>33.35</v>
+      </c>
+      <c r="AB111" s="4">
+        <v>33.909999999999997</v>
+      </c>
+      <c r="AC111" s="4">
+        <v>31.49</v>
+      </c>
+      <c r="AD111" s="4">
+        <v>30.57</v>
+      </c>
+      <c r="AE111" s="4">
+        <v>31.17</v>
+      </c>
+      <c r="AF111" s="4">
+        <v>30.04</v>
+      </c>
+      <c r="AG111" s="4">
+        <v>31.62</v>
+      </c>
+      <c r="AH111" s="4">
+        <v>31.09</v>
+      </c>
+      <c r="AI111" s="4">
+        <v>30.65</v>
+      </c>
+      <c r="AJ111" s="4">
+        <v>28.77</v>
+      </c>
+      <c r="AK111" s="4">
+        <v>30.93</v>
+      </c>
+      <c r="AL111" s="4">
+        <v>29.45</v>
+      </c>
+      <c r="AM111" s="4">
+        <v>32.35</v>
+      </c>
+      <c r="AN111" s="4">
+        <v>28.77</v>
+      </c>
+      <c r="AO111" s="4">
+        <v>30.76</v>
+      </c>
+      <c r="AP111" s="4">
+        <v>34.19</v>
+      </c>
+      <c r="AQ111" s="4">
+        <v>35.78</v>
+      </c>
+      <c r="AR111" s="4">
+        <v>36.82</v>
+      </c>
+      <c r="AS111" s="4">
+        <v>32.409999999999997</v>
+      </c>
+      <c r="AT111" s="4">
+        <v>30.37</v>
+      </c>
+      <c r="AU111" s="4">
+        <v>32.43</v>
+      </c>
+      <c r="AV111" s="4">
+        <v>29.78</v>
+      </c>
+      <c r="AW111" s="4">
+        <v>31.13</v>
+      </c>
+      <c r="AX111" s="4">
+        <v>28.45</v>
+      </c>
+      <c r="AY111" s="4">
+        <v>28.94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>272</v>
+      </c>
+      <c r="B112" t="s">
+        <v>273</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="4">
+        <v>39</v>
+      </c>
+      <c r="E112" s="4">
+        <v>44.4</v>
+      </c>
+      <c r="F112" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="G112" s="4">
+        <v>48.88</v>
+      </c>
+      <c r="H112" s="4">
+        <v>50.21</v>
+      </c>
+      <c r="I112" s="4">
+        <v>45.03</v>
+      </c>
+      <c r="J112" s="4">
+        <v>54.67</v>
+      </c>
+      <c r="K112" s="4">
+        <v>53.66</v>
+      </c>
+      <c r="L112" s="4">
+        <v>47.82</v>
+      </c>
+      <c r="M112" s="4">
+        <v>49.26</v>
+      </c>
+      <c r="N112" s="4">
+        <v>51.81</v>
+      </c>
+      <c r="O112" s="4">
+        <v>52.9</v>
+      </c>
+      <c r="P112" s="4">
+        <v>51.34</v>
+      </c>
+      <c r="Q112" s="4">
+        <v>48.54</v>
+      </c>
+      <c r="R112" s="4">
+        <v>50.99</v>
+      </c>
+      <c r="S112" s="4">
+        <v>48.41</v>
+      </c>
+      <c r="T112" s="4">
+        <v>47.65</v>
+      </c>
+      <c r="U112" s="4">
+        <v>53.16</v>
+      </c>
+      <c r="V112" s="4">
+        <v>54.72</v>
+      </c>
+      <c r="W112" s="4">
+        <v>64.5</v>
+      </c>
+      <c r="X112" s="4">
+        <v>65.14</v>
+      </c>
+      <c r="Y112" s="4">
+        <v>50.36</v>
+      </c>
+      <c r="Z112" s="4">
+        <v>46.24</v>
+      </c>
+      <c r="AA112" s="4">
+        <v>51.03</v>
+      </c>
+      <c r="AB112" s="4">
+        <v>52.14</v>
+      </c>
+      <c r="AC112" s="4">
+        <v>47.85</v>
+      </c>
+      <c r="AD112" s="4">
+        <v>45.83</v>
+      </c>
+      <c r="AE112" s="4">
+        <v>46.17</v>
+      </c>
+      <c r="AF112" s="4">
+        <v>43.57</v>
+      </c>
+      <c r="AG112" s="4">
+        <v>47.55</v>
+      </c>
+      <c r="AH112" s="4">
+        <v>46.53</v>
+      </c>
+      <c r="AI112" s="4">
+        <v>46.86</v>
+      </c>
+      <c r="AJ112" s="4">
+        <v>44.55</v>
+      </c>
+      <c r="AK112" s="4">
+        <v>46.41</v>
+      </c>
+      <c r="AL112" s="4">
+        <v>47.44</v>
+      </c>
+      <c r="AM112" s="4">
+        <v>54.44</v>
+      </c>
+      <c r="AN112" s="4">
+        <v>52.63</v>
+      </c>
+      <c r="AO112" s="4">
+        <v>53.84</v>
+      </c>
+      <c r="AP112" s="4">
+        <v>69.8</v>
+      </c>
+      <c r="AQ112" s="4">
+        <v>76.760000000000005</v>
+      </c>
+      <c r="AR112" s="4">
+        <v>89.57</v>
+      </c>
+      <c r="AS112" s="4">
+        <v>76.790000000000006</v>
+      </c>
+      <c r="AT112" s="4">
+        <v>64.52</v>
+      </c>
+      <c r="AU112" s="4">
+        <v>57.69</v>
+      </c>
+      <c r="AV112" s="4">
+        <v>51.1</v>
+      </c>
+      <c r="AW112" s="4">
+        <v>52.25</v>
+      </c>
+      <c r="AX112" s="4">
+        <v>47.21</v>
+      </c>
+      <c r="AY112" s="4">
+        <v>41.58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>274</v>
+      </c>
+      <c r="B113" t="s">
+        <v>275</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="4">
+        <v>32.72</v>
+      </c>
+      <c r="E113" s="4">
+        <v>27.23</v>
+      </c>
+      <c r="F113" s="4">
+        <v>26.03</v>
+      </c>
+      <c r="G113" s="4">
+        <v>28.46</v>
+      </c>
+      <c r="H113" s="4">
+        <v>28.89</v>
+      </c>
+      <c r="I113" s="4">
+        <v>27.85</v>
+      </c>
+      <c r="J113" s="4">
+        <v>30.87</v>
+      </c>
+      <c r="K113" s="4">
+        <v>31.69</v>
+      </c>
+      <c r="L113" s="4">
+        <v>27.83</v>
+      </c>
+      <c r="M113" s="4">
+        <v>30.11</v>
+      </c>
+      <c r="N113" s="4">
+        <v>29.29</v>
+      </c>
+      <c r="O113" s="4">
+        <v>29.91</v>
+      </c>
+      <c r="P113" s="4">
+        <v>29.99</v>
+      </c>
+      <c r="Q113" s="4">
+        <v>28.59</v>
+      </c>
+      <c r="R113" s="4">
+        <v>28.42</v>
+      </c>
+      <c r="S113" s="4">
+        <v>27.21</v>
+      </c>
+      <c r="T113" s="4">
+        <v>26.52</v>
+      </c>
+      <c r="U113" s="4">
+        <v>29.27</v>
+      </c>
+      <c r="V113" s="4">
+        <v>31.06</v>
+      </c>
+      <c r="W113" s="4">
+        <v>32.92</v>
+      </c>
+      <c r="X113" s="4">
+        <v>34.07</v>
+      </c>
+      <c r="Y113" s="4">
+        <v>28.19</v>
+      </c>
+      <c r="Z113" s="4">
+        <v>24.85</v>
+      </c>
+      <c r="AA113" s="4">
+        <v>26.86</v>
+      </c>
+      <c r="AB113" s="4">
+        <v>27.9</v>
+      </c>
+      <c r="AC113" s="4">
+        <v>25.11</v>
+      </c>
+      <c r="AD113" s="4">
+        <v>23.55</v>
+      </c>
+      <c r="AE113" s="4">
+        <v>24.78</v>
+      </c>
+      <c r="AF113" s="4">
+        <v>23.04</v>
+      </c>
+      <c r="AG113" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="AH113" s="4">
+        <v>23.21</v>
+      </c>
+      <c r="AI113" s="4">
+        <v>22.71</v>
+      </c>
+      <c r="AJ113" s="4">
+        <v>21.83</v>
+      </c>
+      <c r="AK113" s="4">
+        <v>23.85</v>
+      </c>
+      <c r="AL113" s="4">
+        <v>22.28</v>
+      </c>
+      <c r="AM113" s="4">
+        <v>25.45</v>
+      </c>
+      <c r="AN113" s="4">
+        <v>22.28</v>
+      </c>
+      <c r="AO113" s="4">
+        <v>24.17</v>
+      </c>
+      <c r="AP113" s="4">
+        <v>29.52</v>
+      </c>
+      <c r="AQ113" s="4">
+        <v>31.2</v>
+      </c>
+      <c r="AR113" s="4">
+        <v>34.21</v>
+      </c>
+      <c r="AS113" s="4">
+        <v>31.41</v>
+      </c>
+      <c r="AT113" s="4">
+        <v>30.88</v>
+      </c>
+      <c r="AU113" s="4">
+        <v>29.53</v>
+      </c>
+      <c r="AV113" s="4">
+        <v>22.35</v>
+      </c>
+      <c r="AW113" s="4">
+        <v>23.83</v>
+      </c>
+      <c r="AX113" s="4">
+        <v>22.38</v>
+      </c>
+      <c r="AY113" s="4">
+        <v>21.56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>276</v>
+      </c>
+      <c r="B114" t="s">
+        <v>277</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="4">
+        <v>30.99</v>
+      </c>
+      <c r="E114" s="4">
+        <v>26.94</v>
+      </c>
+      <c r="F114" s="4">
+        <v>26.78</v>
+      </c>
+      <c r="G114" s="4">
+        <v>28.47</v>
+      </c>
+      <c r="H114" s="4">
+        <v>28.46</v>
+      </c>
+      <c r="I114" s="4">
+        <v>27.19</v>
+      </c>
+      <c r="J114" s="4">
+        <v>29.36</v>
+      </c>
+      <c r="K114" s="4">
+        <v>30.1</v>
+      </c>
+      <c r="L114" s="4">
+        <v>26.03</v>
+      </c>
+      <c r="M114" s="4">
+        <v>29.09</v>
+      </c>
+      <c r="N114" s="4">
+        <v>27.52</v>
+      </c>
+      <c r="O114" s="4">
+        <v>28.37</v>
+      </c>
+      <c r="P114" s="4">
+        <v>27.93</v>
+      </c>
+      <c r="Q114" s="4">
+        <v>26.5</v>
+      </c>
+      <c r="R114" s="4">
+        <v>26.23</v>
+      </c>
+      <c r="S114" s="4">
+        <v>24.93</v>
+      </c>
+      <c r="T114" s="4">
+        <v>24</v>
+      </c>
+      <c r="U114" s="4">
+        <v>25.81</v>
+      </c>
+      <c r="V114" s="4">
+        <v>27.61</v>
+      </c>
+      <c r="W114" s="4">
+        <v>32.4</v>
+      </c>
+      <c r="X114" s="4">
+        <v>33.18</v>
+      </c>
+      <c r="Y114" s="4">
+        <v>25.98</v>
+      </c>
+      <c r="Z114" s="4">
+        <v>23.28</v>
+      </c>
+      <c r="AA114" s="4">
+        <v>24.49</v>
+      </c>
+      <c r="AB114" s="4">
+        <v>25.56</v>
+      </c>
+      <c r="AC114" s="4">
+        <v>23.44</v>
+      </c>
+      <c r="AD114" s="4">
+        <v>22.66</v>
+      </c>
+      <c r="AE114" s="4">
+        <v>23.68</v>
+      </c>
+      <c r="AF114" s="4">
+        <v>21.65</v>
+      </c>
+      <c r="AG114" s="4">
+        <v>23.72</v>
+      </c>
+      <c r="AH114" s="4">
+        <v>22.95</v>
+      </c>
+      <c r="AI114" s="4">
+        <v>23.13</v>
+      </c>
+      <c r="AJ114" s="4">
+        <v>21.84</v>
+      </c>
+      <c r="AK114" s="4">
+        <v>23.41</v>
+      </c>
+      <c r="AL114" s="4">
+        <v>22.69</v>
+      </c>
+      <c r="AM114" s="4">
+        <v>25.24</v>
+      </c>
+      <c r="AN114" s="4">
+        <v>23.26</v>
+      </c>
+      <c r="AO114" s="4">
+        <v>25.02</v>
+      </c>
+      <c r="AP114" s="4">
+        <v>28.34</v>
+      </c>
+      <c r="AQ114" s="4">
+        <v>30.4</v>
+      </c>
+      <c r="AR114" s="4">
+        <v>32.54</v>
+      </c>
+      <c r="AS114" s="4">
+        <v>29.39</v>
+      </c>
+      <c r="AT114" s="4">
+        <v>25.97</v>
+      </c>
+      <c r="AU114" s="4">
+        <v>27.4</v>
+      </c>
+      <c r="AV114" s="4">
+        <v>22.32</v>
+      </c>
+      <c r="AW114" s="4">
+        <v>23.24</v>
+      </c>
+      <c r="AX114" s="4">
+        <v>21.25</v>
+      </c>
+      <c r="AY114" s="4">
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="115" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>278</v>
+      </c>
+      <c r="B115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="4">
+        <v>29.24</v>
+      </c>
+      <c r="E115" s="4">
+        <v>26.3</v>
+      </c>
+      <c r="F115" s="4">
+        <v>25.92</v>
+      </c>
+      <c r="G115" s="4">
+        <v>28.41</v>
+      </c>
+      <c r="H115" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="I115" s="4">
+        <v>26.71</v>
+      </c>
+      <c r="J115" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="K115" s="4">
+        <v>29.57</v>
+      </c>
+      <c r="L115" s="4">
+        <v>26.21</v>
+      </c>
+      <c r="M115" s="4">
+        <v>27.67</v>
+      </c>
+      <c r="N115" s="4">
+        <v>27.84</v>
+      </c>
+      <c r="O115" s="4">
+        <v>28.68</v>
+      </c>
+      <c r="P115" s="4">
+        <v>28.16</v>
+      </c>
+      <c r="Q115" s="4">
+        <v>26.28</v>
+      </c>
+      <c r="R115" s="4">
+        <v>27.46</v>
+      </c>
+      <c r="S115" s="4">
+        <v>25.59</v>
+      </c>
+      <c r="T115" s="4">
+        <v>24.89</v>
+      </c>
+      <c r="U115" s="4">
+        <v>27.77</v>
+      </c>
+      <c r="V115" s="4">
+        <v>30.38</v>
+      </c>
+      <c r="W115" s="4">
+        <v>31.76</v>
+      </c>
+      <c r="X115" s="4">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="Y115" s="4">
+        <v>26.63</v>
+      </c>
+      <c r="Z115" s="4">
+        <v>23.16</v>
+      </c>
+      <c r="AA115" s="4">
+        <v>26.85</v>
+      </c>
+      <c r="AB115" s="4">
+        <v>28.42</v>
+      </c>
+      <c r="AC115" s="4">
+        <v>23.97</v>
+      </c>
+      <c r="AD115" s="4">
+        <v>23.37</v>
+      </c>
+      <c r="AE115" s="4">
+        <v>23.24</v>
+      </c>
+      <c r="AF115" s="4">
+        <v>23.67</v>
+      </c>
+      <c r="AG115" s="4">
+        <v>25.32</v>
+      </c>
+      <c r="AH115" s="4">
+        <v>24.14</v>
+      </c>
+      <c r="AI115" s="4">
+        <v>23.04</v>
+      </c>
+      <c r="AJ115" s="4">
+        <v>22.37</v>
+      </c>
+      <c r="AK115" s="4">
+        <v>23.59</v>
+      </c>
+      <c r="AL115" s="4">
+        <v>24.49</v>
+      </c>
+      <c r="AM115" s="4">
+        <v>29.68</v>
+      </c>
+      <c r="AN115" s="4">
+        <v>26.13</v>
+      </c>
+      <c r="AO115" s="4">
+        <v>26.24</v>
+      </c>
+      <c r="AP115" s="4">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="AQ115" s="4">
+        <v>33.79</v>
+      </c>
+      <c r="AR115" s="4">
+        <v>41.29</v>
+      </c>
+      <c r="AS115" s="4">
+        <v>35.42</v>
+      </c>
+      <c r="AT115" s="4">
+        <v>29.68</v>
+      </c>
+      <c r="AU115" s="4">
+        <v>28.92</v>
+      </c>
+      <c r="AV115" s="4">
+        <v>23.23</v>
+      </c>
+      <c r="AW115" s="4">
+        <v>27.38</v>
+      </c>
+      <c r="AX115" s="4">
+        <v>25.32</v>
+      </c>
+      <c r="AY115" s="4">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>280</v>
+      </c>
+      <c r="B116" t="s">
+        <v>281</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="4">
+        <v>27.37</v>
+      </c>
+      <c r="E116" s="4">
+        <v>22.61</v>
+      </c>
+      <c r="F116" s="4">
+        <v>19.72</v>
+      </c>
+      <c r="G116" s="4">
+        <v>20.99</v>
+      </c>
+      <c r="H116" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I116" s="4">
+        <v>18.93</v>
+      </c>
+      <c r="J116" s="4">
+        <v>21.25</v>
+      </c>
+      <c r="K116" s="4">
+        <v>21.63</v>
+      </c>
+      <c r="L116" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M116" s="4">
+        <v>21.74</v>
+      </c>
+      <c r="N116" s="4">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="O116" s="4">
+        <v>19.77</v>
+      </c>
+      <c r="P116" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="Q116" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="R116" s="4">
+        <v>19.22</v>
+      </c>
+      <c r="S116" s="4">
+        <v>18.28</v>
+      </c>
+      <c r="T116" s="4">
+        <v>18.02</v>
+      </c>
+      <c r="U116" s="4">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="V116" s="4">
+        <v>21.62</v>
+      </c>
+      <c r="W116" s="4">
+        <v>24.85</v>
+      </c>
+      <c r="X116" s="4">
+        <v>25.46</v>
+      </c>
+      <c r="Y116" s="4">
+        <v>18.34</v>
+      </c>
+      <c r="Z116" s="4">
+        <v>13.89</v>
+      </c>
+      <c r="AA116" s="4">
+        <v>17.72</v>
+      </c>
+      <c r="AB116" s="4">
+        <v>18.09</v>
+      </c>
+      <c r="AC116" s="4">
+        <v>16.13</v>
+      </c>
+      <c r="AD116" s="4">
+        <v>15.24</v>
+      </c>
+      <c r="AE116" s="4">
+        <v>14.91</v>
+      </c>
+      <c r="AF116" s="4">
+        <v>15.69</v>
+      </c>
+      <c r="AG116" s="4">
+        <v>16.38</v>
+      </c>
+      <c r="AH116" s="4">
+        <v>15.94</v>
+      </c>
+      <c r="AI116" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="AJ116" s="4">
+        <v>13.33</v>
+      </c>
+      <c r="AK116" s="4">
+        <v>15.81</v>
+      </c>
+      <c r="AL116" s="4">
+        <v>14.49</v>
+      </c>
+      <c r="AM116" s="4">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="AN116" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="AO116" s="4">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="AP116" s="4">
+        <v>18.78</v>
+      </c>
+      <c r="AQ116" s="4">
+        <v>23</v>
+      </c>
+      <c r="AR116" s="4">
+        <v>22.26</v>
+      </c>
+      <c r="AS116" s="4">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="AT116" s="4">
+        <v>17.14</v>
+      </c>
+      <c r="AU116" s="4">
+        <v>17.04</v>
+      </c>
+      <c r="AV116" s="4">
+        <v>12.99</v>
+      </c>
+      <c r="AW116" s="4">
+        <v>14.64</v>
+      </c>
+      <c r="AX116" s="4">
+        <v>13.86</v>
+      </c>
+      <c r="AY116" s="4">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="117" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>282</v>
+      </c>
+      <c r="B117" t="s">
+        <v>283</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="4">
+        <v>26.01</v>
+      </c>
+      <c r="E117" s="4">
+        <v>23.11</v>
+      </c>
+      <c r="F117" s="4">
+        <v>24.2</v>
+      </c>
+      <c r="G117" s="4">
+        <v>26.71</v>
+      </c>
+      <c r="H117" s="4">
+        <v>27.01</v>
+      </c>
+      <c r="I117" s="4">
+        <v>24.98</v>
+      </c>
+      <c r="J117" s="4">
+        <v>26.74</v>
+      </c>
+      <c r="K117" s="4">
+        <v>26.96</v>
+      </c>
+      <c r="L117" s="4">
+        <v>22.18</v>
+      </c>
+      <c r="M117" s="4">
+        <v>24.54</v>
+      </c>
+      <c r="N117" s="4">
+        <v>24.27</v>
+      </c>
+      <c r="O117" s="4">
+        <v>26.57</v>
+      </c>
+      <c r="P117" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="Q117" s="4">
+        <v>22.47</v>
+      </c>
+      <c r="R117" s="4">
+        <v>24.25</v>
+      </c>
+      <c r="S117" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="T117" s="4">
+        <v>17.54</v>
+      </c>
+      <c r="U117" s="4">
+        <v>21.65</v>
+      </c>
+      <c r="V117" s="4">
+        <v>26.02</v>
+      </c>
+      <c r="W117" s="4">
+        <v>29.19</v>
+      </c>
+      <c r="X117" s="4">
+        <v>31.28</v>
+      </c>
+      <c r="Y117" s="4">
+        <v>23.68</v>
+      </c>
+      <c r="Z117" s="4">
+        <v>19.95</v>
+      </c>
+      <c r="AA117" s="4">
+        <v>21.43</v>
+      </c>
+      <c r="AB117" s="4">
+        <v>22.98</v>
+      </c>
+      <c r="AC117" s="4">
+        <v>21.08</v>
+      </c>
+      <c r="AD117" s="4">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="AE117" s="4">
+        <v>21.85</v>
+      </c>
+      <c r="AF117" s="4">
+        <v>15.65</v>
+      </c>
+      <c r="AG117" s="4">
+        <v>20.88</v>
+      </c>
+      <c r="AH117" s="4">
+        <v>20.54</v>
+      </c>
+      <c r="AI117" s="4">
+        <v>20.68</v>
+      </c>
+      <c r="AJ117" s="4">
+        <v>17.66</v>
+      </c>
+      <c r="AK117" s="4">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="AL117" s="4">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="AM117" s="4">
+        <v>22.43</v>
+      </c>
+      <c r="AN117" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AO117" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="AP117" s="4">
+        <v>24.03</v>
+      </c>
+      <c r="AQ117" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="AR117" s="4">
+        <v>28.85</v>
+      </c>
+      <c r="AS117" s="4">
+        <v>25.48</v>
+      </c>
+      <c r="AT117" s="4">
+        <v>22.71</v>
+      </c>
+      <c r="AU117" s="4">
+        <v>24</v>
+      </c>
+      <c r="AV117" s="4">
+        <v>15.86</v>
+      </c>
+      <c r="AW117" s="4">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="AX117" s="4">
+        <v>16.16</v>
+      </c>
+      <c r="AY117" s="4">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>284</v>
+      </c>
+      <c r="B118" t="s">
+        <v>285</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="4">
+        <v>20.88</v>
+      </c>
+      <c r="E118" s="4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F118" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="G118" s="4">
+        <v>23.05</v>
+      </c>
+      <c r="H118" s="4">
+        <v>22.14</v>
+      </c>
+      <c r="I118" s="4">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="J118" s="4">
+        <v>22.11</v>
+      </c>
+      <c r="K118" s="4">
+        <v>22.51</v>
+      </c>
+      <c r="L118" s="4">
+        <v>21.58</v>
+      </c>
+      <c r="M118" s="4">
+        <v>20.32</v>
+      </c>
+      <c r="N118" s="4">
+        <v>21.11</v>
+      </c>
+      <c r="O118" s="4">
+        <v>22.08</v>
+      </c>
+      <c r="P118" s="4">
+        <v>21.52</v>
+      </c>
+      <c r="Q118" s="4">
+        <v>19.61</v>
+      </c>
+      <c r="R118" s="4">
+        <v>21.67</v>
+      </c>
+      <c r="S118" s="4">
+        <v>20.98</v>
+      </c>
+      <c r="T118" s="4">
+        <v>20.45</v>
+      </c>
+      <c r="U118" s="4">
+        <v>20.95</v>
+      </c>
+      <c r="V118" s="4">
+        <v>23.51</v>
+      </c>
+      <c r="W118" s="4">
+        <v>27.14</v>
+      </c>
+      <c r="X118" s="4">
+        <v>27.26</v>
+      </c>
+      <c r="Y118" s="4">
+        <v>23.44</v>
+      </c>
+      <c r="Z118" s="4">
+        <v>21.73</v>
+      </c>
+      <c r="AA118" s="4">
+        <v>21.45</v>
+      </c>
+      <c r="AB118" s="4">
+        <v>22.55</v>
+      </c>
+      <c r="AC118" s="4">
+        <v>21.15</v>
+      </c>
+      <c r="AD118" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="AE118" s="4">
+        <v>22.53</v>
+      </c>
+      <c r="AF118" s="4">
+        <v>18.68</v>
+      </c>
+      <c r="AG118" s="4">
+        <v>21.78</v>
+      </c>
+      <c r="AH118" s="4">
+        <v>20.18</v>
+      </c>
+      <c r="AI118" s="4">
+        <v>21.07</v>
+      </c>
+      <c r="AJ118" s="4">
+        <v>21.37</v>
+      </c>
+      <c r="AK118" s="4">
+        <v>21.96</v>
+      </c>
+      <c r="AL118" s="4">
+        <v>23.26</v>
+      </c>
+      <c r="AM118" s="4">
+        <v>23.73</v>
+      </c>
+      <c r="AN118" s="4">
+        <v>24.23</v>
+      </c>
+      <c r="AO118" s="4">
+        <v>23.14</v>
+      </c>
+      <c r="AP118" s="4">
+        <v>26.53</v>
+      </c>
+      <c r="AQ118" s="4">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="AR118" s="4">
+        <v>36.1</v>
+      </c>
+      <c r="AS118" s="4">
+        <v>28.68</v>
+      </c>
+      <c r="AT118" s="4">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="AU118" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AV118" s="4">
+        <v>16.59</v>
+      </c>
+      <c r="AW118" s="4">
+        <v>13.82</v>
+      </c>
+      <c r="AX118" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="AY118" s="4">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>286</v>
+      </c>
+      <c r="B119" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="4">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="E119" s="4">
+        <v>22.48</v>
+      </c>
+      <c r="F119" s="4">
+        <v>21.56</v>
+      </c>
+      <c r="G119" s="4">
+        <v>22.94</v>
+      </c>
+      <c r="H119" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="I119" s="4">
+        <v>20.03</v>
+      </c>
+      <c r="J119" s="4">
+        <v>21.44</v>
+      </c>
+      <c r="K119" s="4">
+        <v>21.7</v>
+      </c>
+      <c r="L119" s="4">
+        <v>19.77</v>
+      </c>
+      <c r="M119" s="4">
+        <v>20.22</v>
+      </c>
+      <c r="N119" s="4">
+        <v>19.73</v>
+      </c>
+      <c r="O119" s="4">
+        <v>19.62</v>
+      </c>
+      <c r="P119" s="4">
+        <v>18.55</v>
+      </c>
+      <c r="Q119" s="4">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="R119" s="4">
+        <v>17.03</v>
+      </c>
+      <c r="S119" s="4">
+        <v>16.48</v>
+      </c>
+      <c r="T119" s="4">
+        <v>15.37</v>
+      </c>
+      <c r="U119" s="4">
+        <v>16.72</v>
+      </c>
+      <c r="V119" s="4">
+        <v>18.46</v>
+      </c>
+      <c r="W119" s="4">
+        <v>25.56</v>
+      </c>
+      <c r="X119" s="4">
+        <v>25.17</v>
+      </c>
+      <c r="Y119" s="4">
+        <v>16.91</v>
+      </c>
+      <c r="Z119" s="4">
+        <v>14.81</v>
+      </c>
+      <c r="AA119" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="AB119" s="4">
+        <v>16.48</v>
+      </c>
+      <c r="AC119" s="4">
+        <v>14.82</v>
+      </c>
+      <c r="AD119" s="4">
+        <v>16.12</v>
+      </c>
+      <c r="AE119" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="AF119" s="4">
+        <v>15.84</v>
+      </c>
+      <c r="AG119" s="4">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="AH119" s="4">
+        <v>14.93</v>
+      </c>
+      <c r="AI119" s="4">
+        <v>16.97</v>
+      </c>
+      <c r="AJ119" s="4">
+        <v>14.89</v>
+      </c>
+      <c r="AK119" s="4">
+        <v>16.96</v>
+      </c>
+      <c r="AL119" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="AM119" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AN119" s="4">
+        <v>16.79</v>
+      </c>
+      <c r="AO119" s="4">
+        <v>20.28</v>
+      </c>
+      <c r="AP119" s="4">
+        <v>21.51</v>
+      </c>
+      <c r="AQ119" s="4">
+        <v>21.55</v>
+      </c>
+      <c r="AR119" s="4">
+        <v>24.4</v>
+      </c>
+      <c r="AS119" s="4">
+        <v>21.53</v>
+      </c>
+      <c r="AT119" s="4">
+        <v>17.93</v>
+      </c>
+      <c r="AU119" s="4">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="AV119" s="4">
+        <v>19.55</v>
+      </c>
+      <c r="AW119" s="4">
+        <v>20.37</v>
+      </c>
+      <c r="AX119" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="AY119" s="4">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="120" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>288</v>
+      </c>
+      <c r="B120" t="s">
+        <v>289</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="4">
+        <v>15.98</v>
+      </c>
+      <c r="E120" s="4">
+        <v>12.78</v>
+      </c>
+      <c r="F120" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="G120" s="4">
+        <v>13.71</v>
+      </c>
+      <c r="H120" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="I120" s="4">
+        <v>12.34</v>
+      </c>
+      <c r="J120" s="4">
+        <v>14.18</v>
+      </c>
+      <c r="K120" s="4">
+        <v>14.44</v>
+      </c>
+      <c r="L120" s="4">
+        <v>12.92</v>
+      </c>
+      <c r="M120" s="4">
+        <v>13.55</v>
+      </c>
+      <c r="N120" s="4">
+        <v>13.43</v>
+      </c>
+      <c r="O120" s="4">
+        <v>14.18</v>
+      </c>
+      <c r="P120" s="4">
+        <v>13.82</v>
+      </c>
+      <c r="Q120" s="4">
+        <v>12.94</v>
+      </c>
+      <c r="R120" s="4">
+        <v>13.31</v>
+      </c>
+      <c r="S120" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="T120" s="4">
+        <v>11.84</v>
+      </c>
+      <c r="U120" s="4">
+        <v>12.75</v>
+      </c>
+      <c r="V120" s="4">
+        <v>13.84</v>
+      </c>
+      <c r="W120" s="4">
+        <v>15.21</v>
+      </c>
+      <c r="X120" s="4">
+        <v>16.45</v>
+      </c>
+      <c r="Y120" s="4">
+        <v>13.17</v>
+      </c>
+      <c r="Z120" s="4">
+        <v>11.51</v>
+      </c>
+      <c r="AA120" s="4">
+        <v>12.96</v>
+      </c>
+      <c r="AB120" s="4">
+        <v>13.44</v>
+      </c>
+      <c r="AC120" s="4">
+        <v>11.52</v>
+      </c>
+      <c r="AD120" s="4">
+        <v>11.13</v>
+      </c>
+      <c r="AE120" s="4">
+        <v>11.69</v>
+      </c>
+      <c r="AF120" s="4">
+        <v>11.27</v>
+      </c>
+      <c r="AG120" s="4">
+        <v>12.18</v>
+      </c>
+      <c r="AH120" s="4">
+        <v>11.39</v>
+      </c>
+      <c r="AI120" s="4">
+        <v>11.99</v>
+      </c>
+      <c r="AJ120" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="AK120" s="4">
+        <v>12.65</v>
+      </c>
+      <c r="AL120" s="4">
+        <v>12</v>
+      </c>
+      <c r="AM120" s="4">
+        <v>13.78</v>
+      </c>
+      <c r="AN120" s="4">
+        <v>13</v>
+      </c>
+      <c r="AO120" s="4">
+        <v>12.07</v>
+      </c>
+      <c r="AP120" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="AQ120" s="4">
+        <v>15.28</v>
+      </c>
+      <c r="AR120" s="4">
+        <v>17.93</v>
+      </c>
+      <c r="AS120" s="4">
+        <v>15.32</v>
+      </c>
+      <c r="AT120" s="4">
+        <v>11.58</v>
+      </c>
+      <c r="AU120" s="4">
+        <v>11.86</v>
+      </c>
+      <c r="AV120" s="4">
+        <v>14.84</v>
+      </c>
+      <c r="AW120" s="4">
+        <v>14.64</v>
+      </c>
+      <c r="AX120" s="4">
+        <v>13.17</v>
+      </c>
+      <c r="AY120" s="4">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>290</v>
+      </c>
+      <c r="B121" t="s">
+        <v>291</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="E121" s="4">
+        <v>13.17</v>
+      </c>
+      <c r="F121" s="4">
+        <v>12.28</v>
+      </c>
+      <c r="G121" s="4">
+        <v>13.81</v>
+      </c>
+      <c r="H121" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="I121" s="4">
+        <v>12.32</v>
+      </c>
+      <c r="J121" s="4">
+        <v>14.12</v>
+      </c>
+      <c r="K121" s="4">
+        <v>14.32</v>
+      </c>
+      <c r="L121" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="M121" s="4">
+        <v>13.49</v>
+      </c>
+      <c r="N121" s="4">
+        <v>13.53</v>
+      </c>
+      <c r="O121" s="4">
+        <v>14.18</v>
+      </c>
+      <c r="P121" s="4">
+        <v>13.78</v>
+      </c>
+      <c r="Q121" s="4">
+        <v>13.13</v>
+      </c>
+      <c r="R121" s="4">
+        <v>13.27</v>
+      </c>
+      <c r="S121" s="4">
+        <v>12.02</v>
+      </c>
+      <c r="T121" s="4">
+        <v>11.64</v>
+      </c>
+      <c r="U121" s="4">
+        <v>13.21</v>
+      </c>
+      <c r="V121" s="4">
+        <v>14.16</v>
+      </c>
+      <c r="W121" s="4">
+        <v>14.68</v>
+      </c>
+      <c r="X121" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="Y121" s="4">
+        <v>12.16</v>
+      </c>
+      <c r="Z121" s="4">
+        <v>10.95</v>
+      </c>
+      <c r="AA121" s="4">
+        <v>12.74</v>
+      </c>
+      <c r="AB121" s="4">
+        <v>13.13</v>
+      </c>
+      <c r="AC121" s="4">
+        <v>11.29</v>
+      </c>
+      <c r="AD121" s="4">
+        <v>10.85</v>
+      </c>
+      <c r="AE121" s="4">
+        <v>10.83</v>
+      </c>
+      <c r="AF121" s="4">
+        <v>11.08</v>
+      </c>
+      <c r="AG121" s="4">
+        <v>11.49</v>
+      </c>
+      <c r="AH121" s="4">
+        <v>11.11</v>
+      </c>
+      <c r="AI121" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="AJ121" s="4">
+        <v>10.56</v>
+      </c>
+      <c r="AK121" s="4">
+        <v>11.35</v>
+      </c>
+      <c r="AL121" s="4">
+        <v>11.91</v>
+      </c>
+      <c r="AM121" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="AN121" s="4">
+        <v>11.78</v>
+      </c>
+      <c r="AO121" s="4">
+        <v>11.58</v>
+      </c>
+      <c r="AP121" s="4">
+        <v>13.84</v>
+      </c>
+      <c r="AQ121" s="4">
+        <v>15.31</v>
+      </c>
+      <c r="AR121" s="4">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="AS121" s="4">
+        <v>14.58</v>
+      </c>
+      <c r="AT121" s="4">
+        <v>11.99</v>
+      </c>
+      <c r="AU121" s="4">
+        <v>11.54</v>
+      </c>
+      <c r="AV121" s="4">
+        <v>12.01</v>
+      </c>
+      <c r="AW121" s="4">
+        <v>12.89</v>
+      </c>
+      <c r="AX121" s="4">
+        <v>12.16</v>
+      </c>
+      <c r="AY121" s="4">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>292</v>
+      </c>
+      <c r="B122" t="s">
+        <v>293</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="4">
+        <v>13.35</v>
+      </c>
+      <c r="E122" s="4">
+        <v>11.19</v>
+      </c>
+      <c r="F122" s="4">
+        <v>10.73</v>
+      </c>
+      <c r="G122" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="H122" s="4">
+        <v>12.13</v>
+      </c>
+      <c r="I122" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="J122" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="K122" s="4">
+        <v>12.79</v>
+      </c>
+      <c r="L122" s="4">
+        <v>10.77</v>
+      </c>
+      <c r="M122" s="4">
+        <v>11.92</v>
+      </c>
+      <c r="N122" s="4">
+        <v>11.69</v>
+      </c>
+      <c r="O122" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="P122" s="4">
+        <v>11.98</v>
+      </c>
+      <c r="Q122" s="4">
+        <v>11.09</v>
+      </c>
+      <c r="R122" s="4">
+        <v>11.02</v>
+      </c>
+      <c r="S122" s="4">
+        <v>10.48</v>
+      </c>
+      <c r="T122" s="4">
+        <v>10.62</v>
+      </c>
+      <c r="U122" s="4">
+        <v>11.76</v>
+      </c>
+      <c r="V122" s="4">
+        <v>12.93</v>
+      </c>
+      <c r="W122" s="4">
+        <v>13.41</v>
+      </c>
+      <c r="X122" s="4">
+        <v>14</v>
+      </c>
+      <c r="Y122" s="4">
+        <v>10.88</v>
+      </c>
+      <c r="Z122" s="4">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="AA122" s="4">
+        <v>10.76</v>
+      </c>
+      <c r="AB122" s="4">
+        <v>11.49</v>
+      </c>
+      <c r="AC122" s="4">
+        <v>10.07</v>
+      </c>
+      <c r="AD122" s="4">
+        <v>9.92</v>
+      </c>
+      <c r="AE122" s="4">
+        <v>9.91</v>
+      </c>
+      <c r="AF122" s="4">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="AG122" s="4">
+        <v>10.41</v>
+      </c>
+      <c r="AH122" s="4">
+        <v>9.98</v>
+      </c>
+      <c r="AI122" s="4">
+        <v>9.91</v>
+      </c>
+      <c r="AJ122" s="4">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="AK122" s="4">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="AL122" s="4">
+        <v>11.35</v>
+      </c>
+      <c r="AM122" s="4">
+        <v>11.49</v>
+      </c>
+      <c r="AN122" s="4">
+        <v>10.69</v>
+      </c>
+      <c r="AO122" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="AP122" s="4">
+        <v>13.04</v>
+      </c>
+      <c r="AQ122" s="4">
+        <v>14.27</v>
+      </c>
+      <c r="AR122" s="4">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="AS122" s="4">
+        <v>15.26</v>
+      </c>
+      <c r="AT122" s="4">
+        <v>11.12</v>
+      </c>
+      <c r="AU122" s="4">
+        <v>11.44</v>
+      </c>
+      <c r="AV122" s="4">
+        <v>10.18</v>
+      </c>
+      <c r="AW122" s="4">
+        <v>10.88</v>
+      </c>
+      <c r="AX122" s="4">
+        <v>9.11</v>
+      </c>
+      <c r="AY122" s="4">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>294</v>
+      </c>
+      <c r="B123" t="s">
+        <v>295</v>
+      </c>
+      <c r="C123" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="4">
+        <v>12.56</v>
+      </c>
+      <c r="E123" s="4">
+        <v>11.19</v>
+      </c>
+      <c r="F123" s="4">
+        <v>10.92</v>
+      </c>
+      <c r="G123" s="4">
+        <v>11.87</v>
+      </c>
+      <c r="H123" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="I123" s="4">
+        <v>10.92</v>
+      </c>
+      <c r="J123" s="4">
+        <v>11.73</v>
+      </c>
+      <c r="K123" s="4">
+        <v>11.89</v>
+      </c>
+      <c r="L123" s="4">
+        <v>10.91</v>
+      </c>
+      <c r="M123" s="4">
+        <v>10.86</v>
+      </c>
+      <c r="N123" s="4">
+        <v>11.14</v>
+      </c>
+      <c r="O123" s="4">
+        <v>11.58</v>
+      </c>
+      <c r="P123" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="Q123" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="R123" s="4">
+        <v>11.67</v>
+      </c>
+      <c r="S123" s="4">
+        <v>11.06</v>
+      </c>
+      <c r="T123" s="4">
+        <v>11.09</v>
+      </c>
+      <c r="U123" s="4">
+        <v>11.59</v>
+      </c>
+      <c r="V123" s="4">
+        <v>11.99</v>
+      </c>
+      <c r="W123" s="4">
+        <v>15.18</v>
+      </c>
+      <c r="X123" s="4">
+        <v>15.11</v>
+      </c>
+      <c r="Y123" s="4">
+        <v>11.61</v>
+      </c>
+      <c r="Z123" s="4">
+        <v>10.88</v>
+      </c>
+      <c r="AA123" s="4">
+        <v>11.57</v>
+      </c>
+      <c r="AB123" s="4">
+        <v>11.88</v>
+      </c>
+      <c r="AC123" s="4">
+        <v>10.77</v>
+      </c>
+      <c r="AD123" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="AE123" s="4">
+        <v>10.76</v>
+      </c>
+      <c r="AF123" s="4">
+        <v>10.75</v>
+      </c>
+      <c r="AG123" s="4">
+        <v>10.87</v>
+      </c>
+      <c r="AH123" s="4">
+        <v>10.49</v>
+      </c>
+      <c r="AI123" s="4">
+        <v>10.67</v>
+      </c>
+      <c r="AJ123" s="4">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="AK123" s="4">
+        <v>11.37</v>
+      </c>
+      <c r="AL123" s="4">
+        <v>12.07</v>
+      </c>
+      <c r="AM123" s="4">
+        <v>13.72</v>
+      </c>
+      <c r="AN123" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="AO123" s="4">
+        <v>11.25</v>
+      </c>
+      <c r="AP123" s="4">
+        <v>15.72</v>
+      </c>
+      <c r="AQ123" s="4">
+        <v>15.14</v>
+      </c>
+      <c r="AR123" s="4">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="AS123" s="4">
+        <v>17.11</v>
+      </c>
+      <c r="AT123" s="4">
+        <v>12.79</v>
+      </c>
+      <c r="AU123" s="4">
+        <v>11.82</v>
+      </c>
+      <c r="AV123" s="4">
+        <v>10.49</v>
+      </c>
+      <c r="AW123" s="4">
+        <v>11.98</v>
+      </c>
+      <c r="AX123" s="4">
+        <v>11.25</v>
+      </c>
+      <c r="AY123" s="4">
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="124" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>296</v>
+      </c>
+      <c r="B124" t="s">
+        <v>297</v>
+      </c>
+      <c r="C124" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="4">
+        <v>12.47</v>
+      </c>
+      <c r="E124" s="4">
+        <v>13.32</v>
+      </c>
+      <c r="F124" s="4">
+        <v>13.21</v>
+      </c>
+      <c r="G124" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="H124" s="4">
+        <v>14.95</v>
+      </c>
+      <c r="I124" s="4">
+        <v>13.85</v>
+      </c>
+      <c r="J124" s="4">
+        <v>15.08</v>
+      </c>
+      <c r="K124" s="4">
+        <v>15.09</v>
+      </c>
+      <c r="L124" s="4">
+        <v>13.98</v>
+      </c>
+      <c r="M124" s="4">
+        <v>14.26</v>
+      </c>
+      <c r="N124" s="4">
+        <v>13.81</v>
+      </c>
+      <c r="O124" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="P124" s="4">
+        <v>13.99</v>
+      </c>
+      <c r="Q124" s="4">
+        <v>13.28</v>
+      </c>
+      <c r="R124" s="4">
+        <v>13.01</v>
+      </c>
+      <c r="S124" s="4">
+        <v>12.76</v>
+      </c>
+      <c r="T124" s="4">
+        <v>12.41</v>
+      </c>
+      <c r="U124" s="4">
+        <v>13.11</v>
+      </c>
+      <c r="V124" s="4">
+        <v>13.38</v>
+      </c>
+      <c r="W124" s="4">
+        <v>16.23</v>
+      </c>
+      <c r="X124" s="4">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="Y124" s="4">
+        <v>12.51</v>
+      </c>
+      <c r="Z124" s="4">
+        <v>11.43</v>
+      </c>
+      <c r="AA124" s="4">
+        <v>12.24</v>
+      </c>
+      <c r="AB124" s="4">
+        <v>12.37</v>
+      </c>
+      <c r="AC124" s="4">
+        <v>11.38</v>
+      </c>
+      <c r="AD124" s="4">
+        <v>11.26</v>
+      </c>
+      <c r="AE124" s="4">
+        <v>11.46</v>
+      </c>
+      <c r="AF124" s="4">
+        <v>10.76</v>
+      </c>
+      <c r="AG124" s="4">
+        <v>11.88</v>
+      </c>
+      <c r="AH124" s="4">
+        <v>11.01</v>
+      </c>
+      <c r="AI124" s="4">
+        <v>11.61</v>
+      </c>
+      <c r="AJ124" s="4">
+        <v>10.74</v>
+      </c>
+      <c r="AK124" s="4">
+        <v>11.18</v>
+      </c>
+      <c r="AL124" s="4">
+        <v>11.29</v>
+      </c>
+      <c r="AM124" s="4">
+        <v>11.49</v>
+      </c>
+      <c r="AN124" s="4">
+        <v>11.18</v>
+      </c>
+      <c r="AO124" s="4">
+        <v>11.33</v>
+      </c>
+      <c r="AP124" s="4">
+        <v>11.96</v>
+      </c>
+      <c r="AQ124" s="4">
+        <v>14.05</v>
+      </c>
+      <c r="AR124" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="AS124" s="4">
+        <v>12.86</v>
+      </c>
+      <c r="AT124" s="4">
+        <v>10.69</v>
+      </c>
+      <c r="AU124" s="4">
+        <v>11.47</v>
+      </c>
+      <c r="AV124" s="4">
+        <v>10.42</v>
+      </c>
+      <c r="AW124" s="4">
+        <v>11.24</v>
+      </c>
+      <c r="AX124" s="4">
+        <v>10.37</v>
+      </c>
+      <c r="AY124" s="4">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>298</v>
+      </c>
+      <c r="B125" t="s">
+        <v>299</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="4">
+        <v>10.53</v>
+      </c>
+      <c r="E125" s="4">
+        <v>11.03</v>
+      </c>
+      <c r="F125" s="4">
+        <v>10.78</v>
+      </c>
+      <c r="G125" s="4">
+        <v>12.14</v>
+      </c>
+      <c r="H125" s="4">
+        <v>12.17</v>
+      </c>
+      <c r="I125" s="4">
+        <v>10.45</v>
+      </c>
+      <c r="J125" s="4">
+        <v>12.36</v>
+      </c>
+      <c r="K125" s="4">
+        <v>12.41</v>
+      </c>
+      <c r="L125" s="4">
+        <v>10.89</v>
+      </c>
+      <c r="M125" s="4">
+        <v>11.39</v>
+      </c>
+      <c r="N125" s="4">
+        <v>11.76</v>
+      </c>
+      <c r="O125" s="4">
+        <v>11.84</v>
+      </c>
+      <c r="P125" s="4">
+        <v>11.83</v>
+      </c>
+      <c r="Q125" s="4">
+        <v>11.06</v>
+      </c>
+      <c r="R125" s="4">
+        <v>11.04</v>
+      </c>
+      <c r="S125" s="4">
+        <v>10.56</v>
+      </c>
+      <c r="T125" s="4">
+        <v>10.54</v>
+      </c>
+      <c r="U125" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="V125" s="4">
+        <v>12.37</v>
+      </c>
+      <c r="W125" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="X125" s="4">
+        <v>13.91</v>
+      </c>
+      <c r="Y125" s="4">
+        <v>11.27</v>
+      </c>
+      <c r="Z125" s="4">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="AA125" s="4">
+        <v>11.33</v>
+      </c>
+      <c r="AB125" s="4">
+        <v>11.75</v>
+      </c>
+      <c r="AC125" s="4">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="AD125" s="4">
+        <v>10.24</v>
+      </c>
+      <c r="AE125" s="4">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="AF125" s="4">
+        <v>10.35</v>
+      </c>
+      <c r="AG125" s="4">
+        <v>10.67</v>
+      </c>
+      <c r="AH125" s="4">
+        <v>10.01</v>
+      </c>
+      <c r="AI125" s="4">
+        <v>10.14</v>
+      </c>
+      <c r="AJ125" s="4">
+        <v>9.92</v>
+      </c>
+      <c r="AK125" s="4">
+        <v>10.28</v>
+      </c>
+      <c r="AL125" s="4">
+        <v>11.05</v>
+      </c>
+      <c r="AM125" s="4">
+        <v>11.88</v>
+      </c>
+      <c r="AN125" s="4">
+        <v>11.18</v>
+      </c>
+      <c r="AO125" s="4">
+        <v>10.86</v>
+      </c>
+      <c r="AP125" s="4">
+        <v>13.01</v>
+      </c>
+      <c r="AQ125" s="4">
+        <v>13.97</v>
+      </c>
+      <c r="AR125" s="4">
+        <v>19.36</v>
+      </c>
+      <c r="AS125" s="4">
+        <v>14.95</v>
+      </c>
+      <c r="AT125" s="4">
+        <v>11.36</v>
+      </c>
+      <c r="AU125" s="4">
+        <v>10.99</v>
+      </c>
+      <c r="AV125" s="4">
+        <v>11.65</v>
+      </c>
+      <c r="AW125" s="4">
+        <v>12.18</v>
+      </c>
+      <c r="AX125" s="4">
+        <v>10.55</v>
+      </c>
+      <c r="AY125" s="4">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="126" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>300</v>
+      </c>
+      <c r="B126" t="s">
+        <v>301</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="4">
+        <v>10.28</v>
+      </c>
+      <c r="E126" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="F126" s="4">
+        <v>7.54</v>
+      </c>
+      <c r="G126" s="4">
+        <v>8.86</v>
+      </c>
+      <c r="H126" s="4">
+        <v>8.61</v>
+      </c>
+      <c r="I126" s="4">
+        <v>7.97</v>
+      </c>
+      <c r="J126" s="4">
+        <v>9.17</v>
+      </c>
+      <c r="K126" s="4">
+        <v>8.92</v>
+      </c>
+      <c r="L126" s="4">
+        <v>7.59</v>
+      </c>
+      <c r="M126" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="N126" s="4">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="O126" s="4">
+        <v>8.92</v>
+      </c>
+      <c r="P126" s="4">
+        <v>8.86</v>
+      </c>
+      <c r="Q126" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="R126" s="4">
+        <v>8.44</v>
+      </c>
+      <c r="S126" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="T126" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="U126" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="V126" s="4">
+        <v>9.17</v>
+      </c>
+      <c r="W126" s="4">
+        <v>9.48</v>
+      </c>
+      <c r="X126" s="4">
+        <v>9.61</v>
+      </c>
+      <c r="Y126" s="4">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="Z126" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="AA126" s="4">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="AB126" s="4">
+        <v>7.95</v>
+      </c>
+      <c r="AC126" s="4">
+        <v>7.65</v>
+      </c>
+      <c r="AD126" s="4">
+        <v>7.44</v>
+      </c>
+      <c r="AE126" s="4">
+        <v>7.33</v>
+      </c>
+      <c r="AF126" s="4">
+        <v>7.88</v>
+      </c>
+      <c r="AG126" s="4">
+        <v>7.92</v>
+      </c>
+      <c r="AH126" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="AI126" s="4">
+        <v>7.31</v>
+      </c>
+      <c r="AJ126" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="AK126" s="4">
+        <v>7.43</v>
+      </c>
+      <c r="AL126" s="4">
+        <v>8.25</v>
+      </c>
+      <c r="AM126" s="4">
+        <v>7.05</v>
+      </c>
+      <c r="AN126" s="4">
+        <v>7.74</v>
+      </c>
+      <c r="AO126" s="4">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="AP126" s="4">
+        <v>8.61</v>
+      </c>
+      <c r="AQ126" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="AR126" s="4">
+        <v>10.53</v>
+      </c>
+      <c r="AS126" s="4">
+        <v>9.32</v>
+      </c>
+      <c r="AT126" s="4">
+        <v>6.98</v>
+      </c>
+      <c r="AU126" s="4">
+        <v>7.33</v>
+      </c>
+      <c r="AV126" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="AW126" s="4">
+        <v>7.28</v>
+      </c>
+      <c r="AX126" s="4">
+        <v>6.76</v>
+      </c>
+      <c r="AY126" s="4">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>302</v>
+      </c>
+      <c r="B127" t="s">
+        <v>303</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="E127" s="4">
+        <v>6.54</v>
+      </c>
+      <c r="F127" s="4">
+        <v>6.18</v>
+      </c>
+      <c r="G127" s="4">
+        <v>7.77</v>
+      </c>
+      <c r="H127" s="4">
+        <v>7.53</v>
+      </c>
+      <c r="I127" s="4">
+        <v>7.13</v>
+      </c>
+      <c r="J127" s="4">
+        <v>7.91</v>
+      </c>
+      <c r="K127" s="4">
+        <v>7.66</v>
+      </c>
+      <c r="L127" s="4">
+        <v>6.68</v>
+      </c>
+      <c r="M127" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="N127" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="O127" s="4">
+        <v>7.87</v>
+      </c>
+      <c r="P127" s="4">
+        <v>7.74</v>
+      </c>
+      <c r="Q127" s="4">
+        <v>7.28</v>
+      </c>
+      <c r="R127" s="4">
+        <v>7.59</v>
+      </c>
+      <c r="S127" s="4">
+        <v>7.16</v>
+      </c>
+      <c r="T127" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="U127" s="4">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="V127" s="4">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="W127" s="4">
+        <v>8.67</v>
+      </c>
+      <c r="X127" s="4">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="Y127" s="4">
+        <v>7.67</v>
+      </c>
+      <c r="Z127" s="4">
+        <v>6.81</v>
+      </c>
+      <c r="AA127" s="4">
+        <v>7.62</v>
+      </c>
+      <c r="AB127" s="4">
+        <v>7.24</v>
+      </c>
+      <c r="AC127" s="4">
+        <v>7.04</v>
+      </c>
+      <c r="AD127" s="4">
+        <v>6.87</v>
+      </c>
+      <c r="AE127" s="4">
+        <v>6.79</v>
+      </c>
+      <c r="AF127" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="AG127" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="AH127" s="4">
+        <v>6.76</v>
+      </c>
+      <c r="AI127" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="AJ127" s="4">
+        <v>6.55</v>
+      </c>
+      <c r="AK127" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="AL127" s="4">
+        <v>7.53</v>
+      </c>
+      <c r="AM127" s="4">
+        <v>6.38</v>
+      </c>
+      <c r="AN127" s="4">
+        <v>6.95</v>
+      </c>
+      <c r="AO127" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="AP127" s="4">
+        <v>6.41</v>
+      </c>
+      <c r="AQ127" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="AR127" s="4">
+        <v>7.37</v>
+      </c>
+      <c r="AS127" s="4">
+        <v>7.07</v>
+      </c>
+      <c r="AT127" s="4">
+        <v>3.99</v>
+      </c>
+      <c r="AU127" s="4">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="AV127" s="4">
+        <v>7.14</v>
+      </c>
+      <c r="AW127" s="4">
+        <v>6.73</v>
+      </c>
+      <c r="AX127" s="4">
+        <v>6.01</v>
+      </c>
+      <c r="AY127" s="4">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>304</v>
+      </c>
+      <c r="B128" t="s">
+        <v>305</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="E128" s="4">
+        <v>7.83</v>
+      </c>
+      <c r="F128" s="4">
+        <v>7.29</v>
+      </c>
+      <c r="G128" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="H128" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="I128" s="4">
+        <v>7.19</v>
+      </c>
+      <c r="J128" s="4">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="K128" s="4">
+        <v>7.79</v>
+      </c>
+      <c r="L128" s="4">
+        <v>7.18</v>
+      </c>
+      <c r="M128" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="N128" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="O128" s="4">
+        <v>7.55</v>
+      </c>
+      <c r="P128" s="4">
+        <v>7.48</v>
+      </c>
+      <c r="Q128" s="4">
+        <v>6.86</v>
+      </c>
+      <c r="R128" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="S128" s="4">
+        <v>6.49</v>
+      </c>
+      <c r="T128" s="4">
+        <v>6.46</v>
+      </c>
+      <c r="U128" s="4">
+        <v>6.91</v>
+      </c>
+      <c r="V128" s="4">
+        <v>6.77</v>
+      </c>
+      <c r="W128" s="4">
+        <v>7.63</v>
+      </c>
+      <c r="X128" s="4">
+        <v>7.61</v>
+      </c>
+      <c r="Y128" s="4">
+        <v>6.31</v>
+      </c>
+      <c r="Z128" s="4">
+        <v>5.78</v>
+      </c>
+      <c r="AA128" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="AB128" s="4">
+        <v>6.02</v>
+      </c>
+      <c r="AC128" s="4">
+        <v>6.08</v>
+      </c>
+      <c r="AD128" s="4">
+        <v>6.06</v>
+      </c>
+      <c r="AE128" s="4">
+        <v>5.78</v>
+      </c>
+      <c r="AF128" s="4">
+        <v>6.19</v>
+      </c>
+      <c r="AG128" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="AH128" s="4">
+        <v>6.06</v>
+      </c>
+      <c r="AI128" s="4">
+        <v>6.23</v>
+      </c>
+      <c r="AJ128" s="4">
+        <v>5.87</v>
+      </c>
+      <c r="AK128" s="4">
+        <v>6.17</v>
+      </c>
+      <c r="AL128" s="4">
+        <v>6.56</v>
+      </c>
+      <c r="AM128" s="4">
+        <v>5.67</v>
+      </c>
+      <c r="AN128" s="4">
+        <v>6.77</v>
+      </c>
+      <c r="AO128" s="4">
+        <v>7.41</v>
+      </c>
+      <c r="AP128" s="4">
+        <v>7.81</v>
+      </c>
+      <c r="AQ128" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="AR128" s="4">
+        <v>9.34</v>
+      </c>
+      <c r="AS128" s="4">
+        <v>8.56</v>
+      </c>
+      <c r="AT128" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="AU128" s="4">
+        <v>6.78</v>
+      </c>
+      <c r="AV128" s="4">
+        <v>6.17</v>
+      </c>
+      <c r="AW128" s="4">
+        <v>5.94</v>
+      </c>
+      <c r="AX128" s="4">
+        <v>6.42</v>
+      </c>
+      <c r="AY128" s="4">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>306</v>
+      </c>
+      <c r="B129" t="s">
+        <v>307</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="4">
+        <v>6.49</v>
+      </c>
+      <c r="E129" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="F129" s="4">
+        <v>5.43</v>
+      </c>
+      <c r="G129" s="4">
+        <v>6.54</v>
+      </c>
+      <c r="H129" s="4">
+        <v>6.73</v>
+      </c>
+      <c r="I129" s="4">
+        <v>6.55</v>
+      </c>
+      <c r="J129" s="4">
+        <v>7.14</v>
+      </c>
+      <c r="K129" s="4">
+        <v>6.94</v>
+      </c>
+      <c r="L129" s="4">
+        <v>6.03</v>
+      </c>
+      <c r="M129" s="4">
+        <v>6.66</v>
+      </c>
+      <c r="N129" s="4">
+        <v>6.69</v>
+      </c>
+      <c r="O129" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="P129" s="4">
+        <v>7.07</v>
+      </c>
+      <c r="Q129" s="4">
+        <v>6.58</v>
+      </c>
+      <c r="R129" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="S129" s="4">
+        <v>6.36</v>
+      </c>
+      <c r="T129" s="4">
+        <v>6.62</v>
+      </c>
+      <c r="U129" s="4">
+        <v>7.37</v>
+      </c>
+      <c r="V129" s="4">
+        <v>7.51</v>
+      </c>
+      <c r="W129" s="4">
+        <v>8.32</v>
+      </c>
+      <c r="X129" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="Y129" s="4">
+        <v>6.69</v>
+      </c>
+      <c r="Z129" s="4">
+        <v>5.83</v>
+      </c>
+      <c r="AA129" s="4">
+        <v>6.63</v>
+      </c>
+      <c r="AB129" s="4">
+        <v>6.35</v>
+      </c>
+      <c r="AC129" s="4">
+        <v>6</v>
+      </c>
+      <c r="AD129" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="AE129" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="AF129" s="4">
+        <v>6.26</v>
+      </c>
+      <c r="AG129" s="4">
+        <v>6.37</v>
+      </c>
+      <c r="AH129" s="4">
+        <v>5.87</v>
+      </c>
+      <c r="AI129" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="AJ129" s="4">
+        <v>5.94</v>
+      </c>
+      <c r="AK129" s="4">
+        <v>6.29</v>
+      </c>
+      <c r="AL129" s="4">
+        <v>7.18</v>
+      </c>
+      <c r="AM129" s="4">
+        <v>6.31</v>
+      </c>
+      <c r="AN129" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="AO129" s="4">
+        <v>6.83</v>
+      </c>
+      <c r="AP129" s="4">
+        <v>7.42</v>
+      </c>
+      <c r="AQ129" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="AR129" s="4">
+        <v>9.73</v>
+      </c>
+      <c r="AS129" s="4">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="AT129" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="AU129" s="4">
+        <v>5.92</v>
+      </c>
+      <c r="AV129" s="4">
+        <v>6.65</v>
+      </c>
+      <c r="AW129" s="4">
+        <v>5.74</v>
+      </c>
+      <c r="AX129" s="4">
+        <v>5.05</v>
+      </c>
+      <c r="AY129" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>308</v>
+      </c>
+      <c r="B130" t="s">
+        <v>309</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="4">
+        <v>6.24</v>
+      </c>
+      <c r="E130" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="F130" s="4">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G130" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="H130" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="I130" s="4">
+        <v>6.26</v>
+      </c>
+      <c r="J130" s="4">
+        <v>6.68</v>
+      </c>
+      <c r="K130" s="4">
+        <v>6.32</v>
+      </c>
+      <c r="L130" s="4">
+        <v>6.04</v>
+      </c>
+      <c r="M130" s="4">
+        <v>6.27</v>
+      </c>
+      <c r="N130" s="4">
+        <v>6.24</v>
+      </c>
+      <c r="O130" s="4">
+        <v>6.94</v>
+      </c>
+      <c r="P130" s="4">
+        <v>6.61</v>
+      </c>
+      <c r="Q130" s="4">
+        <v>6.06</v>
+      </c>
+      <c r="R130" s="4">
+        <v>6.22</v>
+      </c>
+      <c r="S130" s="4">
+        <v>5.94</v>
+      </c>
+      <c r="T130" s="4">
+        <v>6.28</v>
+      </c>
+      <c r="U130" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="V130" s="4">
+        <v>7.11</v>
+      </c>
+      <c r="W130" s="4">
+        <v>8</v>
+      </c>
+      <c r="X130" s="4">
+        <v>7.61</v>
+      </c>
+      <c r="Y130" s="4">
+        <v>6.53</v>
+      </c>
+      <c r="Z130" s="4">
+        <v>5.46</v>
+      </c>
+      <c r="AA130" s="4">
+        <v>6.53</v>
+      </c>
+      <c r="AB130" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="AC130" s="4">
+        <v>5.52</v>
+      </c>
+      <c r="AD130" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AE130" s="4">
+        <v>5.63</v>
+      </c>
+      <c r="AF130" s="4">
+        <v>6.05</v>
+      </c>
+      <c r="AG130" s="4">
+        <v>6.17</v>
+      </c>
+      <c r="AH130" s="4">
+        <v>5.21</v>
+      </c>
+      <c r="AI130" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="AJ130" s="4">
+        <v>5.13</v>
+      </c>
+      <c r="AK130" s="4">
+        <v>5.88</v>
+      </c>
+      <c r="AL130" s="4">
+        <v>6.57</v>
+      </c>
+      <c r="AM130" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="AN130" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="AO130" s="4">
+        <v>6.35</v>
+      </c>
+      <c r="AP130" s="4">
+        <v>6.33</v>
+      </c>
+      <c r="AQ130" s="4">
+        <v>6.31</v>
+      </c>
+      <c r="AR130" s="4">
+        <v>8.11</v>
+      </c>
+      <c r="AS130" s="4">
+        <v>7.09</v>
+      </c>
+      <c r="AT130" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="AU130" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AV130" s="4">
+        <v>6.14</v>
+      </c>
+      <c r="AW130" s="4">
+        <v>5.15</v>
+      </c>
+      <c r="AX130" s="4">
+        <v>4.53</v>
+      </c>
+      <c r="AY130" s="4">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>310</v>
+      </c>
+      <c r="B131" t="s">
+        <v>311</v>
+      </c>
+      <c r="C131" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="4">
+        <v>5.56</v>
+      </c>
+      <c r="E131" s="4">
+        <v>5.21</v>
+      </c>
+      <c r="F131" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="G131" s="4">
+        <v>6.05</v>
+      </c>
+      <c r="H131" s="4">
+        <v>6.32</v>
+      </c>
+      <c r="I131" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="J131" s="4">
+        <v>7.44</v>
+      </c>
+      <c r="K131" s="4">
+        <v>6.81</v>
+      </c>
+      <c r="L131" s="4">
+        <v>6.26</v>
+      </c>
+      <c r="M131" s="4">
+        <v>6.78</v>
+      </c>
+      <c r="N131" s="4">
+        <v>6.99</v>
+      </c>
+      <c r="O131" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="P131" s="4">
+        <v>7.26</v>
+      </c>
+      <c r="Q131" s="4">
+        <v>6.77</v>
+      </c>
+      <c r="R131" s="4">
+        <v>6.74</v>
+      </c>
+      <c r="S131" s="4">
+        <v>6.52</v>
+      </c>
+      <c r="T131" s="4">
+        <v>7.01</v>
+      </c>
+      <c r="U131" s="4">
+        <v>7.82</v>
+      </c>
+      <c r="V131" s="4">
+        <v>7.62</v>
+      </c>
+      <c r="W131" s="4">
+        <v>8.52</v>
+      </c>
+      <c r="X131" s="4">
+        <v>8.33</v>
+      </c>
+      <c r="Y131" s="4">
+        <v>7.04</v>
+      </c>
+      <c r="Z131" s="4">
+        <v>6.03</v>
+      </c>
+      <c r="AA131" s="4">
+        <v>7.12</v>
+      </c>
+      <c r="AB131" s="4">
+        <v>6.07</v>
+      </c>
+      <c r="AC131" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="AD131" s="4">
+        <v>6.06</v>
+      </c>
+      <c r="AE131" s="4">
+        <v>6</v>
+      </c>
+      <c r="AF131" s="4">
+        <v>7.03</v>
+      </c>
+      <c r="AG131" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="AH131" s="4">
+        <v>5.64</v>
+      </c>
+      <c r="AI131" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="AJ131" s="4">
+        <v>6.37</v>
+      </c>
+      <c r="AK131" s="4">
+        <v>6.22</v>
+      </c>
+      <c r="AL131" s="4">
+        <v>7.78</v>
+      </c>
+      <c r="AM131" s="4">
+        <v>5.87</v>
+      </c>
+      <c r="AN131" s="4">
+        <v>6.51</v>
+      </c>
+      <c r="AO131" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="AP131" s="4">
+        <v>7.42</v>
+      </c>
+      <c r="AQ131" s="4">
+        <v>6.45</v>
+      </c>
+      <c r="AR131" s="4">
+        <v>9.98</v>
+      </c>
+      <c r="AS131" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AT131" s="4">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="AU131" s="4">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AV131" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="AW131" s="4">
+        <v>5.99</v>
+      </c>
+      <c r="AX131" s="4">
+        <v>6.08</v>
+      </c>
+      <c r="AY131" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>312</v>
+      </c>
+      <c r="B132" t="s">
+        <v>313</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="E132" s="4">
+        <v>4.41</v>
+      </c>
+      <c r="F132" s="4">
+        <v>4.74</v>
+      </c>
+      <c r="G132" s="4">
+        <v>5.38</v>
+      </c>
+      <c r="H132" s="4">
+        <v>5.24</v>
+      </c>
+      <c r="I132" s="4">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="J132" s="4">
+        <v>4.78</v>
+      </c>
+      <c r="K132" s="4">
+        <v>4.34</v>
+      </c>
+      <c r="L132" s="4">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="M132" s="4">
+        <v>3.88</v>
+      </c>
+      <c r="N132" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="O132" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="P132" s="4">
+        <v>4.08</v>
+      </c>
+      <c r="Q132" s="4">
+        <v>3.68</v>
+      </c>
+      <c r="R132" s="4">
+        <v>3.95</v>
+      </c>
+      <c r="S132" s="4">
+        <v>3.57</v>
+      </c>
+      <c r="T132" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="U132" s="4">
+        <v>3.39</v>
+      </c>
+      <c r="V132" s="4">
+        <v>3.86</v>
+      </c>
+      <c r="W132" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="X132" s="4">
+        <v>3.87</v>
+      </c>
+      <c r="Y132" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="Z132" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="AA132" s="4">
+        <v>3.03</v>
+      </c>
+      <c r="AB132" s="4">
+        <v>3.07</v>
+      </c>
+      <c r="AC132" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="AD132" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="AE132" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="AF132" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="AG132" s="4">
+        <v>2.71</v>
+      </c>
+      <c r="AH132" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="AI132" s="4">
+        <v>2.56</v>
+      </c>
+      <c r="AJ132" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="AK132" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="AL132" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM132" s="4">
+        <v>2.16</v>
+      </c>
+      <c r="AN132" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AO132" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="AP132" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AQ132" s="4">
+        <v>2.58</v>
+      </c>
+      <c r="AR132" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="AS132" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="AT132" s="4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AU132" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="AV132" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="AW132" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AX132" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="AY132" s="4">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="133" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>314</v>
+      </c>
+      <c r="B133" t="s">
+        <v>315</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="4">
+        <v>2.96</v>
+      </c>
+      <c r="E133" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="F133" s="4">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="G133" s="4">
+        <v>2.87</v>
+      </c>
+      <c r="H133" s="4">
+        <v>2.91</v>
+      </c>
+      <c r="I133" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="J133" s="4">
+        <v>3.17</v>
+      </c>
+      <c r="K133" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="L133" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="M133" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="N133" s="4">
+        <v>3.03</v>
+      </c>
+      <c r="O133" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="P133" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="Q133" s="4">
+        <v>3</v>
+      </c>
+      <c r="R133" s="4">
+        <v>3</v>
+      </c>
+      <c r="S133" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="T133" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="U133" s="4">
+        <v>3.14</v>
+      </c>
+      <c r="V133" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="W133" s="4">
+        <v>3.24</v>
+      </c>
+      <c r="X133" s="4">
+        <v>3.34</v>
+      </c>
+      <c r="Y133" s="4">
+        <v>2.84</v>
+      </c>
+      <c r="Z133" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AA133" s="4">
+        <v>2.86</v>
+      </c>
+      <c r="AB133" s="4">
+        <v>2.84</v>
+      </c>
+      <c r="AC133" s="4">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AD133" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="AE133" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AF133" s="4">
+        <v>2.59</v>
+      </c>
+      <c r="AG133" s="4">
+        <v>2.69</v>
+      </c>
+      <c r="AH133" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="AI133" s="4">
+        <v>2.34</v>
+      </c>
+      <c r="AJ133" s="4">
+        <v>1.91</v>
+      </c>
+      <c r="AK133" s="4">
+        <v>2.39</v>
+      </c>
+      <c r="AL133" s="4">
+        <v>2.58</v>
+      </c>
+      <c r="AM133" s="4">
+        <v>2.56</v>
+      </c>
+      <c r="AN133" s="4">
+        <v>2.46</v>
+      </c>
+      <c r="AO133" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="AP133" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="AQ133" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="AR133" s="4">
+        <v>3.89</v>
+      </c>
+      <c r="AS133" s="4">
+        <v>3.61</v>
+      </c>
+      <c r="AT133" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="AU133" s="4">
+        <v>1.87</v>
+      </c>
+      <c r="AV133" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="AW133" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="AX133" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="AY133" s="4">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="134" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>316</v>
+      </c>
+      <c r="B134" t="s">
+        <v>317</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="4">
+        <v>2.57</v>
+      </c>
+      <c r="E134" s="4">
+        <v>2.86</v>
+      </c>
+      <c r="F134" s="4">
+        <v>2.82</v>
+      </c>
+      <c r="G134" s="4">
+        <v>3.17</v>
+      </c>
+      <c r="H134" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="I134" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="J134" s="4">
+        <v>3.38</v>
+      </c>
+      <c r="K134" s="4">
+        <v>3.32</v>
+      </c>
+      <c r="L134" s="4">
+        <v>3.02</v>
+      </c>
+      <c r="M134" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="N134" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="O134" s="4">
+        <v>3.17</v>
+      </c>
+      <c r="P134" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="Q134" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="R134" s="4">
+        <v>3.18</v>
+      </c>
+      <c r="S134" s="4">
+        <v>3.07</v>
+      </c>
+      <c r="T134" s="4">
+        <v>3.08</v>
+      </c>
+      <c r="U134" s="4">
+        <v>3.16</v>
+      </c>
+      <c r="V134" s="4">
+        <v>3.39</v>
+      </c>
+      <c r="W134" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="X134" s="4">
+        <v>3.65</v>
+      </c>
+      <c r="Y134" s="4">
+        <v>2.87</v>
+      </c>
+      <c r="Z134" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="AA134" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="AB134" s="4">
+        <v>2.76</v>
+      </c>
+      <c r="AC134" s="4">
+        <v>2.37</v>
+      </c>
+      <c r="AD134" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AE134" s="4">
+        <v>2.46</v>
+      </c>
+      <c r="AF134" s="4">
+        <v>2.54</v>
+      </c>
+      <c r="AG134" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="AH134" s="4">
+        <v>2.16</v>
+      </c>
+      <c r="AI134" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="AJ134" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AK134" s="4">
+        <v>2.21</v>
+      </c>
+      <c r="AL134" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="AM134" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AN134" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="AO134" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AP134" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="AQ134" s="4">
+        <v>2.59</v>
+      </c>
+      <c r="AR134" s="4">
+        <v>3.42</v>
+      </c>
+      <c r="AS134" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="AT134" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="AU134" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="AV134" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="AW134" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="AX134" s="4">
+        <v>2.59</v>
+      </c>
+      <c r="AY134" s="4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>318</v>
+      </c>
+      <c r="B135" t="s">
+        <v>319</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="4">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E135" s="4">
+        <v>3.14</v>
+      </c>
+      <c r="F135" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="G135" s="4">
+        <v>4</v>
+      </c>
+      <c r="H135" s="4">
+        <v>4.07</v>
+      </c>
+      <c r="I135" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="J135" s="4">
+        <v>3.84</v>
+      </c>
+      <c r="K135" s="4">
+        <v>3.24</v>
+      </c>
+      <c r="L135" s="4">
+        <v>2.76</v>
+      </c>
+      <c r="M135" s="4">
+        <v>3.13</v>
+      </c>
+      <c r="N135" s="4">
+        <v>3.34</v>
+      </c>
+      <c r="O135" s="4">
+        <v>3.62</v>
+      </c>
+      <c r="P135" s="4">
+        <v>3.38</v>
+      </c>
+      <c r="Q135" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="R135" s="4">
+        <v>2.84</v>
+      </c>
+      <c r="S135" s="4">
+        <v>2.42</v>
+      </c>
+      <c r="T135" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="U135" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="V135" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="W135" s="4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="X135" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Y135" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="Z135" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AA135" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="AB135" s="4">
+        <v>2.27</v>
+      </c>
+      <c r="AC135" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AD135" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="AE135" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AF135" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="AG135" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="AH135" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="AI135" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="AJ135" s="4">
+        <v>1.91</v>
+      </c>
+      <c r="AK135" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="AL135" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="AM135" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="AN135" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="AO135" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="AP135" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="AQ135" s="4">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AR135" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="AS135" s="4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AT135" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AU135" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="AV135" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="AW135" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="AX135" s="4">
+        <v>1.82</v>
+      </c>
+      <c r="AY135" s="4">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="136" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>320</v>
+      </c>
+      <c r="B136" t="s">
+        <v>321</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="4">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E136" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="F136" s="4">
+        <v>1.97</v>
+      </c>
+      <c r="G136" s="4">
+        <v>3.16</v>
+      </c>
+      <c r="H136" s="4">
+        <v>2.21</v>
+      </c>
+      <c r="I136" s="4">
+        <v>1.97</v>
+      </c>
+      <c r="J136" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="K136" s="4">
+        <v>2.19</v>
+      </c>
+      <c r="L136" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="M136" s="4">
+        <v>1.77</v>
+      </c>
+      <c r="N136" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="O136" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="P136" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="Q136" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="R136" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="S136" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="T136" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="U136" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="V136" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="W136" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="X136" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="Y136" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="Z136" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="AA136" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="AB136" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="AC136" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="AD136" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="AE136" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="AF136" s="4">
+        <v>1.41</v>
+      </c>
+      <c r="AG136" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="AH136" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="AI136" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="AJ136" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="AK136" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="AL136" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="AM136" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="AN136" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="AO136" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AP136" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="AQ136" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="AR136" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS136" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="AT136" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="AU136" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="AV136" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AW136" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="AX136" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="AY136" s="4">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="137" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>322</v>
+      </c>
+      <c r="B137" t="s">
+        <v>323</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="E137" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="F137" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="G137" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="H137" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="I137" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J137" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="K137" s="4">
+        <v>2</v>
+      </c>
+      <c r="L137" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="M137" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="N137" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="O137" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="P137" s="4">
+        <v>1.51</v>
+      </c>
+      <c r="Q137" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="R137" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="S137" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="T137" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="U137" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="V137" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="W137" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="X137" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="Y137" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="Z137" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="AA137" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="AB137" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AC137" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="AD137" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="AE137" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF137" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="AG137" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="AH137" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AI137" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AJ137" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="AK137" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="AL137" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="AM137" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="AN137" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AO137" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AP137" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="AQ137" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR137" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="AS137" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="AT137" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AU137" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="AV137" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="AW137" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="AX137" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="AY137" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>324</v>
+      </c>
+      <c r="B138" t="s">
+        <v>325</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="E138" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="F138" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="G138" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="H138" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="I138" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="J138" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="K138" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="L138" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="M138" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="N138" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="O138" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="P138" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="Q138" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="R138" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="S138" s="4">
+        <v>1.28</v>
+      </c>
+      <c r="T138" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="U138" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="V138" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="W138" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="X138" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="Y138" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="Z138" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="AA138" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="AB138" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="AC138" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="AD138" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="AE138" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="AF138" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="AG138" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AH138" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AI138" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="AJ138" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="AK138" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="AL138" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="AM138" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="AN138" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="AO138" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="AP138" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="AQ138" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AR138" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AS138" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT138" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU138" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV138" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW138" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX138" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>326</v>
+      </c>
+      <c r="B139" t="s">
+        <v>327</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="E139" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F139" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="G139" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="H139" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="I139" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="J139" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="K139" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="L139" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="M139" s="4">
+        <v>1.37</v>
+      </c>
+      <c r="N139" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="O139" s="4">
+        <v>1.31</v>
+      </c>
+      <c r="P139" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="Q139" s="4">
+        <v>1.24</v>
+      </c>
+      <c r="R139" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="S139" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="T139" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="U139" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="V139" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="W139" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="X139" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="Y139" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="Z139" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="AA139" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="AB139" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="AC139" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="AD139" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AE139" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AF139" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="AG139" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="AH139" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI139" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AJ139" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="AK139" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="AL139" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AM139" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="AN139" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="AO139" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AP139" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="AQ139" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AR139" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="AS139" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="AT139" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU139" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV139" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="AW139" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="AX139" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="AY139" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>328</v>
+      </c>
+      <c r="B140" t="s">
+        <v>329</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E140" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="F140" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="G140" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="H140" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="I140" s="4">
+        <v>1.24</v>
+      </c>
+      <c r="J140" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="K140" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="L140" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="M140" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="N140" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="O140" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="P140" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="Q140" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="R140" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="S140" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="T140" s="4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="U140" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="V140" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="W140" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="X140" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="Y140" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="Z140" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="AA140" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="AB140" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="AC140" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="AD140" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="AE140" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="AF140" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="AG140" s="4">
+        <v>1.58</v>
+      </c>
+      <c r="AH140" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="AI140" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="AJ140" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AK140" s="4">
+        <v>1.82</v>
+      </c>
+      <c r="AL140" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="AM140" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="AN140" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="AO140" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="AP140" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="AQ140" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="AR140" s="4">
+        <v>2.63</v>
+      </c>
+      <c r="AS140" s="4">
+        <v>2.86</v>
+      </c>
+      <c r="AT140" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AU140" s="4">
+        <v>2.62</v>
+      </c>
+      <c r="AV140" s="4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AW140" s="4">
+        <v>2.36</v>
+      </c>
+      <c r="AX140" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="AY140" s="4">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>330</v>
+      </c>
+      <c r="B141" t="s">
+        <v>331</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="E141" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="F141" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="G141" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="H141" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="I141" s="4">
+        <v>1.51</v>
+      </c>
+      <c r="J141" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="K141" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="L141" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="M141" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="N141" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="O141" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="P141" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="Q141" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="R141" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="S141" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="T141" s="4">
+        <v>1.43</v>
+      </c>
+      <c r="U141" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="V141" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="W141" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="X141" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="Y141" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Z141" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="AA141" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="AB141" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="AC141" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="AD141" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="AE141" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="AF141" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="AG141" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="AH141" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="AI141" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="AJ141" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="AK141" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="AL141" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="AM141" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="AN141" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="AO141" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="AP141" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="AQ141" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR141" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="AS141" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="AT141" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="AU141" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="AV141" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="AW141" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="AX141" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="AY141" s="4">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>332</v>
+      </c>
+      <c r="B142" t="s">
+        <v>333</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1</v>
+      </c>
+      <c r="E142" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="F142" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="G142" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="H142" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="I142" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J142" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="K142" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L142" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="M142" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="N142" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="O142" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="P142" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="Q142" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R142" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S142" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T142" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="U142" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="V142" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="W142" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="X142" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="Z142" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="AA142" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AB142" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="AC142" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="AD142" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="AE142" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="AF142" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="AG142" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="AH142" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="AI142" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="AJ142" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="AK142" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="AL142" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="AM142" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="AN142" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="AO142" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="AP142" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ142" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR142" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS142" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT142" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU142" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="AV142" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="AW142" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="AX142" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY142" s="4">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="143" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>334</v>
+      </c>
+      <c r="B143" t="s">
+        <v>335</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E143" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="F143" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="G143" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="H143" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="I143" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="J143" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="K143" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="L143" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="M143" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="N143" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="O143" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="P143" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Q143" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="R143" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="S143" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="T143" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="U143" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="V143" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="W143" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="X143" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y143" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="Z143" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="AA143" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB143" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC143" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="AD143" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="AE143" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AF143" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AG143" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="AH143" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="AI143" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="AJ143" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="AK143" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AL143" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="AM143" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN143" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="AO143" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="AP143" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AQ143" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR143" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS143" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT143" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU143" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV143" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="AW143" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AX143" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="AY143" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="144" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>336</v>
+      </c>
+      <c r="B144" t="s">
+        <v>337</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="E144" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="F144" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="G144" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H144" s="4">
+        <v>0</v>
+      </c>
+      <c r="I144" s="4">
+        <v>0</v>
+      </c>
+      <c r="J144" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="K144" s="4">
+        <v>0</v>
+      </c>
+      <c r="L144" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="M144" s="4">
+        <v>0</v>
+      </c>
+      <c r="N144" s="4">
+        <v>0</v>
+      </c>
+      <c r="O144" s="4">
+        <v>0</v>
+      </c>
+      <c r="P144" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="4">
+        <v>0</v>
+      </c>
+      <c r="R144" s="4">
+        <v>0</v>
+      </c>
+      <c r="S144" s="4">
+        <v>0</v>
+      </c>
+      <c r="T144" s="4">
+        <v>0</v>
+      </c>
+      <c r="U144" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="V144" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="W144" s="4">
+        <v>0</v>
+      </c>
+      <c r="X144" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y144" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z144" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="AB144" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="AC144" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD144" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE144" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF144" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AG144" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="AH144" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="AI144" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="AJ144" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AK144" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AL144" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="AM144" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="AN144" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="AO144" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="AP144" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="AQ144" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="AR144" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="AS144" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="AT144" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="AU144" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="AV144" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="AW144" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="AX144" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="AY144" s="4">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>338</v>
+      </c>
+      <c r="B145" t="s">
+        <v>339</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="F145" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="G145" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="H145" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I145" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="J145" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K145" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L145" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="M145" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="N145" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O145" s="4">
+        <v>0</v>
+      </c>
+      <c r="P145" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="4">
+        <v>0</v>
+      </c>
+      <c r="R145" s="4">
+        <v>0</v>
+      </c>
+      <c r="S145" s="4">
+        <v>0</v>
+      </c>
+      <c r="T145" s="4">
+        <v>0</v>
+      </c>
+      <c r="U145" s="4">
+        <v>0</v>
+      </c>
+      <c r="V145" s="4">
+        <v>0</v>
+      </c>
+      <c r="W145" s="4">
+        <v>0</v>
+      </c>
+      <c r="X145" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y145" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF145" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AG145" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="AH145" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="AI145" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AJ145" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AK145" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AL145" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AM145" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AN145" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AO145" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AP145" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AQ145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR145" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AS145" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AT145" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AU145" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="AV145" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="AW145" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="AX145" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="AY145" s="4">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>340</v>
+      </c>
+      <c r="B146" t="s">
+        <v>341</v>
+      </c>
+      <c r="C146" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0</v>
+      </c>
+      <c r="F146" s="4">
+        <v>0</v>
+      </c>
+      <c r="G146" s="4">
+        <v>0</v>
+      </c>
+      <c r="H146" s="4">
+        <v>0</v>
+      </c>
+      <c r="I146" s="4">
+        <v>0</v>
+      </c>
+      <c r="J146" s="4">
+        <v>0</v>
+      </c>
+      <c r="K146" s="4">
+        <v>0</v>
+      </c>
+      <c r="L146" s="4">
+        <v>0</v>
+      </c>
+      <c r="M146" s="4">
+        <v>0</v>
+      </c>
+      <c r="N146" s="4">
+        <v>0</v>
+      </c>
+      <c r="O146" s="4">
+        <v>0</v>
+      </c>
+      <c r="P146" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="4">
+        <v>0</v>
+      </c>
+      <c r="R146" s="4">
+        <v>0</v>
+      </c>
+      <c r="S146" s="4">
+        <v>0</v>
+      </c>
+      <c r="T146" s="4">
+        <v>0</v>
+      </c>
+      <c r="U146" s="4">
+        <v>0</v>
+      </c>
+      <c r="V146" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="W146" s="4">
+        <v>0</v>
+      </c>
+      <c r="X146" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y146" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB146" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="AC146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM146" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="AN146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO146" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="AP146" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AQ146" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="AR146" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="AS146" s="4">
+        <v>2.74</v>
+      </c>
+      <c r="AT146" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="AU146" s="4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AV146" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="AW146" s="4">
+        <v>2.37</v>
+      </c>
+      <c r="AX146" s="4">
+        <v>1.97</v>
+      </c>
+      <c r="AY146" s="4">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>342</v>
+      </c>
+      <c r="B147" t="s">
+        <v>343</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="4">
+        <v>0</v>
+      </c>
+      <c r="E147" s="4">
+        <v>0</v>
+      </c>
+      <c r="F147" s="4">
+        <v>0</v>
+      </c>
+      <c r="G147" s="4">
+        <v>0</v>
+      </c>
+      <c r="H147" s="4">
+        <v>0</v>
+      </c>
+      <c r="I147" s="4">
+        <v>0</v>
+      </c>
+      <c r="J147" s="4">
+        <v>0</v>
+      </c>
+      <c r="K147" s="4">
+        <v>0</v>
+      </c>
+      <c r="L147" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="M147" s="4">
+        <v>0</v>
+      </c>
+      <c r="N147" s="4">
+        <v>0</v>
+      </c>
+      <c r="O147" s="4">
+        <v>0</v>
+      </c>
+      <c r="P147" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="4">
+        <v>0</v>
+      </c>
+      <c r="R147" s="4">
+        <v>0</v>
+      </c>
+      <c r="S147" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="T147" s="4">
+        <v>0</v>
+      </c>
+      <c r="U147" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="V147" s="4">
+        <v>0</v>
+      </c>
+      <c r="W147" s="4">
+        <v>0</v>
+      </c>
+      <c r="X147" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y147" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z147" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI147" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY147" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
